--- a/Analyzer Results/RESULTS_MTT_MERGED_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K325"/>
+  <dimension ref="A1:N325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>PTPA</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>PTTA</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>RMS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>tau</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percentPPI</t>
         </is>
       </c>
     </row>
@@ -524,14 +539,21 @@
         <v>0.09287925696594428</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08668730650154799</v>
+        <v>0.09287925696594428</v>
       </c>
       <c r="J2" t="n">
+        <v>0.08359133126934985</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.08978328173374614</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.7182662538699691</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.07739938080495357</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -567,13 +589,22 @@
         <v>0.05263157894736843</v>
       </c>
       <c r="I3" t="n">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.04953560371517028</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>0.653250773993808</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.04024767801857585</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1409836065573771</v>
       </c>
     </row>
     <row r="4">
@@ -610,13 +641,22 @@
         <v>0.01547987616099071</v>
       </c>
       <c r="I4" t="n">
+        <v>0.01547987616099071</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.02786377708978328</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.006191950464396285</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>0.2476780185758514</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.003095975232198143</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +696,19 @@
         <v>0.108359133126935</v>
       </c>
       <c r="J5" t="n">
+        <v>0.1114551083591331</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.108359133126935</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.8390092879256966</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.09597523219814243</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.05245901639344262</v>
       </c>
     </row>
     <row r="6">
@@ -696,13 +745,22 @@
         <v>0.006191950464396285</v>
       </c>
       <c r="I6" t="n">
+        <v>0.006191950464396285</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.006191950464396285</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.009287925696594427</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.826625386996904</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.01238390092879257</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.826625386996904</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01238390092879257</v>
+      <c r="N6" t="n">
+        <v>0.1114754098360656</v>
       </c>
     </row>
     <row r="7">
@@ -739,13 +797,22 @@
         <v>0.06811145510835903</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05572755417956657</v>
+        <v>0.06811145510835909</v>
       </c>
       <c r="J7" t="n">
+        <v>0.06501547987616099</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.06501547987616099</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.498452012383901</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.04953560371517028</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04426229508196721</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +849,22 @@
         <v>0.0975232198142415</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0913312693498452</v>
+        <v>0.09907120743034056</v>
       </c>
       <c r="J8" t="n">
+        <v>0.1362229102167183</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.09287925696594428</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.7461300309597524</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.08668730650154799</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01475409836065574</v>
       </c>
     </row>
     <row r="9">
@@ -825,13 +901,22 @@
         <v>0.0975232198142415</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07739938080495357</v>
+        <v>0.09597523219814243</v>
       </c>
       <c r="J9" t="n">
+        <v>0.09907120743034056</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.08359133126934985</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.6718266253869969</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.06501547987616099</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="10">
@@ -868,13 +953,22 @@
         <v>0.01857585139318885</v>
       </c>
       <c r="I10" t="n">
-        <v>0.021671826625387</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="J10" t="n">
+        <v>0.01238390092879257</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.01857585139318885</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.8513931888544892</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.02476780185758514</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.2885245901639344</v>
       </c>
     </row>
     <row r="11">
@@ -914,10 +1008,19 @@
         <v>0.003095975232198143</v>
       </c>
       <c r="J11" t="n">
+        <v>0.003095975232198143</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.003095975232198143</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.7151702786377709</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.009287925696594427</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="12">
@@ -957,11 +1060,20 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4210526315789474</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8885245901639345</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -997,13 +1109,22 @@
         <v>0.04643962848297214</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04024767801857585</v>
+        <v>0.04643962848297214</v>
       </c>
       <c r="J13" t="n">
+        <v>0.04953560371517028</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.04334365325077399</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.5696594427244582</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.03405572755417957</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="14">
@@ -1040,14 +1161,23 @@
         <v>0.03095975232198143</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01547987616099071</v>
+        <v>0.03095975232198143</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4303405572755418</v>
+        <v>0.009287925696594427</v>
       </c>
       <c r="K14" t="n">
         <v>0.01547987616099071</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.4303405572755418</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.01547987616099071</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.957377049180328</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1083,14 +1213,23 @@
         <v>0.02321981424148607</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02786377708978328</v>
+        <v>0.021671826625387</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6656346749226006</v>
+        <v>0.04024767801857585</v>
       </c>
       <c r="K15" t="n">
         <v>0.02786377708978328</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.6656346749226006</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.02786377708978328</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.9377049180327869</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1129,10 +1268,19 @@
         <v>0.02476780185758514</v>
       </c>
       <c r="J16" t="n">
+        <v>0.03405572755417952</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.02476780185758514</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.7678018575851394</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.021671826625387</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.839344262295082</v>
       </c>
     </row>
     <row r="17">
@@ -1166,16 +1314,25 @@
         <v>0.1718266253869969</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009287925696594427</v>
+        <v>0.0108359133126935</v>
       </c>
       <c r="I17" t="n">
-        <v>0.009287925696594427</v>
+        <v>0.01238390092879257</v>
       </c>
       <c r="J17" t="n">
+        <v>0.021671826625387</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.01238390092879257</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.4148606811145511</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.006191950464396285</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.9475409836065574</v>
       </c>
     </row>
     <row r="18">
@@ -1212,13 +1369,22 @@
         <v>0.02321981424148607</v>
       </c>
       <c r="I18" t="n">
+        <v>0.02786377708978328</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.03095975232198143</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.021671826625387</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7120743034055728</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.01857585139318885</v>
       </c>
-      <c r="J18" t="n">
-        <v>0.7120743034055728</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.01857585139318885</v>
+      <c r="N18" t="n">
+        <v>0.8786885245901639</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1421,22 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="I19" t="n">
+        <v>0.06191950464396286</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.06191950464396282</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.05263157894736843</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>0.5603715170278638</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.04334365325077399</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1508196721311476</v>
       </c>
     </row>
     <row r="20">
@@ -1298,14 +1473,21 @@
         <v>0.8111455108359134</v>
       </c>
       <c r="I20" t="n">
+        <v>0.7801857585139319</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7832817337461301</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.8297213622291022</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>0.3498452012383901</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.8049535603715171</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1341,13 +1523,22 @@
         <v>0.7306501547987616</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7523219814241486</v>
+        <v>0.7182662538699691</v>
       </c>
       <c r="J21" t="n">
+        <v>0.6965944272445819</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7554179566563467</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.4086687306501548</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.6904024767801858</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.3180327868852459</v>
       </c>
     </row>
     <row r="22">
@@ -1384,13 +1575,22 @@
         <v>0.5479876160990712</v>
       </c>
       <c r="I22" t="n">
+        <v>0.5479876160990712</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5046439628482972</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.5510835913312694</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>0.3746130030959752</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5386996904024768</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.9770491803278689</v>
       </c>
     </row>
     <row r="23">
@@ -1427,13 +1627,22 @@
         <v>0.7801857585139319</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8173374613003092</v>
+        <v>0.758513931888545</v>
       </c>
       <c r="J23" t="n">
+        <v>0.7430340557275542</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8173374613003096</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.5201238390092879</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.7863777089783274</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="24">
@@ -1470,13 +1679,22 @@
         <v>0.8049535603715171</v>
       </c>
       <c r="I24" t="n">
+        <v>0.8080495356037152</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.8390092879256966</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>0.6191950464396285</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8575851393188855</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="25">
@@ -1513,13 +1731,22 @@
         <v>0.7647058823529408</v>
       </c>
       <c r="I25" t="n">
+        <v>0.7708978328173375</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.7662538699690403</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.8204334365325078</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>0.8328173374613002</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.8421052631578948</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.4049180327868852</v>
       </c>
     </row>
     <row r="26">
@@ -1556,13 +1783,22 @@
         <v>0.7739938080495357</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7801857585139319</v>
+        <v>0.7863777089783273</v>
       </c>
       <c r="J26" t="n">
+        <v>0.7739938080495357</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.3219814241486068</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.6873065015479876</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6131147540983606</v>
       </c>
     </row>
     <row r="27">
@@ -1590,22 +1826,31 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9969040247678019</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9969040247678019</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
         <v>0.6780185758513928</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7275541795665621</v>
+        <v>0.6780185758513931</v>
       </c>
       <c r="J27" t="n">
+        <v>0.6377708978328174</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.7337461300309598</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.300309597523219</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.6222910216718265</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.4557377049180328</v>
       </c>
     </row>
     <row r="28">
@@ -1642,13 +1887,22 @@
         <v>0.7151702786377709</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7554179566563467</v>
+        <v>0.7213622291021672</v>
       </c>
       <c r="J28" t="n">
+        <v>0.7120743034055728</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7647058823529407</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.5510835913312694</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.736842105263158</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.7426229508196721</v>
       </c>
     </row>
     <row r="29">
@@ -1685,13 +1939,22 @@
         <v>0.7244582043343654</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7492260061919505</v>
+        <v>0.7275541795665635</v>
       </c>
       <c r="J29" t="n">
+        <v>0.6749226006191951</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.758513931888545</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.3374613003095975</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.7151702786377709</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5836065573770493</v>
       </c>
     </row>
     <row r="30">
@@ -1728,13 +1991,22 @@
         <v>0.5820433436532508</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6253869969040248</v>
+        <v>0.5913312693498453</v>
       </c>
       <c r="J30" t="n">
+        <v>0.5758513931888545</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.6315789473684211</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.3343653250773964</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.6099071207430341</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="31">
@@ -1771,13 +2043,22 @@
         <v>0.7507739938080495</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7739938080495357</v>
+        <v>0.7554179566563463</v>
       </c>
       <c r="J31" t="n">
+        <v>0.7337461300309598</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7801857585139319</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.4520123839009288</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.7275541795665634</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.6721311475409837</v>
       </c>
     </row>
     <row r="32">
@@ -1814,13 +2095,22 @@
         <v>0.6904024767801858</v>
       </c>
       <c r="I32" t="n">
-        <v>0.736842105263158</v>
+        <v>0.6934984520123839</v>
       </c>
       <c r="J32" t="n">
+        <v>0.6253869969040248</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.7523219814241486</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.6130030959752323</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.7120743034055728</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.7081967213114755</v>
       </c>
     </row>
     <row r="33">
@@ -1857,13 +2147,22 @@
         <v>0.7770897832817336</v>
       </c>
       <c r="I33" t="n">
+        <v>0.739938080495356</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.7492260061919503</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.826625386996904</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>0.628482972136223</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.7925696594427245</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4852459016393442</v>
       </c>
     </row>
     <row r="34">
@@ -1900,13 +2199,22 @@
         <v>0.7554179566563467</v>
       </c>
       <c r="I34" t="n">
-        <v>0.777089783281731</v>
+        <v>0.7616099071207431</v>
       </c>
       <c r="J34" t="n">
+        <v>0.7089783281733747</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7770897832817338</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.3839009287925697</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.7337461300309598</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5147540983606558</v>
       </c>
     </row>
     <row r="35">
@@ -1943,13 +2251,22 @@
         <v>0.5944272445820433</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6315789473684211</v>
+        <v>0.6068111455108359</v>
       </c>
       <c r="J35" t="n">
+        <v>0.5696594427244582</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.6377708978328174</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.325077399380805</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.6191950464396285</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.721311475409836</v>
       </c>
     </row>
     <row r="36">
@@ -1986,13 +2303,22 @@
         <v>0.739938080495356</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7863777089783283</v>
+        <v>0.7430340557275542</v>
       </c>
       <c r="J36" t="n">
+        <v>0.6501547987616099</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7832817337461301</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.5665634674922601</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.7987616099071208</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7081967213114755</v>
       </c>
     </row>
     <row r="37">
@@ -2029,13 +2355,22 @@
         <v>0.6594427244582044</v>
       </c>
       <c r="I37" t="n">
-        <v>0.6439628482972136</v>
+        <v>0.6656346749226006</v>
       </c>
       <c r="J37" t="n">
+        <v>0.5975232198142415</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.65015479876161</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.2972136222910217</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.6037151702786379</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5245901639344261</v>
       </c>
     </row>
     <row r="38">
@@ -2072,14 +2407,21 @@
         <v>0.6222910216718267</v>
       </c>
       <c r="I38" t="n">
-        <v>0.5727554179566563</v>
+        <v>0.6253869969040248</v>
       </c>
       <c r="J38" t="n">
+        <v>0.653250773993808</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.1826625386996904</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5015479876160991</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2115,13 +2457,22 @@
         <v>0.5727554179566564</v>
       </c>
       <c r="I39" t="n">
-        <v>0.6130030959752323</v>
+        <v>0.5758513931888545</v>
       </c>
       <c r="J39" t="n">
+        <v>0.6160990712074303</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6191950464396285</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.2507739938080495</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.5696594427244582</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="40">
@@ -2158,13 +2509,22 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1207430340557276</v>
+        <v>0.1702786377708979</v>
       </c>
       <c r="J40" t="n">
+        <v>0.173374613003096</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1362229102167183</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.2879256965944272</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.07120743034055728</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.9852459016393442</v>
       </c>
     </row>
     <row r="41">
@@ -2201,13 +2561,22 @@
         <v>0.6253869969040248</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6037151702786379</v>
+        <v>0.628482972136223</v>
       </c>
       <c r="J41" t="n">
+        <v>0.6315789473684211</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.6222910216718267</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.204334365325077</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.5046439628482967</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.09180327868852459</v>
       </c>
     </row>
     <row r="42">
@@ -2244,13 +2613,22 @@
         <v>0.6191950464396285</v>
       </c>
       <c r="I42" t="n">
-        <v>0.5696594427244582</v>
+        <v>0.6222910216718267</v>
       </c>
       <c r="J42" t="n">
+        <v>0.6934984520123839</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.5851393188854489</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.1702786377708979</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.4520123839009286</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.1016393442622951</v>
       </c>
     </row>
     <row r="43">
@@ -2287,13 +2665,22 @@
         <v>0.4334365325077399</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4024767801857586</v>
+        <v>0.4334365325077399</v>
       </c>
       <c r="J43" t="n">
+        <v>0.4674922600619195</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.4148606811145511</v>
+      </c>
+      <c r="L43" t="n">
         <v>0.1857585139318886</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.3188854489164087</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.5622950819672131</v>
       </c>
     </row>
     <row r="44">
@@ -2330,13 +2717,22 @@
         <v>0.3343653250773992</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3343653250773994</v>
+        <v>0.3281733746130031</v>
       </c>
       <c r="J44" t="n">
+        <v>0.3157894736842099</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.346749226006192</v>
+      </c>
+      <c r="L44" t="n">
         <v>0.4674922600619195</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.2662538699690403</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5442622950819672</v>
       </c>
     </row>
     <row r="45">
@@ -2373,13 +2769,22 @@
         <v>0.563467492260062</v>
       </c>
       <c r="I45" t="n">
-        <v>0.5479876160990712</v>
+        <v>0.5665634674922601</v>
       </c>
       <c r="J45" t="n">
+        <v>0.5944272445820433</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.5541795665634676</v>
+      </c>
+      <c r="L45" t="n">
         <v>0.2012383900928793</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.4891640866873065</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.2213114754098361</v>
       </c>
     </row>
     <row r="46">
@@ -2416,13 +2821,22 @@
         <v>0.455108359133127</v>
       </c>
       <c r="I46" t="n">
+        <v>0.455108359133127</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.4272445820433437</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
+        <v>0.4365325077399381</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3962848297213623</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="47">
@@ -2459,13 +2873,22 @@
         <v>0.4891640866873065</v>
       </c>
       <c r="I47" t="n">
-        <v>0.4520123839009251</v>
+        <v>0.4891640866873065</v>
       </c>
       <c r="J47" t="n">
+        <v>0.5201238390092879</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.1981424148606811</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.4272445820433437</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="48">
@@ -2502,13 +2925,22 @@
         <v>0.2910216718266254</v>
       </c>
       <c r="I48" t="n">
-        <v>0.2786377708978328</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="J48" t="n">
+        <v>0.2569659442724457</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.281733746130031</v>
+      </c>
+      <c r="L48" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.2445820433436533</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.6918032786885246</v>
       </c>
     </row>
     <row r="49">
@@ -2545,13 +2977,22 @@
         <v>0.325077399380805</v>
       </c>
       <c r="I49" t="n">
-        <v>0.2972136222910217</v>
+        <v>0.325077399380805</v>
       </c>
       <c r="J49" t="n">
+        <v>0.3312693498452012</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3126934984520124</v>
+      </c>
+      <c r="L49" t="n">
         <v>0.1919504643962849</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1640866873065016</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.4360655737704918</v>
       </c>
     </row>
     <row r="50">
@@ -2588,13 +3029,22 @@
         <v>0.5232198142414861</v>
       </c>
       <c r="I50" t="n">
-        <v>0.5170278637770899</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="J50" t="n">
+        <v>0.5510835913312694</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.5356037151702787</v>
+      </c>
+      <c r="L50" t="n">
         <v>0.1640866873065016</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.4179566563467493</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.660655737704918</v>
       </c>
     </row>
     <row r="51">
@@ -2631,13 +3081,22 @@
         <v>0.4210526315789474</v>
       </c>
       <c r="I51" t="n">
-        <v>0.4210526315789474</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="J51" t="n">
+        <v>0.4396284829721362</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.4241486068111455</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.3126934984520124</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.3808049535603715</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.6229508196721312</v>
       </c>
     </row>
     <row r="52">
@@ -2674,13 +3133,22 @@
         <v>0.3513931888544892</v>
       </c>
       <c r="I52" t="n">
+        <v>0.3575851393188855</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.3684210526315765</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.3560371517027864</v>
       </c>
-      <c r="J52" t="n">
-        <v>0.3560371517027864</v>
-      </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.3622291021671827</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.9278688524590164</v>
       </c>
     </row>
     <row r="53">
@@ -2717,13 +3185,22 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2569659442724458</v>
+        <v>0.2755417956656347</v>
       </c>
       <c r="J53" t="n">
+        <v>0.2755417956656347</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2693498452012384</v>
+      </c>
+      <c r="L53" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.2260061919504644</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.3967213114754098</v>
       </c>
     </row>
     <row r="54">
@@ -2760,13 +3237,22 @@
         <v>0.3281733746130031</v>
       </c>
       <c r="I54" t="n">
-        <v>0.3157894736842106</v>
+        <v>0.3312693498452012</v>
       </c>
       <c r="J54" t="n">
+        <v>0.3591331269349846</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3281733746130031</v>
+      </c>
+      <c r="L54" t="n">
         <v>0.3715170278637771</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.2786377708978328</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.3655737704918033</v>
       </c>
     </row>
     <row r="55">
@@ -2803,13 +3289,22 @@
         <v>0.390092879256966</v>
       </c>
       <c r="I55" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.3931888544891641</v>
       </c>
       <c r="J55" t="n">
+        <v>0.4179566563467492</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3312693498452012</v>
+      </c>
+      <c r="L55" t="n">
         <v>0.1455108359133127</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1609907120743034</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -2846,14 +3341,21 @@
         <v>0.303405572755418</v>
       </c>
       <c r="I56" t="n">
-        <v>0.3003095975232198</v>
+        <v>0.303405572755418</v>
       </c>
       <c r="J56" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.303405572755418</v>
+      </c>
+      <c r="L56" t="n">
         <v>0.5232198142414861</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2879256965944272</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2889,13 +3391,22 @@
         <v>0.2724458204334366</v>
       </c>
       <c r="I57" t="n">
+        <v>0.2724458204334366</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.2972136222910217</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2755417956656347</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.7739938080495357</v>
+      </c>
+      <c r="M57" t="n">
         <v>0.281733746130031</v>
       </c>
-      <c r="J57" t="n">
-        <v>0.7739938080495357</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.281733746130031</v>
+      <c r="N57" t="n">
+        <v>0.2475409836065574</v>
       </c>
     </row>
     <row r="58">
@@ -2932,13 +3443,22 @@
         <v>0.04334365325077399</v>
       </c>
       <c r="I58" t="n">
+        <v>0.04334365325077399</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.04643962848297214</v>
+      </c>
+      <c r="K58" t="n">
         <v>0.03715170278637771</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>0.8885448916408669</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.03095975232198143</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2975,13 +3495,22 @@
         <v>0.1919504643962849</v>
       </c>
       <c r="I59" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.1919504643962849</v>
       </c>
       <c r="J59" t="n">
+        <v>0.1857585139318886</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.1609907120743034</v>
+      </c>
+      <c r="L59" t="n">
         <v>0.6625386996904025</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.1362229102167183</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2967213114754098</v>
       </c>
     </row>
     <row r="60">
@@ -3018,13 +3547,22 @@
         <v>0.2321981424148607</v>
       </c>
       <c r="I60" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2229102167182663</v>
       </c>
       <c r="J60" t="n">
+        <v>0.2291021671826625</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.1919504643962846</v>
+      </c>
+      <c r="L60" t="n">
         <v>0.4458204334365325</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.1424148606811146</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="61">
@@ -3061,13 +3599,22 @@
         <v>0.2678018575851393</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2538699690402477</v>
+        <v>0.2662538699690403</v>
       </c>
       <c r="J61" t="n">
+        <v>0.2724458204334356</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.260061919504644</v>
+      </c>
+      <c r="L61" t="n">
         <v>0.5789473684210527</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.2352941176470588</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5360655737704918</v>
       </c>
     </row>
     <row r="62">
@@ -3104,13 +3651,22 @@
         <v>0.2352941176470588</v>
       </c>
       <c r="I62" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2321981424148607</v>
       </c>
       <c r="J62" t="n">
+        <v>0.2538699690402477</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.2414860681114551</v>
+      </c>
+      <c r="L62" t="n">
         <v>0.7956656346749227</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.260061919504644</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.2098360655737705</v>
       </c>
     </row>
     <row r="63">
@@ -3147,13 +3703,22 @@
         <v>0.195046439628483</v>
       </c>
       <c r="I63" t="n">
-        <v>0.1547987616099071</v>
+        <v>0.195046439628483</v>
       </c>
       <c r="J63" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.1640866873065016</v>
+      </c>
+      <c r="L63" t="n">
         <v>0.4643962848297214</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1269349845201238</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.3885245901639344</v>
       </c>
     </row>
     <row r="64">
@@ -3190,13 +3755,22 @@
         <v>0.2043343653250774</v>
       </c>
       <c r="I64" t="n">
-        <v>0.173374613003096</v>
+        <v>0.2074303405572755</v>
       </c>
       <c r="J64" t="n">
+        <v>0.2012383900928793</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.1888544891640867</v>
+      </c>
+      <c r="L64" t="n">
         <v>0.4922600619195047</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.151702786377709</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.7885245901639344</v>
       </c>
     </row>
     <row r="65">
@@ -3233,13 +3807,22 @@
         <v>0.1996904024767802</v>
       </c>
       <c r="I65" t="n">
-        <v>0.1919504643962849</v>
+        <v>0.1981424148606811</v>
       </c>
       <c r="J65" t="n">
+        <v>0.21671826625387</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.195046439628483</v>
+      </c>
+      <c r="L65" t="n">
         <v>0.6904024767801858</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.1826625386996904</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8983606557377048</v>
       </c>
     </row>
     <row r="66">
@@ -3276,13 +3859,22 @@
         <v>0.1857585139318886</v>
       </c>
       <c r="I66" t="n">
-        <v>0.151702786377709</v>
+        <v>0.1857585139318886</v>
       </c>
       <c r="J66" t="n">
+        <v>0.2136222910216719</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="L66" t="n">
         <v>0.5077399380804953</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.1331269349845201</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.8081967213114754</v>
       </c>
     </row>
     <row r="67">
@@ -3319,13 +3911,22 @@
         <v>0.1207430340557276</v>
       </c>
       <c r="I67" t="n">
-        <v>0.09597523219814243</v>
+        <v>0.1207430340557276</v>
       </c>
       <c r="J67" t="n">
+        <v>0.1207430340557276</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.09907120743034056</v>
+      </c>
+      <c r="L67" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.07430340557275542</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.7508196721311475</v>
       </c>
     </row>
     <row r="68">
@@ -3362,13 +3963,22 @@
         <v>0.1424148606811146</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1114551083591331</v>
+        <v>0.1424148606811146</v>
       </c>
       <c r="J68" t="n">
+        <v>0.1486068111455108</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.1238390092879257</v>
+      </c>
+      <c r="L68" t="n">
         <v>0.6006191950464397</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1021671826625387</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.7590163934426229</v>
       </c>
     </row>
     <row r="69">
@@ -3405,13 +4015,22 @@
         <v>0.1455108359133127</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1145510835913313</v>
+        <v>0.1455108359133127</v>
       </c>
       <c r="J69" t="n">
+        <v>0.1702786377708979</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.1269349845201238</v>
+      </c>
+      <c r="L69" t="n">
         <v>0.4891640866873065</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.09907120743034056</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="70">
@@ -3448,13 +4067,22 @@
         <v>0.1160990712074303</v>
       </c>
       <c r="I70" t="n">
-        <v>0.09907120743034056</v>
+        <v>0.1145510835913313</v>
       </c>
       <c r="J70" t="n">
+        <v>0.1021671826625387</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.6934984520123839</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.0804953560371517</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.5934426229508196</v>
       </c>
     </row>
     <row r="71">
@@ -3491,13 +4119,22 @@
         <v>0.07430340557275542</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05882352941176467</v>
+        <v>0.07430340557275542</v>
       </c>
       <c r="J71" t="n">
+        <v>0.09597523219814243</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.06811145510835907</v>
+      </c>
+      <c r="L71" t="n">
         <v>0.6315789473684211</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.04643962848297214</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.8672131147540983</v>
       </c>
     </row>
     <row r="72">
@@ -3534,13 +4171,22 @@
         <v>0.2260061919504644</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2198142414860681</v>
+        <v>0.2291021671826625</v>
       </c>
       <c r="J72" t="n">
+        <v>0.2321981424148607</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.238390092879257</v>
+      </c>
+      <c r="L72" t="n">
         <v>0.8080495356037152</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.2538699690402477</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="73">
@@ -3577,13 +4223,22 @@
         <v>0.130030959752322</v>
       </c>
       <c r="I73" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1331269349845201</v>
       </c>
       <c r="J73" t="n">
+        <v>0.1795665634674923</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.130030959752322</v>
+      </c>
+      <c r="L73" t="n">
         <v>0.6687306501547988</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0.108359133126935</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="74">
@@ -3620,14 +4275,21 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2662538699690403</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="J74" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.2538699690402477</v>
+      </c>
+      <c r="L74" t="n">
         <v>0.7770897832817338</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3498452012383901</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3666,10 +4328,19 @@
         <v>0.1795665634674923</v>
       </c>
       <c r="J75" t="n">
+        <v>0.151702786377709</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1826625386996904</v>
+      </c>
+      <c r="L75" t="n">
         <v>0.4272445820433437</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1671826625386997</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
@@ -3706,13 +4377,22 @@
         <v>0.03560371517027864</v>
       </c>
       <c r="I76" t="n">
-        <v>0.03095975232198143</v>
+        <v>0.03715170278637771</v>
       </c>
       <c r="J76" t="n">
+        <v>0.02476780185758514</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.03405572755417957</v>
+      </c>
+      <c r="L76" t="n">
         <v>0.758513931888545</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.03715170278637771</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="77">
@@ -3749,13 +4429,22 @@
         <v>0.260061919504644</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.260061919504644</v>
       </c>
       <c r="J77" t="n">
+        <v>0.2476780185758514</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.2879256965944272</v>
+      </c>
+      <c r="L77" t="n">
         <v>0.8142414860681115</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.3684210526315789</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.006557377049180328</v>
       </c>
     </row>
     <row r="78">
@@ -3792,13 +4481,22 @@
         <v>0.153250773993808</v>
       </c>
       <c r="I78" t="n">
+        <v>0.151702786377709</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1444788441692467</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.1702786377708979</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.8111455108359134</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.1919504643962849</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.8590163934426229</v>
       </c>
     </row>
     <row r="79">
@@ -3835,13 +4533,22 @@
         <v>0.1393188854489164</v>
       </c>
       <c r="I79" t="n">
-        <v>0.1826625386996904</v>
+        <v>0.1393188854489164</v>
       </c>
       <c r="J79" t="n">
+        <v>0.1238390092879257</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.1795665634674923</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.8018575851393189</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.2012383900928793</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.119672131147541</v>
       </c>
     </row>
     <row r="80">
@@ -3878,13 +4585,22 @@
         <v>0.2213622291021672</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.2198142414860681</v>
       </c>
       <c r="J80" t="n">
+        <v>0.195046439628483</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.2569659442724458</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.8204334365325078</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.325077399380805</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.1704918032786885</v>
       </c>
     </row>
     <row r="81">
@@ -3921,13 +4637,22 @@
         <v>0.1640866873065016</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2074303405572755</v>
+        <v>0.1671826625386997</v>
       </c>
       <c r="J81" t="n">
+        <v>0.1609907120743034</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2012383900928793</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.7925696594427245</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.2507739938080495</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.07049180327868854</v>
       </c>
     </row>
     <row r="82">
@@ -3964,13 +4689,22 @@
         <v>0.173374613003096</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2043343653250774</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="J82" t="n">
+        <v>0.1888544891640867</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.1981424148606811</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.6811145510835914</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.2229102167182663</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.3557377049180328</v>
       </c>
     </row>
     <row r="83">
@@ -4007,13 +4741,22 @@
         <v>0.08359133126934985</v>
       </c>
       <c r="I83" t="n">
-        <v>0.1052631578947369</v>
+        <v>0.08668730650154799</v>
       </c>
       <c r="J83" t="n">
+        <v>0.07120743034055728</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.09597523219814243</v>
+      </c>
+      <c r="L83" t="n">
         <v>0.5851393188854489</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.130030959752322</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.3475409836065574</v>
       </c>
     </row>
     <row r="84">
@@ -4053,10 +4796,19 @@
         <v>0.1021671826625387</v>
       </c>
       <c r="J84" t="n">
+        <v>0.09287925696594428</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.1021671826625387</v>
+      </c>
+      <c r="L84" t="n">
         <v>0.6749226006191951</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1114551083591331</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="85">
@@ -4093,13 +4845,22 @@
         <v>0.06501547987616099</v>
       </c>
       <c r="I85" t="n">
+        <v>0.06501547987616099</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.07120743034055728</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.7616099071207431</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.06811145510835914</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.4163934426229509</v>
       </c>
     </row>
     <row r="86">
@@ -4136,13 +4897,22 @@
         <v>0.07739938080495357</v>
       </c>
       <c r="I86" t="n">
+        <v>0.07739938080495357</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.08978328173374614</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.07430340557275542</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.7244582043343654</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.05572755417956657</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.3081967213114754</v>
       </c>
     </row>
     <row r="87">
@@ -4179,13 +4949,22 @@
         <v>0.1269349845201238</v>
       </c>
       <c r="I87" t="n">
-        <v>0.1362229102167183</v>
+        <v>0.1269349845201238</v>
       </c>
       <c r="J87" t="n">
+        <v>0.130030959752322</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.1424148606811146</v>
+      </c>
+      <c r="L87" t="n">
         <v>0.7213622291021672</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.1547987616099071</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.3377049180327869</v>
       </c>
     </row>
     <row r="88">
@@ -4222,13 +5001,22 @@
         <v>0.0804953560371517</v>
       </c>
       <c r="I88" t="n">
-        <v>0.08359133126934985</v>
+        <v>0.0804953560371517</v>
       </c>
       <c r="J88" t="n">
+        <v>0.0804953560371517</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0804953560371517</v>
+      </c>
+      <c r="L88" t="n">
         <v>0.7058823529411761</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.09287925696594428</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.7311475409836066</v>
       </c>
     </row>
     <row r="89">
@@ -4265,13 +5053,22 @@
         <v>0.1811145510835913</v>
       </c>
       <c r="I89" t="n">
-        <v>0.21671826625387</v>
+        <v>0.1826625386996904</v>
       </c>
       <c r="J89" t="n">
+        <v>0.1826625386996904</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.2198142414860681</v>
+      </c>
+      <c r="L89" t="n">
         <v>0.8297213622291022</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.2724458204334366</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.180327868852459</v>
       </c>
     </row>
     <row r="90">
@@ -4308,13 +5105,22 @@
         <v>0.1052631578947369</v>
       </c>
       <c r="I90" t="n">
-        <v>0.0913312693498452</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="J90" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.08668730650154799</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.823529411764706</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.1052631578947369</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.7819672131147541</v>
       </c>
     </row>
     <row r="91">
@@ -4351,13 +5157,22 @@
         <v>0.1362229102167183</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1331269349845201</v>
+        <v>0.1362229102167183</v>
       </c>
       <c r="J91" t="n">
+        <v>0.1269349845201238</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.1393188854489164</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.5913312693498453</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>0.1207430340557276</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.4655737704918033</v>
       </c>
     </row>
     <row r="92">
@@ -4394,14 +5209,21 @@
         <v>0.6656346749226006</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7213622291021672</v>
+        <v>0.6687306501547988</v>
       </c>
       <c r="J92" t="n">
+        <v>0.6780185758513931</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.7244582043343654</v>
+      </c>
+      <c r="L92" t="n">
         <v>0.5572755417956656</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.783281733746131</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4437,13 +5259,22 @@
         <v>0.826625386996904</v>
       </c>
       <c r="I93" t="n">
-        <v>0.8668730650154799</v>
+        <v>0.8297213622291022</v>
       </c>
       <c r="J93" t="n">
+        <v>0.8513931888544892</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.8575851393188855</v>
+      </c>
+      <c r="L93" t="n">
         <v>0.390092879256966</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.9009287925692866</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="94">
@@ -4480,13 +5311,22 @@
         <v>0.7585139318885449</v>
       </c>
       <c r="I94" t="n">
-        <v>0.6873065015479877</v>
+        <v>0.767801857585139</v>
       </c>
       <c r="J94" t="n">
+        <v>0.7708978328173375</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.6965944272445815</v>
+      </c>
+      <c r="L94" t="n">
         <v>0.2445820433436533</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.6563467492260062</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="95">
@@ -4523,13 +5363,22 @@
         <v>0.7925696594427245</v>
       </c>
       <c r="I95" t="n">
+        <v>0.7739938080495354</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.8018575851393189</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.8111455108359134</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>0.130030959752322</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.8080495356037152</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.1622950819672131</v>
       </c>
     </row>
     <row r="96">
@@ -4566,13 +5415,22 @@
         <v>0.6842105263157896</v>
       </c>
       <c r="I96" t="n">
-        <v>0.7430340557275542</v>
+        <v>0.6873065015479877</v>
       </c>
       <c r="J96" t="n">
+        <v>0.6996904024767796</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.739938080495356</v>
+      </c>
+      <c r="L96" t="n">
         <v>0.6037151702786379</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.8452012383900925</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.08360655737704917</v>
       </c>
     </row>
     <row r="97">
@@ -4609,13 +5467,22 @@
         <v>0.5603715170278638</v>
       </c>
       <c r="I97" t="n">
+        <v>0.563467492260062</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.6749226006191951</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>0.8823529411764707</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.7616099071207431</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.1901639344262295</v>
       </c>
     </row>
     <row r="98">
@@ -4652,13 +5519,22 @@
         <v>0.5696594427244582</v>
       </c>
       <c r="I98" t="n">
-        <v>0.7244582043343654</v>
+        <v>0.572755417956656</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9752321981424149</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="K98" t="n">
+        <v>0.7120743034055728</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.9721362229102167</v>
+      </c>
+      <c r="M98" t="n">
         <v>0.8328173374613</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0.239344262295082</v>
       </c>
     </row>
     <row r="99">
@@ -4695,13 +5571,22 @@
         <v>0.7337461300309598</v>
       </c>
       <c r="I99" t="n">
-        <v>0.8049535603715171</v>
+        <v>0.7337461300309598</v>
       </c>
       <c r="J99" t="n">
+        <v>0.7151702786377709</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.8080495356037152</v>
+      </c>
+      <c r="L99" t="n">
         <v>0.696594427244582</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.8390092879256966</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.06229508196721312</v>
       </c>
     </row>
     <row r="100">
@@ -4738,13 +5623,22 @@
         <v>0.2678018575851393</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2693498452012384</v>
       </c>
       <c r="J100" t="n">
+        <v>0.2879256965944272</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.21671826625387</v>
+      </c>
+      <c r="L100" t="n">
         <v>0.346749226006192</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.1857585139318886</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6524590163934426</v>
       </c>
     </row>
     <row r="101">
@@ -4781,13 +5675,22 @@
         <v>0.5356037151702784</v>
       </c>
       <c r="I101" t="n">
-        <v>0.6346749226006192</v>
+        <v>0.5356037151702787</v>
       </c>
       <c r="J101" t="n">
+        <v>0.5263157894736843</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.6006191950464397</v>
+      </c>
+      <c r="L101" t="n">
         <v>0.2662538699690403</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.7089783281733746</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.5540983606557377</v>
       </c>
     </row>
     <row r="102">
@@ -4824,13 +5727,22 @@
         <v>0.4179566563467493</v>
       </c>
       <c r="I102" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.4210526315789474</v>
       </c>
       <c r="J102" t="n">
+        <v>0.455108359133127</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.4798761609907121</v>
+      </c>
+      <c r="L102" t="n">
         <v>0.5479876160990712</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.5356037151702786</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="103">
@@ -4867,13 +5779,22 @@
         <v>0.1811145510835913</v>
       </c>
       <c r="I103" t="n">
+        <v>0.173374613003096</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.2229102167182663</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.2260061919504644</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.8854489164086687</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.303405572755418</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.6049180327868853</v>
       </c>
     </row>
     <row r="104">
@@ -4910,13 +5831,22 @@
         <v>0.3405572755417957</v>
       </c>
       <c r="I104" t="n">
-        <v>0.3715170278637771</v>
+        <v>0.3405572755417957</v>
       </c>
       <c r="J104" t="n">
+        <v>0.3281733746130031</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L104" t="n">
         <v>0.3993808049535604</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>0.4613003095975233</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.8295081967213115</v>
       </c>
     </row>
     <row r="105">
@@ -4953,13 +5883,22 @@
         <v>0.7027863777089783</v>
       </c>
       <c r="I105" t="n">
-        <v>0.7089783281733747</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J105" t="n">
+        <v>0.7244582043343654</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.7151702786377714</v>
+      </c>
+      <c r="L105" t="n">
         <v>0.678018575851393</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>0.6965944272445821</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.6819672131147541</v>
       </c>
     </row>
     <row r="106">
@@ -4996,13 +5935,22 @@
         <v>0.6130030959752314</v>
       </c>
       <c r="I106" t="n">
-        <v>0.7027863777089783</v>
+        <v>0.6160990712074303</v>
       </c>
       <c r="J106" t="n">
+        <v>0.6191950464396285</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.6934984520123839</v>
+      </c>
+      <c r="L106" t="n">
         <v>0.7647058823529399</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.7244582043343654</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="107">
@@ -5039,13 +5987,22 @@
         <v>0.7461300309597521</v>
       </c>
       <c r="I107" t="n">
-        <v>0.8018575851393189</v>
+        <v>0.7492260061919498</v>
       </c>
       <c r="J107" t="n">
+        <v>0.7523219814241486</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.7956656346749227</v>
+      </c>
+      <c r="L107" t="n">
         <v>0.6068111455108359</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.848297213622291</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.4459016393442623</v>
       </c>
     </row>
     <row r="108">
@@ -5082,13 +6039,22 @@
         <v>0.3003095975232197</v>
       </c>
       <c r="I108" t="n">
+        <v>0.3003095975232197</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.3065015479876161</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.3405572755417957</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.9783281733746131</v>
-      </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
+        <v>0.9752321981424149</v>
+      </c>
+      <c r="M108" t="n">
         <v>0.4427244582043344</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.8491803278688524</v>
       </c>
     </row>
     <row r="109">
@@ -5125,13 +6091,22 @@
         <v>0.4860681114551083</v>
       </c>
       <c r="I109" t="n">
-        <v>0.4674922600619195</v>
+        <v>0.4798761609907121</v>
       </c>
       <c r="J109" t="n">
+        <v>0.479876160990712</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.4582043343653251</v>
+      </c>
+      <c r="L109" t="n">
         <v>0.4736842105263158</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.5479876160990712</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.4754098360655737</v>
       </c>
     </row>
     <row r="110">
@@ -5168,14 +6143,21 @@
         <v>0.3715170278637771</v>
       </c>
       <c r="I110" t="n">
-        <v>0.4179566563467491</v>
+        <v>0.346749226006192</v>
       </c>
       <c r="J110" t="n">
+        <v>0.3560371517027864</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.4086687306501543</v>
+      </c>
+      <c r="L110" t="n">
         <v>0.659442724458204</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.4953560371517028</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -5211,13 +6193,22 @@
         <v>0.2801857585139319</v>
       </c>
       <c r="I111" t="n">
-        <v>0.2879256965944272</v>
+        <v>0.281733746130031</v>
       </c>
       <c r="J111" t="n">
+        <v>0.2786377708978328</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.2786377708978328</v>
+      </c>
+      <c r="L111" t="n">
         <v>0.848297213622291</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.3281733746130031</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.1409836065573771</v>
       </c>
     </row>
     <row r="112">
@@ -5254,13 +6245,22 @@
         <v>0.05572755417956657</v>
       </c>
       <c r="I112" t="n">
-        <v>0.06501547987616099</v>
+        <v>0.05572755417956657</v>
       </c>
       <c r="J112" t="n">
+        <v>0.05572755417956657</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="L112" t="n">
         <v>0.9071207430340558</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>0.1145510835913313</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="113">
@@ -5297,13 +6297,22 @@
         <v>0.4272445820433436</v>
       </c>
       <c r="I113" t="n">
-        <v>0.4705882352941177</v>
+        <v>0.4272445820433436</v>
       </c>
       <c r="J113" t="n">
+        <v>0.4334365325077399</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.4767801857585139</v>
+      </c>
+      <c r="L113" t="n">
         <v>0.3405572755417957</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>0.5665634674922601</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.05245901639344262</v>
       </c>
     </row>
     <row r="114">
@@ -5340,13 +6349,22 @@
         <v>0.3173374613003096</v>
       </c>
       <c r="I114" t="n">
-        <v>0.3529411764705883</v>
+        <v>0.3188854489164087</v>
       </c>
       <c r="J114" t="n">
+        <v>0.3343653250773994</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.3374613003095975</v>
+      </c>
+      <c r="L114" t="n">
         <v>0.4767801857585139</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.455108359133127</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.1114754098360656</v>
       </c>
     </row>
     <row r="115">
@@ -5383,13 +6401,22 @@
         <v>0.346749226006192</v>
       </c>
       <c r="I115" t="n">
-        <v>0.3869969040247673</v>
+        <v>0.3498452012383896</v>
       </c>
       <c r="J115" t="n">
+        <v>0.346749226006192</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.3746130030959752</v>
+      </c>
+      <c r="L115" t="n">
         <v>0.5139318885448917</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.4643962848297214</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.04426229508196721</v>
       </c>
     </row>
     <row r="116">
@@ -5426,13 +6453,22 @@
         <v>0.3746130030959743</v>
       </c>
       <c r="I116" t="n">
-        <v>0.4055727554179567</v>
+        <v>0.3746130030959751</v>
       </c>
       <c r="J116" t="n">
+        <v>0.3622291021671827</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.3931888544891641</v>
+      </c>
+      <c r="L116" t="n">
         <v>0.3777089783281734</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.498452012383901</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.01475409836065574</v>
       </c>
     </row>
     <row r="117">
@@ -5469,13 +6505,22 @@
         <v>0.3312693498452012</v>
       </c>
       <c r="I117" t="n">
-        <v>0.368421052631579</v>
+        <v>0.3343653250773993</v>
       </c>
       <c r="J117" t="n">
+        <v>0.3498452012383901</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.3560371517027864</v>
+      </c>
+      <c r="L117" t="n">
         <v>0.4953560371517028</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.4458204334365325</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="118">
@@ -5512,13 +6557,22 @@
         <v>0.2801857585139319</v>
       </c>
       <c r="I118" t="n">
-        <v>0.3065015479876159</v>
+        <v>0.2879256965944272</v>
       </c>
       <c r="J118" t="n">
+        <v>0.2507739938080495</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.2910216718266254</v>
+      </c>
+      <c r="L118" t="n">
         <v>0.563467492260062</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>0.3993808049535604</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.2885245901639344</v>
       </c>
     </row>
     <row r="119">
@@ -5555,13 +6609,22 @@
         <v>0.21671826625387</v>
       </c>
       <c r="I119" t="n">
-        <v>0.2321981424148607</v>
+        <v>0.21671826625387</v>
       </c>
       <c r="J119" t="n">
+        <v>0.238390092879257</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.2229102167182663</v>
+      </c>
+      <c r="L119" t="n">
         <v>0.3931888544891641</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>0.3312693498452012</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="120">
@@ -5598,13 +6661,22 @@
         <v>0.1609907120743034</v>
       </c>
       <c r="I120" t="n">
-        <v>0.195046439628483</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="J120" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.173374613003096</v>
+      </c>
+      <c r="L120" t="n">
         <v>0.7337461300309598</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.3095975232198143</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.8885245901639345</v>
       </c>
     </row>
     <row r="121">
@@ -5641,13 +6713,22 @@
         <v>0.2523219814241486</v>
       </c>
       <c r="I121" t="n">
-        <v>0.2476780185758514</v>
+        <v>0.2538699690402477</v>
       </c>
       <c r="J121" t="n">
+        <v>0.2260061919504644</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.2445820433436533</v>
+      </c>
+      <c r="L121" t="n">
         <v>0.5975232198142415</v>
       </c>
-      <c r="K121" t="n">
+      <c r="M121" t="n">
         <v>0.3343653250773994</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="122">
@@ -5684,13 +6765,22 @@
         <v>0.1486068111455108</v>
       </c>
       <c r="I122" t="n">
-        <v>0.1888544891640867</v>
+        <v>0.1486068111455108</v>
       </c>
       <c r="J122" t="n">
-        <v>0.9938080495356038</v>
+        <v>0.1424148606811146</v>
       </c>
       <c r="K122" t="n">
+        <v>0.1547987616099071</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.9907120743034056</v>
+      </c>
+      <c r="M122" t="n">
         <v>0.2972136222910217</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.957377049180328</v>
       </c>
     </row>
     <row r="123">
@@ -5727,13 +6817,22 @@
         <v>0.1160990712074303</v>
       </c>
       <c r="I123" t="n">
-        <v>0.1238390092879257</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="J123" t="n">
-        <v>0.9659442724458205</v>
+        <v>0.108359133126935</v>
       </c>
       <c r="K123" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.9628482972136223</v>
+      </c>
+      <c r="M123" t="n">
         <v>0.173374613003096</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.9377049180327869</v>
       </c>
     </row>
     <row r="124">
@@ -5770,13 +6869,22 @@
         <v>0.2074303405572755</v>
       </c>
       <c r="I124" t="n">
-        <v>0.1857585139318886</v>
+        <v>0.2043343653250774</v>
       </c>
       <c r="J124" t="n">
+        <v>0.1640866873065016</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="L124" t="n">
         <v>0.3591331269349846</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>0.2043343653250774</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.839344262295082</v>
       </c>
     </row>
     <row r="125">
@@ -5813,13 +6921,22 @@
         <v>0.2848297213622291</v>
       </c>
       <c r="I125" t="n">
-        <v>0.2724458204334362</v>
+        <v>0.2786377708978328</v>
       </c>
       <c r="J125" t="n">
+        <v>0.3003095975232197</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.2662538699690403</v>
+      </c>
+      <c r="L125" t="n">
         <v>0.6160990712074303</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>0.3157894736842106</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.9475409836065574</v>
       </c>
     </row>
     <row r="126">
@@ -5856,13 +6973,22 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="I126" t="n">
-        <v>0.1640866873065016</v>
+        <v>0.1609907120743034</v>
       </c>
       <c r="J126" t="n">
+        <v>0.1671826625386997</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.1671826625386986</v>
+      </c>
+      <c r="L126" t="n">
         <v>0.6873065015479873</v>
       </c>
-      <c r="K126" t="n">
+      <c r="M126" t="n">
         <v>0.1981424148606811</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.8786885245901639</v>
       </c>
     </row>
     <row r="127">
@@ -5899,13 +7025,22 @@
         <v>0.238390092879257</v>
       </c>
       <c r="I127" t="n">
-        <v>0.2755417956656347</v>
+        <v>0.238390092879257</v>
       </c>
       <c r="J127" t="n">
+        <v>0.2414860681114551</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.2476780185758512</v>
+      </c>
+      <c r="L127" t="n">
         <v>0.7894736842105263</v>
       </c>
-      <c r="K127" t="n">
+      <c r="M127" t="n">
         <v>0.4086687306501548</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.1508196721311476</v>
       </c>
     </row>
     <row r="128">
@@ -5942,14 +7077,21 @@
         <v>0.9659442724458205</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9597523219814242</v>
+        <v>0.9659442724458205</v>
       </c>
       <c r="J128" t="n">
+        <v>0.9659442724458205</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9721362229102164</v>
+      </c>
+      <c r="L128" t="n">
         <v>0.117647058823529</v>
       </c>
-      <c r="K128" t="n">
+      <c r="M128" t="n">
         <v>0.9226006191950454</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -5985,13 +7127,22 @@
         <v>0.9318885448916409</v>
       </c>
       <c r="I129" t="n">
-        <v>0.8978328173374613</v>
+        <v>0.931888544891641</v>
       </c>
       <c r="J129" t="n">
+        <v>0.9256965944272446</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9071207430340558</v>
+      </c>
+      <c r="L129" t="n">
         <v>0.08668730650154799</v>
       </c>
-      <c r="K129" t="n">
+      <c r="M129" t="n">
         <v>0.8111455108359134</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.3180327868852459</v>
       </c>
     </row>
     <row r="130">
@@ -6028,13 +7179,22 @@
         <v>0.8142414860681115</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6965944272445816</v>
+        <v>0.8173374613003077</v>
       </c>
       <c r="J130" t="n">
+        <v>0.8173374613003095</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.7058823529411747</v>
+      </c>
+      <c r="L130" t="n">
         <v>0.03715170278637771</v>
       </c>
-      <c r="K130" t="n">
+      <c r="M130" t="n">
         <v>0.6160990712074303</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.9770491803278689</v>
       </c>
     </row>
     <row r="131">
@@ -6071,13 +7231,22 @@
         <v>0.9504643962848228</v>
       </c>
       <c r="I131" t="n">
-        <v>0.934984520123839</v>
+        <v>0.950464396284829</v>
       </c>
       <c r="J131" t="n">
+        <v>0.9411764705882352</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9380804953560372</v>
+      </c>
+      <c r="L131" t="n">
         <v>0.09907120743034056</v>
       </c>
-      <c r="K131" t="n">
+      <c r="M131" t="n">
         <v>0.8823529411764707</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="132">
@@ -6114,13 +7283,22 @@
         <v>0.9473684210526316</v>
       </c>
       <c r="I132" t="n">
-        <v>0.8513931888544892</v>
+        <v>0.9473684210526316</v>
       </c>
       <c r="J132" t="n">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.854489164086687</v>
+      </c>
+      <c r="L132" t="n">
         <v>0.02476780185758514</v>
       </c>
-      <c r="K132" t="n">
+      <c r="M132" t="n">
         <v>0.6656346749226006</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="133">
@@ -6157,13 +7335,22 @@
         <v>0.9566563467492261</v>
       </c>
       <c r="I133" t="n">
-        <v>0.9442724458204335</v>
+        <v>0.9535603715170279</v>
       </c>
       <c r="J133" t="n">
+        <v>0.9628482972136223</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9504643962848297</v>
+      </c>
+      <c r="L133" t="n">
         <v>0.09597523219814243</v>
       </c>
-      <c r="K133" t="n">
+      <c r="M133" t="n">
         <v>0.8854489164086687</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.4098360655737705</v>
       </c>
     </row>
     <row r="134">
@@ -6200,13 +7387,22 @@
         <v>0.8885448916408669</v>
       </c>
       <c r="I134" t="n">
-        <v>0.8328173374612997</v>
+        <v>0.8885448916408669</v>
       </c>
       <c r="J134" t="n">
+        <v>0.8978328173374613</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.8328173374613003</v>
+      </c>
+      <c r="L134" t="n">
         <v>0.02786377708978328</v>
       </c>
-      <c r="K134" t="n">
+      <c r="M134" t="n">
         <v>0.6780185758513932</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0.6131147540983606</v>
       </c>
     </row>
     <row r="135">
@@ -6243,13 +7439,22 @@
         <v>0.9442724458204335</v>
       </c>
       <c r="I135" t="n">
-        <v>0.931888544891641</v>
+        <v>0.9442724458204335</v>
       </c>
       <c r="J135" t="n">
+        <v>0.9504643962848298</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.934984520123839</v>
+      </c>
+      <c r="L135" t="n">
         <v>0.09287925696594428</v>
       </c>
-      <c r="K135" t="n">
+      <c r="M135" t="n">
         <v>0.8637770897832818</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0.4557377049180328</v>
       </c>
     </row>
     <row r="136">
@@ -6286,13 +7491,22 @@
         <v>0.9195046439628483</v>
       </c>
       <c r="I136" t="n">
-        <v>0.8699690402476781</v>
+        <v>0.9226006191950464</v>
       </c>
       <c r="J136" t="n">
+        <v>0.9318885448916405</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.8823529411764707</v>
+      </c>
+      <c r="L136" t="n">
         <v>0.06191950464396286</v>
       </c>
-      <c r="K136" t="n">
+      <c r="M136" t="n">
         <v>0.7554179566563468</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0.7426229508196721</v>
       </c>
     </row>
     <row r="137">
@@ -6329,13 +7543,22 @@
         <v>0.9256965944272446</v>
       </c>
       <c r="I137" t="n">
-        <v>0.8854489164086687</v>
+        <v>0.9164086687306502</v>
       </c>
       <c r="J137" t="n">
+        <v>0.9195046439628479</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.8978328173374613</v>
+      </c>
+      <c r="L137" t="n">
         <v>0.05882352941176471</v>
       </c>
-      <c r="K137" t="n">
+      <c r="M137" t="n">
         <v>0.7894736842105263</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0.5836065573770493</v>
       </c>
     </row>
     <row r="138">
@@ -6372,13 +7595,22 @@
         <v>0.913312693498452</v>
       </c>
       <c r="I138" t="n">
-        <v>0.8637770897832816</v>
+        <v>0.9133126934984519</v>
       </c>
       <c r="J138" t="n">
+        <v>0.9009287925696595</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.8792569659442725</v>
+      </c>
+      <c r="L138" t="n">
         <v>0.06501547987616099</v>
       </c>
-      <c r="K138" t="n">
+      <c r="M138" t="n">
         <v>0.7678018575851393</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="139">
@@ -6415,13 +7647,22 @@
         <v>0.9071207430340558</v>
       </c>
       <c r="I139" t="n">
-        <v>0.8544891640866873</v>
+        <v>0.9071207430340558</v>
       </c>
       <c r="J139" t="n">
+        <v>0.9133126934984512</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.8637770897832818</v>
+      </c>
+      <c r="L139" t="n">
         <v>0.06811145510835914</v>
       </c>
-      <c r="K139" t="n">
+      <c r="M139" t="n">
         <v>0.7461300309597514</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0.6721311475409837</v>
       </c>
     </row>
     <row r="140">
@@ -6458,13 +7699,22 @@
         <v>0.904024767801857</v>
       </c>
       <c r="I140" t="n">
-        <v>0.8452012383900842</v>
+        <v>0.9040247678018568</v>
       </c>
       <c r="J140" t="n">
+        <v>0.8854489164086687</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.845201238390092</v>
+      </c>
+      <c r="L140" t="n">
         <v>0.05572755417956657</v>
       </c>
-      <c r="K140" t="n">
+      <c r="M140" t="n">
         <v>0.7492260061919503</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0.7081967213114755</v>
       </c>
     </row>
     <row r="141">
@@ -6501,13 +7751,22 @@
         <v>0.9226006191950461</v>
       </c>
       <c r="I141" t="n">
+        <v>0.9256965944272446</v>
+      </c>
+      <c r="J141" t="n">
         <v>0.8885448916408669</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
+        <v>0.9040247678018513</v>
+      </c>
+      <c r="L141" t="n">
         <v>0.08359133126934985</v>
       </c>
-      <c r="K141" t="n">
+      <c r="M141" t="n">
         <v>0.823529411764706</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0.4852459016393442</v>
       </c>
     </row>
     <row r="142">
@@ -6544,13 +7803,22 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="I142" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.8761609907120743</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.848297213622291</v>
       </c>
-      <c r="J142" t="n">
+      <c r="L142" t="n">
         <v>0.04953560371517028</v>
       </c>
-      <c r="K142" t="n">
+      <c r="M142" t="n">
         <v>0.7523219814241486</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0.5147540983606558</v>
       </c>
     </row>
     <row r="143">
@@ -6587,13 +7855,22 @@
         <v>0.934984520123839</v>
       </c>
       <c r="I143" t="n">
-        <v>0.9164086687306502</v>
+        <v>0.9380804953560372</v>
       </c>
       <c r="J143" t="n">
+        <v>0.9287925696594428</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.9287925696594428</v>
+      </c>
+      <c r="L143" t="n">
         <v>0.07430340557275542</v>
       </c>
-      <c r="K143" t="n">
+      <c r="M143" t="n">
         <v>0.8513931888544892</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0.721311475409836</v>
       </c>
     </row>
     <row r="144">
@@ -6630,13 +7907,22 @@
         <v>0.9164086687306502</v>
       </c>
       <c r="I144" t="n">
-        <v>0.8606811145510836</v>
+        <v>0.9195046439628474</v>
       </c>
       <c r="J144" t="n">
+        <v>0.9102167182662539</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.8730650154798762</v>
+      </c>
+      <c r="L144" t="n">
         <v>0.04643962848297214</v>
       </c>
-      <c r="K144" t="n">
+      <c r="M144" t="n">
         <v>0.7647058823529402</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0.7081967213114755</v>
       </c>
     </row>
     <row r="145">
@@ -6673,13 +7959,22 @@
         <v>0.9380804953560372</v>
       </c>
       <c r="I145" t="n">
-        <v>0.9133126934984521</v>
+        <v>0.934984520123839</v>
       </c>
       <c r="J145" t="n">
+        <v>0.9226006191950463</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.9256965944272446</v>
+      </c>
+      <c r="L145" t="n">
         <v>0.07120743034055728</v>
       </c>
-      <c r="K145" t="n">
+      <c r="M145" t="n">
         <v>0.8544891640866874</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0.5245901639344261</v>
       </c>
     </row>
     <row r="146">
@@ -6716,14 +8011,21 @@
         <v>0.4582043343653251</v>
       </c>
       <c r="I146" t="n">
-        <v>0.390092879256966</v>
+        <v>0.4582043343653251</v>
       </c>
       <c r="J146" t="n">
+        <v>0.4643962848297214</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.3993808049535604</v>
+      </c>
+      <c r="L146" t="n">
         <v>0.263157894736841</v>
       </c>
-      <c r="K146" t="n">
+      <c r="M146" t="n">
         <v>0.3219814241486068</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -6759,13 +8061,22 @@
         <v>0.5789473684210527</v>
       </c>
       <c r="I147" t="n">
-        <v>0.5386996904024768</v>
+        <v>0.5820433436532508</v>
       </c>
       <c r="J147" t="n">
+        <v>0.5557275541795665</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.541795665634675</v>
+      </c>
+      <c r="L147" t="n">
         <v>0.1764705882352941</v>
       </c>
-      <c r="K147" t="n">
+      <c r="M147" t="n">
         <v>0.5634674922600614</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="148">
@@ -6802,13 +8113,22 @@
         <v>0.1888544891640867</v>
       </c>
       <c r="I148" t="n">
-        <v>0.1486068111455108</v>
+        <v>0.1888544891640867</v>
       </c>
       <c r="J148" t="n">
+        <v>0.2074303405572755</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.151702786377709</v>
+      </c>
+      <c r="L148" t="n">
         <v>0.3808049535603715</v>
       </c>
-      <c r="K148" t="n">
+      <c r="M148" t="n">
         <v>0.1455108359133127</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0.9901639344262295</v>
       </c>
     </row>
     <row r="149">
@@ -6845,13 +8165,22 @@
         <v>0.3777089783281734</v>
       </c>
       <c r="I149" t="n">
-        <v>0.359133126934983</v>
+        <v>0.3777089783281734</v>
       </c>
       <c r="J149" t="n">
+        <v>0.3653250773993808</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.3591331269349846</v>
+      </c>
+      <c r="L149" t="n">
         <v>0.2352941176470586</v>
       </c>
-      <c r="K149" t="n">
+      <c r="M149" t="n">
         <v>0.4365325077399381</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.09180327868852459</v>
       </c>
     </row>
     <row r="150">
@@ -6888,13 +8217,22 @@
         <v>0.3653250773993808</v>
       </c>
       <c r="I150" t="n">
+        <v>0.368421052631579</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.4009287925696595</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.3653250773993808</v>
       </c>
-      <c r="J150" t="n">
+      <c r="L150" t="n">
         <v>0.2755417956656347</v>
       </c>
-      <c r="K150" t="n">
+      <c r="M150" t="n">
         <v>0.4024767801857586</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0.1016393442622951</v>
       </c>
     </row>
     <row r="151">
@@ -6931,13 +8269,22 @@
         <v>0.2569659442724455</v>
       </c>
       <c r="I151" t="n">
-        <v>0.1671826625386997</v>
+        <v>0.2507739938080495</v>
       </c>
       <c r="J151" t="n">
+        <v>0.2445820433436533</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.1857585139318886</v>
+      </c>
+      <c r="L151" t="n">
         <v>0.151702786377709</v>
       </c>
-      <c r="K151" t="n">
+      <c r="M151" t="n">
         <v>0.1238390092879257</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0.5622950819672131</v>
       </c>
     </row>
     <row r="152">
@@ -6974,13 +8321,22 @@
         <v>0.3374613003095975</v>
       </c>
       <c r="I152" t="n">
-        <v>0.2910216718266254</v>
+        <v>0.3374613003095975</v>
       </c>
       <c r="J152" t="n">
+        <v>0.3126934984520124</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.2972136222910217</v>
+      </c>
+      <c r="L152" t="n">
         <v>0.343653250773991</v>
       </c>
-      <c r="K152" t="n">
+      <c r="M152" t="n">
         <v>0.3126934984520124</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0.5442622950819672</v>
       </c>
     </row>
     <row r="153">
@@ -7017,13 +8373,22 @@
         <v>0.3591331269349846</v>
       </c>
       <c r="I153" t="n">
-        <v>0.3188854489164087</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J153" t="n">
+        <v>0.3405572755417957</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0.3219814241486068</v>
+      </c>
+      <c r="L153" t="n">
         <v>0.5386996904024768</v>
       </c>
-      <c r="K153" t="n">
+      <c r="M153" t="n">
         <v>0.346749226006192</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0.2163934426229508</v>
       </c>
     </row>
     <row r="154">
@@ -7060,13 +8425,22 @@
         <v>0.4148606811145511</v>
       </c>
       <c r="I154" t="n">
-        <v>0.346749226006192</v>
+        <v>0.4179566563467481</v>
       </c>
       <c r="J154" t="n">
+        <v>0.4303405572755418</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0.3622291021671827</v>
+      </c>
+      <c r="L154" t="n">
         <v>0.281733746130031</v>
       </c>
-      <c r="K154" t="n">
+      <c r="M154" t="n">
         <v>0.2941176470588235</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="155">
@@ -7103,13 +8477,22 @@
         <v>0.4024767801857586</v>
       </c>
       <c r="I155" t="n">
-        <v>0.3436532507739938</v>
+        <v>0.4024767801857586</v>
       </c>
       <c r="J155" t="n">
+        <v>0.4427244582043344</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0.3498452012383901</v>
+      </c>
+      <c r="L155" t="n">
         <v>0.2198142414860681</v>
       </c>
-      <c r="K155" t="n">
+      <c r="M155" t="n">
         <v>0.411764705882353</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="156">
@@ -7146,13 +8529,22 @@
         <v>0.5263157894736841</v>
       </c>
       <c r="I156" t="n">
-        <v>0.5232198142414861</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="J156" t="n">
+        <v>0.5603715170278638</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.5108359133126935</v>
+      </c>
+      <c r="L156" t="n">
         <v>0.7275541795665635</v>
       </c>
-      <c r="K156" t="n">
+      <c r="M156" t="n">
         <v>0.5541795665634671</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0.6918032786885246</v>
       </c>
     </row>
     <row r="157">
@@ -7189,13 +8581,22 @@
         <v>0.3978328173374613</v>
       </c>
       <c r="I157" t="n">
-        <v>0.325077399380805</v>
+        <v>0.3993808049535604</v>
       </c>
       <c r="J157" t="n">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0.3436532507739938</v>
+      </c>
+      <c r="L157" t="n">
         <v>0.173374613003096</v>
       </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
         <v>0.1888544891640867</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0.4360655737704918</v>
       </c>
     </row>
     <row r="158">
@@ -7232,13 +8633,22 @@
         <v>0.3065015479876161</v>
       </c>
       <c r="I158" t="n">
-        <v>0.2229102167182663</v>
+        <v>0.3065015479876161</v>
       </c>
       <c r="J158" t="n">
+        <v>0.3219814241486068</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0.2507739938080495</v>
+      </c>
+      <c r="L158" t="n">
         <v>0.1609907120743034</v>
       </c>
-      <c r="K158" t="n">
+      <c r="M158" t="n">
         <v>0.1393188854489164</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0.660655737704918</v>
       </c>
     </row>
     <row r="159">
@@ -7275,13 +8685,22 @@
         <v>0.3126934984520124</v>
       </c>
       <c r="I159" t="n">
-        <v>0.2507739938080495</v>
+        <v>0.3126934984520124</v>
       </c>
       <c r="J159" t="n">
+        <v>0.303405572755418</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="L159" t="n">
         <v>0.2074303405572755</v>
       </c>
-      <c r="K159" t="n">
+      <c r="M159" t="n">
         <v>0.238390092879257</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0.6229508196721312</v>
       </c>
     </row>
     <row r="160">
@@ -7318,13 +8737,22 @@
         <v>0.3219814241486068</v>
       </c>
       <c r="I160" t="n">
-        <v>0.303405572755418</v>
+        <v>0.3219814241486068</v>
       </c>
       <c r="J160" t="n">
+        <v>0.3250773993808049</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0.3003095975232198</v>
+      </c>
+      <c r="L160" t="n">
         <v>0.2910216718266254</v>
       </c>
-      <c r="K160" t="n">
+      <c r="M160" t="n">
         <v>0.3715170278637771</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0.9278688524590164</v>
       </c>
     </row>
     <row r="161">
@@ -7361,13 +8789,22 @@
         <v>0.2941176470588235</v>
       </c>
       <c r="I161" t="n">
-        <v>0.260061919504644</v>
+        <v>0.2910216718266254</v>
       </c>
       <c r="J161" t="n">
+        <v>0.281733746130031</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0.2724458204334365</v>
+      </c>
+      <c r="L161" t="n">
         <v>0.3312693498452012</v>
       </c>
-      <c r="K161" t="n">
+      <c r="M161" t="n">
         <v>0.2105263157894737</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0.3967213114754098</v>
       </c>
     </row>
     <row r="162">
@@ -7404,13 +8841,22 @@
         <v>0.4643962848297214</v>
       </c>
       <c r="I162" t="n">
-        <v>0.3993808049535604</v>
+        <v>0.4643962848297214</v>
       </c>
       <c r="J162" t="n">
+        <v>0.4891640866873065</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.4024767801857586</v>
+      </c>
+      <c r="L162" t="n">
         <v>0.1238390092879257</v>
       </c>
-      <c r="K162" t="n">
+      <c r="M162" t="n">
         <v>0.3436532507739938</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0.3655737704918033</v>
       </c>
     </row>
     <row r="163">
@@ -7447,13 +8893,22 @@
         <v>0.4520123839009285</v>
       </c>
       <c r="I163" t="n">
-        <v>0.2848297213622291</v>
+        <v>0.4520123839009279</v>
       </c>
       <c r="J163" t="n">
+        <v>0.4767801857585139</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.3095975232198143</v>
+      </c>
+      <c r="L163" t="n">
         <v>0.1021671826625387</v>
       </c>
-      <c r="K163" t="n">
+      <c r="M163" t="n">
         <v>0.08359133126934985</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="164">
@@ -7481,23 +8936,30 @@
         <v>0.05727554179566564</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9845201238390093</v>
+        <v>0.9876160990712074</v>
       </c>
       <c r="G164" t="n">
-        <v>0.9876160990712071</v>
+        <v>0.9907120743034052</v>
       </c>
       <c r="H164" t="n">
         <v>0.718266253869969</v>
       </c>
       <c r="I164" t="n">
+        <v>0.7089783281733747</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.739938080495356</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.823529411764706</v>
       </c>
-      <c r="J164" t="n">
+      <c r="L164" t="n">
         <v>0.6377708978328174</v>
       </c>
-      <c r="K164" t="n">
+      <c r="M164" t="n">
         <v>0.8699690402476781</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -7533,13 +8995,22 @@
         <v>0.7213622291021672</v>
       </c>
       <c r="I165" t="n">
-        <v>0.8080495356037152</v>
+        <v>0.7120743034055728</v>
       </c>
       <c r="J165" t="n">
+        <v>0.7182662538699688</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0.7987616099071208</v>
+      </c>
+      <c r="L165" t="n">
         <v>0.4489164086687307</v>
       </c>
-      <c r="K165" t="n">
+      <c r="M165" t="n">
         <v>0.8359133126934986</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0.2475409836065574</v>
       </c>
     </row>
     <row r="166">
@@ -7576,13 +9047,22 @@
         <v>0.2476780185758514</v>
       </c>
       <c r="I166" t="n">
-        <v>0.238390092879257</v>
+        <v>0.2445820433436533</v>
       </c>
       <c r="J166" t="n">
+        <v>0.2198142414860681</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.2321981424148607</v>
+      </c>
+      <c r="L166" t="n">
         <v>0.5727554179566564</v>
       </c>
-      <c r="K166" t="n">
+      <c r="M166" t="n">
         <v>0.3003095975232198</v>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -7619,13 +9099,22 @@
         <v>0.651702786377709</v>
       </c>
       <c r="I167" t="n">
-        <v>0.7461300309597524</v>
+        <v>0.6547987616099071</v>
       </c>
       <c r="J167" t="n">
+        <v>0.5820433436532503</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0.7461300309597523</v>
+      </c>
+      <c r="L167" t="n">
         <v>0.5015479876160991</v>
       </c>
-      <c r="K167" t="n">
+      <c r="M167" t="n">
         <v>0.8142414860681115</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.2967213114754098</v>
       </c>
     </row>
     <row r="168">
@@ -7662,13 +9151,22 @@
         <v>0.6842105263157896</v>
       </c>
       <c r="I168" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.6811145510835914</v>
       </c>
       <c r="J168" t="n">
+        <v>0.7275541795665635</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.7678018575851393</v>
+      </c>
+      <c r="L168" t="n">
         <v>0.6408668730650156</v>
       </c>
-      <c r="K168" t="n">
+      <c r="M168" t="n">
         <v>0.8173374613003094</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="169">
@@ -7705,13 +9203,22 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="I169" t="n">
-        <v>0.6594427244582043</v>
+        <v>0.4922600619195047</v>
       </c>
       <c r="J169" t="n">
+        <v>0.5325077399380805</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0.6346749226006192</v>
+      </c>
+      <c r="L169" t="n">
         <v>0.5758513931888545</v>
       </c>
-      <c r="K169" t="n">
+      <c r="M169" t="n">
         <v>0.7027863777089783</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.5360655737704918</v>
       </c>
     </row>
     <row r="170">
@@ -7748,13 +9255,22 @@
         <v>0.6842105263157896</v>
       </c>
       <c r="I170" t="n">
-        <v>0.7987616099071208</v>
+        <v>0.6625386996904025</v>
       </c>
       <c r="J170" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0.7739938080495353</v>
+      </c>
+      <c r="L170" t="n">
         <v>0.8173374613003094</v>
       </c>
-      <c r="K170" t="n">
+      <c r="M170" t="n">
         <v>0.8606811145510836</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.2098360655737705</v>
       </c>
     </row>
     <row r="171">
@@ -7791,13 +9307,22 @@
         <v>0.6099071207430341</v>
       </c>
       <c r="I171" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.6130030959752323</v>
       </c>
       <c r="J171" t="n">
+        <v>0.6563467492260062</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.687306501547987</v>
+      </c>
+      <c r="L171" t="n">
         <v>0.4860681114551084</v>
       </c>
-      <c r="K171" t="n">
+      <c r="M171" t="n">
         <v>0.739938080495356</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0.3885245901639344</v>
       </c>
     </row>
     <row r="172">
@@ -7834,13 +9359,22 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="I172" t="n">
-        <v>0.5851393188854489</v>
+        <v>0.4705882352941175</v>
       </c>
       <c r="J172" t="n">
+        <v>0.4922600619195047</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.5665634674922601</v>
+      </c>
+      <c r="L172" t="n">
         <v>0.6346749226006192</v>
       </c>
-      <c r="K172" t="n">
+      <c r="M172" t="n">
         <v>0.6718266253869969</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0.7885245901639344</v>
       </c>
     </row>
     <row r="173">
@@ -7877,13 +9411,22 @@
         <v>0.3808049535603715</v>
       </c>
       <c r="I173" t="n">
-        <v>0.4396284829721362</v>
+        <v>0.3808049535603715</v>
       </c>
       <c r="J173" t="n">
+        <v>0.377708978328173</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.4303405572755418</v>
+      </c>
+      <c r="L173" t="n">
         <v>0.455108359133127</v>
       </c>
-      <c r="K173" t="n">
+      <c r="M173" t="n">
         <v>0.5913312693498453</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0.8983606557377048</v>
       </c>
     </row>
     <row r="174">
@@ -7920,13 +9463,22 @@
         <v>0.4303405572755418</v>
       </c>
       <c r="I174" t="n">
-        <v>0.4767801857585139</v>
+        <v>0.4303405572755418</v>
       </c>
       <c r="J174" t="n">
         <v>0.3869969040247678</v>
       </c>
       <c r="K174" t="n">
+        <v>0.455108359133127</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.3869969040247678</v>
+      </c>
+      <c r="M174" t="n">
         <v>0.5789473684210527</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.8131147540983606</v>
       </c>
     </row>
     <row r="175">
@@ -7963,13 +9515,22 @@
         <v>0.628482972136223</v>
       </c>
       <c r="I175" t="n">
-        <v>0.6625386996904025</v>
+        <v>0.6315789473684211</v>
       </c>
       <c r="J175" t="n">
+        <v>0.6439628482972136</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.6656346749226006</v>
+      </c>
+      <c r="L175" t="n">
         <v>0.5356037151702787</v>
       </c>
-      <c r="K175" t="n">
+      <c r="M175" t="n">
         <v>0.6996904024767785</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.7508196721311475</v>
       </c>
     </row>
     <row r="176">
@@ -8006,13 +9567,22 @@
         <v>0.6052631578947369</v>
       </c>
       <c r="I176" t="n">
-        <v>0.7182662538699642</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="J176" t="n">
+        <v>0.6346749226006192</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.7089783281733746</v>
+      </c>
+      <c r="L176" t="n">
         <v>0.6099071207430341</v>
       </c>
-      <c r="K176" t="n">
+      <c r="M176" t="n">
         <v>0.7430340557275542</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0.7590163934426229</v>
       </c>
     </row>
     <row r="177">
@@ -8049,13 +9619,22 @@
         <v>0.5108359133126935</v>
       </c>
       <c r="I177" t="n">
-        <v>0.6191950464396285</v>
+        <v>0.5108359133126935</v>
       </c>
       <c r="J177" t="n">
+        <v>0.5108359133126935</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.6037151702786315</v>
+      </c>
+      <c r="L177" t="n">
         <v>0.4024767801857586</v>
       </c>
-      <c r="K177" t="n">
+      <c r="M177" t="n">
         <v>0.6749226006191951</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="178">
@@ -8092,13 +9671,22 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="I178" t="n">
-        <v>0.7151702786377709</v>
+        <v>0.5975232198142415</v>
       </c>
       <c r="J178" t="n">
+        <v>0.6130030959752321</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.7027863777089783</v>
+      </c>
+      <c r="L178" t="n">
         <v>0.5820433436532508</v>
       </c>
-      <c r="K178" t="n">
+      <c r="M178" t="n">
         <v>0.7801857585139319</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0.5934426229508196</v>
       </c>
     </row>
     <row r="179">
@@ -8135,13 +9723,22 @@
         <v>0.6563467492260062</v>
       </c>
       <c r="I179" t="n">
-        <v>0.7337461300309598</v>
+        <v>0.65015479876161</v>
       </c>
       <c r="J179" t="n">
+        <v>0.628482972136223</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0.7275541795665635</v>
+      </c>
+      <c r="L179" t="n">
         <v>0.3962848297213623</v>
       </c>
-      <c r="K179" t="n">
+      <c r="M179" t="n">
         <v>0.7585139318885448</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0.8672131147540983</v>
       </c>
     </row>
     <row r="180">
@@ -8178,13 +9775,22 @@
         <v>0.6006191950464397</v>
       </c>
       <c r="I180" t="n">
-        <v>0.6656346749226006</v>
+        <v>0.6037151702786379</v>
       </c>
       <c r="J180" t="n">
+        <v>0.6408668730650149</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.6563467492260062</v>
+      </c>
+      <c r="L180" t="n">
         <v>0.3281733746130031</v>
       </c>
-      <c r="K180" t="n">
+      <c r="M180" t="n">
         <v>0.7058823529411756</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="181">
@@ -8221,13 +9827,22 @@
         <v>0.5572755417956656</v>
       </c>
       <c r="I181" t="n">
-        <v>0.6687306501547988</v>
+        <v>0.5572755417956656</v>
       </c>
       <c r="J181" t="n">
+        <v>0.5557275541795665</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0.6625386996904025</v>
+      </c>
+      <c r="L181" t="n">
         <v>0.5325077399380805</v>
       </c>
-      <c r="K181" t="n">
+      <c r="M181" t="n">
         <v>0.7306501547987616</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="182">
@@ -8264,14 +9879,21 @@
         <v>0.3839009287925697</v>
       </c>
       <c r="I182" t="n">
-        <v>0.4922600619195047</v>
+        <v>0.3869969040247678</v>
       </c>
       <c r="J182" t="n">
+        <v>0.3715170278637771</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0.4674922600619195</v>
+      </c>
+      <c r="L182" t="n">
         <v>0.7708978328173375</v>
       </c>
-      <c r="K182" t="n">
+      <c r="M182" t="n">
         <v>0.6439628482972136</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -8307,13 +9929,22 @@
         <v>0.4767801857585139</v>
       </c>
       <c r="I183" t="n">
-        <v>0.5356037151702787</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="J183" t="n">
+        <v>0.4458204334365325</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.5077399380804953</v>
+      </c>
+      <c r="L183" t="n">
         <v>0.541795665634675</v>
       </c>
-      <c r="K183" t="n">
+      <c r="M183" t="n">
         <v>0.6470588235294118</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="184">
@@ -8350,13 +9981,22 @@
         <v>0.1331269349845201</v>
       </c>
       <c r="I184" t="n">
-        <v>0.1609907120743034</v>
+        <v>0.130030959752322</v>
       </c>
       <c r="J184" t="n">
+        <v>0.1052631578947369</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.1455108359133127</v>
+      </c>
+      <c r="L184" t="n">
         <v>0.8978328173374613</v>
       </c>
-      <c r="K184" t="n">
+      <c r="M184" t="n">
         <v>0.2476780185758514</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="185">
@@ -8393,13 +10033,22 @@
         <v>0.6718266253869969</v>
       </c>
       <c r="I185" t="n">
-        <v>0.758513931888545</v>
+        <v>0.6749226006191951</v>
       </c>
       <c r="J185" t="n">
+        <v>0.6594427244582044</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="L185" t="n">
         <v>0.8606811145510836</v>
       </c>
-      <c r="K185" t="n">
+      <c r="M185" t="n">
         <v>0.8730650154798762</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -8436,13 +10085,22 @@
         <v>0.3931888544891641</v>
       </c>
       <c r="I186" t="n">
-        <v>0.4953560371517028</v>
+        <v>0.3962848297213623</v>
       </c>
       <c r="J186" t="n">
+        <v>0.4148606811145511</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0.4643962848297214</v>
+      </c>
+      <c r="L186" t="n">
         <v>0.8916408668730651</v>
       </c>
-      <c r="K186" t="n">
+      <c r="M186" t="n">
         <v>0.6594427244582043</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0.8590163934426229</v>
       </c>
     </row>
     <row r="187">
@@ -8479,13 +10137,22 @@
         <v>0.6377708978328174</v>
       </c>
       <c r="I187" t="n">
-        <v>0.739938080495356</v>
+        <v>0.6408668730650156</v>
       </c>
       <c r="J187" t="n">
+        <v>0.7027863777089783</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0.7213622291021672</v>
+      </c>
+      <c r="L187" t="n">
         <v>0.8792569659442725</v>
       </c>
-      <c r="K187" t="n">
+      <c r="M187" t="n">
         <v>0.8668730650154799</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0.119672131147541</v>
       </c>
     </row>
     <row r="188">
@@ -8522,13 +10189,22 @@
         <v>0.5325077399380805</v>
       </c>
       <c r="I188" t="n">
-        <v>0.6904024767801858</v>
+        <v>0.5325077399380805</v>
       </c>
       <c r="J188" t="n">
+        <v>0.5448916408668731</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0.6470588235294125</v>
+      </c>
+      <c r="L188" t="n">
         <v>0.9411764705882354</v>
       </c>
-      <c r="K188" t="n">
+      <c r="M188" t="n">
         <v>0.8018575851393189</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0.1704918032786885</v>
       </c>
     </row>
     <row r="189">
@@ -8565,13 +10241,22 @@
         <v>0.69969040247678</v>
       </c>
       <c r="I189" t="n">
-        <v>0.8142414860681115</v>
+        <v>0.6996904024767798</v>
       </c>
       <c r="J189" t="n">
+        <v>0.6625386996904022</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0.8049535603715171</v>
+      </c>
+      <c r="L189" t="n">
         <v>0.8544891640866872</v>
       </c>
-      <c r="K189" t="n">
+      <c r="M189" t="n">
         <v>0.8947368421052632</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0.07049180327868854</v>
       </c>
     </row>
     <row r="190">
@@ -8608,13 +10293,22 @@
         <v>0.3622291021671827</v>
       </c>
       <c r="I190" t="n">
-        <v>0.4148606811145511</v>
+        <v>0.3653250773993808</v>
       </c>
       <c r="J190" t="n">
+        <v>0.3188854489164087</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.3962848297213623</v>
+      </c>
+      <c r="L190" t="n">
         <v>0.8575851393188855</v>
       </c>
-      <c r="K190" t="n">
+      <c r="M190" t="n">
         <v>0.6006191950464397</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.360655737704918</v>
       </c>
     </row>
     <row r="191">
@@ -8651,13 +10345,22 @@
         <v>0.5077399380804953</v>
       </c>
       <c r="I191" t="n">
-        <v>0.6501547987616094</v>
+        <v>0.5139318885448917</v>
       </c>
       <c r="J191" t="n">
+        <v>0.4613003095975233</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0.5928792569659442</v>
+      </c>
+      <c r="L191" t="n">
         <v>0.9256965944272446</v>
       </c>
-      <c r="K191" t="n">
+      <c r="M191" t="n">
         <v>0.7739938080493813</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.3475409836065574</v>
       </c>
     </row>
     <row r="192">
@@ -8694,13 +10397,22 @@
         <v>0.4427244582043344</v>
       </c>
       <c r="I192" t="n">
-        <v>0.5944272445820433</v>
+        <v>0.4427244582043344</v>
       </c>
       <c r="J192" t="n">
+        <v>0.3962848297213623</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.5479876160990712</v>
+      </c>
+      <c r="L192" t="n">
         <v>0.8761609907120743</v>
       </c>
-      <c r="K192" t="n">
+      <c r="M192" t="n">
         <v>0.7213622291021672</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="193">
@@ -8737,13 +10449,22 @@
         <v>0.4241486068111455</v>
       </c>
       <c r="I193" t="n">
-        <v>0.5572755417956656</v>
+        <v>0.4241486068111455</v>
       </c>
       <c r="J193" t="n">
+        <v>0.4086687306501528</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.5046439628482965</v>
+      </c>
+      <c r="L193" t="n">
         <v>0.9133126934984521</v>
       </c>
-      <c r="K193" t="n">
+      <c r="M193" t="n">
         <v>0.6842105263157895</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0.4163934426229509</v>
       </c>
     </row>
     <row r="194">
@@ -8780,13 +10501,22 @@
         <v>0.541795665634675</v>
       </c>
       <c r="I194" t="n">
-        <v>0.7058823529411764</v>
+        <v>0.541795665634675</v>
       </c>
       <c r="J194" t="n">
+        <v>0.5077399380804953</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0.678018575851393</v>
+      </c>
+      <c r="L194" t="n">
         <v>0.9318885448916409</v>
       </c>
-      <c r="K194" t="n">
+      <c r="M194" t="n">
         <v>0.826625386996904</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0.3081967213114754</v>
       </c>
     </row>
     <row r="195">
@@ -8823,13 +10553,22 @@
         <v>0.6594427244582044</v>
       </c>
       <c r="I195" t="n">
-        <v>0.7616099071207431</v>
+        <v>0.6594427244582044</v>
       </c>
       <c r="J195" t="n">
+        <v>0.563467492260062</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.7430340557275542</v>
+      </c>
+      <c r="L195" t="n">
         <v>0.8668730650154799</v>
       </c>
-      <c r="K195" t="n">
+      <c r="M195" t="n">
         <v>0.8761609907120743</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0.3377049180327869</v>
       </c>
     </row>
     <row r="196">
@@ -8866,13 +10605,22 @@
         <v>0.5046439628482973</v>
       </c>
       <c r="I196" t="n">
-        <v>0.6160990712074303</v>
+        <v>0.5046439628482973</v>
       </c>
       <c r="J196" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.5727554179566542</v>
+      </c>
+      <c r="L196" t="n">
         <v>0.7554179566563468</v>
       </c>
-      <c r="K196" t="n">
+      <c r="M196" t="n">
         <v>0.7182662538699691</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.7311475409836066</v>
       </c>
     </row>
     <row r="197">
@@ -8909,13 +10657,22 @@
         <v>0.5944272445820433</v>
       </c>
       <c r="I197" t="n">
-        <v>0.6934984520123839</v>
+        <v>0.6006191950464397</v>
       </c>
       <c r="J197" t="n">
+        <v>0.5665634674922601</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.6811145510835913</v>
+      </c>
+      <c r="L197" t="n">
         <v>0.7987616099071208</v>
       </c>
-      <c r="K197" t="n">
+      <c r="M197" t="n">
         <v>0.7770897832817338</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.180327868852459</v>
       </c>
     </row>
     <row r="198">
@@ -8952,13 +10709,22 @@
         <v>0.368421052631579</v>
       </c>
       <c r="I198" t="n">
-        <v>0.479876160990712</v>
+        <v>0.3715170278637771</v>
       </c>
       <c r="J198" t="n">
+        <v>0.3746130030959752</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.4334365325077399</v>
+      </c>
+      <c r="L198" t="n">
         <v>0.9535603715170279</v>
       </c>
-      <c r="K198" t="n">
+      <c r="M198" t="n">
         <v>0.6408668730650156</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0.7819672131147541</v>
       </c>
     </row>
     <row r="199">
@@ -8995,13 +10761,22 @@
         <v>0.5758513931888545</v>
       </c>
       <c r="I199" t="n">
-        <v>0.6811145510835914</v>
+        <v>0.5851393188854489</v>
       </c>
       <c r="J199" t="n">
+        <v>0.5139318885448917</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0.653250773993808</v>
+      </c>
+      <c r="L199" t="n">
         <v>0.7523219814241486</v>
       </c>
-      <c r="K199" t="n">
+      <c r="M199" t="n">
         <v>0.7708978328173375</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0.4655737704918033</v>
       </c>
     </row>
     <row r="200">
@@ -9038,14 +10813,21 @@
         <v>0.9690402476780187</v>
       </c>
       <c r="I200" t="n">
-        <v>0.9411764705882354</v>
+        <v>0.9690402476780187</v>
       </c>
       <c r="J200" t="n">
+        <v>0.9721362229102162</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.9442724458204335</v>
+      </c>
+      <c r="L200" t="n">
         <v>0.368421052631579</v>
       </c>
-      <c r="K200" t="n">
+      <c r="M200" t="n">
         <v>0.9195046439628484</v>
       </c>
+      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -9084,11 +10866,20 @@
         <v>1</v>
       </c>
       <c r="J201" t="n">
-        <v>0.9102167182662539</v>
+        <v>1</v>
       </c>
       <c r="K201" t="n">
         <v>1</v>
       </c>
+      <c r="L201" t="n">
+        <v>0.9102167182662539</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.03278688524590164</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -9124,13 +10915,22 @@
         <v>0.9287925696594428</v>
       </c>
       <c r="I202" t="n">
-        <v>0.9535603715170279</v>
+        <v>0.9287925696594428</v>
       </c>
       <c r="J202" t="n">
+        <v>0.9442724458204335</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.9566563467492261</v>
+      </c>
+      <c r="L202" t="n">
         <v>0.9164086687306502</v>
       </c>
-      <c r="K202" t="n">
+      <c r="M202" t="n">
         <v>0.9659442724458205</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="203">
@@ -9167,13 +10967,22 @@
         <v>0.9814241486068112</v>
       </c>
       <c r="I203" t="n">
-        <v>0.9907120743034054</v>
+        <v>0.9845201238390093</v>
       </c>
       <c r="J203" t="n">
+        <v>0.9845201238390093</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0.9907120743034052</v>
+      </c>
+      <c r="L203" t="n">
         <v>0.8699690402476781</v>
       </c>
-      <c r="K203" t="n">
+      <c r="M203" t="n">
         <v>0.9876160990712075</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0.1622950819672131</v>
       </c>
     </row>
     <row r="204">
@@ -9201,22 +11010,31 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9922600619195048</v>
+        <v>0.9953560371517028</v>
       </c>
       <c r="G204" t="n">
-        <v>0.9922600619195048</v>
+        <v>0.9953560371517028</v>
       </c>
       <c r="H204" t="n">
         <v>0.9783281733746131</v>
       </c>
       <c r="I204" t="n">
+        <v>0.9721362229102167</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.9876160990712074</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.9938080495356038</v>
       </c>
-      <c r="J204" t="n">
+      <c r="L204" t="n">
         <v>0.9195046439628455</v>
       </c>
-      <c r="K204" t="n">
+      <c r="M204" t="n">
         <v>0.9845201238390093</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.08114754098360655</v>
       </c>
     </row>
     <row r="205">
@@ -9244,22 +11062,31 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9798761609907121</v>
+        <v>0.9829721362229102</v>
       </c>
       <c r="G205" t="n">
-        <v>0.9798761609907121</v>
+        <v>0.9829721362229102</v>
       </c>
       <c r="H205" t="n">
         <v>0.9969040247678019</v>
       </c>
       <c r="I205" t="n">
+        <v>0.9938080495356038</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.9969040247678019</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.9845201238390093</v>
       </c>
-      <c r="J205" t="n">
+      <c r="L205" t="n">
         <v>0.6470588235294139</v>
       </c>
-      <c r="K205" t="n">
+      <c r="M205" t="n">
         <v>0.9783281733746131</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.1901639344262295</v>
       </c>
     </row>
     <row r="206">
@@ -9296,13 +11123,22 @@
         <v>0.9752321981424149</v>
       </c>
       <c r="I206" t="n">
+        <v>0.9783281733746131</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.9690402476780187</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.9659442724458205</v>
       </c>
-      <c r="J206" t="n">
+      <c r="L206" t="n">
         <v>0.6222910216718267</v>
       </c>
-      <c r="K206" t="n">
+      <c r="M206" t="n">
         <v>0.9535603715170279</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0.239344262295082</v>
       </c>
     </row>
     <row r="207">
@@ -9339,13 +11175,22 @@
         <v>0.9721362229102166</v>
       </c>
       <c r="I207" t="n">
+        <v>0.9752321981424149</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.9752321981424149</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.9628482972136223</v>
       </c>
-      <c r="J207" t="n">
+      <c r="L207" t="n">
         <v>0.5046439628482973</v>
       </c>
-      <c r="K207" t="n">
+      <c r="M207" t="n">
         <v>0.9566563467492261</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.06229508196721312</v>
       </c>
     </row>
     <row r="208">
@@ -9382,13 +11227,22 @@
         <v>0.9845201238390093</v>
       </c>
       <c r="I208" t="n">
+        <v>0.9876160990712062</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.9907120743034034</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.9783281733746131</v>
       </c>
-      <c r="J208" t="n">
+      <c r="L208" t="n">
         <v>0.5170278637770899</v>
       </c>
-      <c r="K208" t="n">
+      <c r="M208" t="n">
         <v>0.9628482972136223</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.6524590163934426</v>
       </c>
     </row>
     <row r="209">
@@ -9425,13 +11279,22 @@
         <v>0.9938080495356038</v>
       </c>
       <c r="I209" t="n">
+        <v>0.9969040247678019</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.9938080495356038</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.9876160990712073</v>
       </c>
-      <c r="J209" t="n">
+      <c r="L209" t="n">
         <v>0.4798761609907121</v>
       </c>
-      <c r="K209" t="n">
+      <c r="M209" t="n">
         <v>0.9938080495356038</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.5540983606557377</v>
       </c>
     </row>
     <row r="210">
@@ -9459,23 +11322,32 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9922600619195048</v>
+        <v>0.9953560371517028</v>
       </c>
       <c r="G210" t="n">
-        <v>0.9922600619195048</v>
+        <v>0.9953560371517028</v>
       </c>
       <c r="H210" t="n">
         <v>0.9876160990712071</v>
       </c>
       <c r="I210" t="n">
-        <v>0.9969040247678019</v>
+        <v>0.9814241486068112</v>
       </c>
       <c r="J210" t="n">
-        <v>0.9721362229102162</v>
+        <v>0.9814241486068112</v>
       </c>
       <c r="K210" t="n">
         <v>0.9969040247678019</v>
       </c>
+      <c r="L210" t="n">
+        <v>0.9690402476780187</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.9969040247678019</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.3770491803278688</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -9511,13 +11383,22 @@
         <v>0.9009287925696595</v>
       </c>
       <c r="I211" t="n">
-        <v>0.9040247678018575</v>
+        <v>0.9009287925696594</v>
       </c>
       <c r="J211" t="n">
+        <v>0.9071207430340558</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="L211" t="n">
         <v>0.4427244582043344</v>
       </c>
-      <c r="K211" t="n">
+      <c r="M211" t="n">
         <v>0.9071207430340558</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.6049180327868853</v>
       </c>
     </row>
     <row r="212">
@@ -9554,13 +11435,22 @@
         <v>0.9102167182662539</v>
       </c>
       <c r="I212" t="n">
-        <v>0.9504643962848291</v>
+        <v>0.9102167182662539</v>
       </c>
       <c r="J212" t="n">
+        <v>0.934984520123839</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0.9473684210526316</v>
+      </c>
+      <c r="L212" t="n">
         <v>0.7832817337461301</v>
       </c>
-      <c r="K212" t="n">
+      <c r="M212" t="n">
         <v>0.9597523219814241</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.8295081967213115</v>
       </c>
     </row>
     <row r="213">
@@ -9597,13 +11487,22 @@
         <v>0.9411764705882334</v>
       </c>
       <c r="I213" t="n">
-        <v>0.9566563467492261</v>
+        <v>0.9411764705882349</v>
       </c>
       <c r="J213" t="n">
+        <v>0.9380804953560372</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0.9535603715170279</v>
+      </c>
+      <c r="L213" t="n">
         <v>0.8637770897832806</v>
       </c>
-      <c r="K213" t="n">
+      <c r="M213" t="n">
         <v>0.9721362229102158</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.6819672131147541</v>
       </c>
     </row>
     <row r="214">
@@ -9640,13 +11539,22 @@
         <v>0.9628482972136223</v>
       </c>
       <c r="I214" t="n">
+        <v>0.9628482972136223</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.9597523219814242</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0.9597523219814242</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.6253869969040248</v>
+      </c>
+      <c r="M214" t="n">
         <v>0.9690402476780187</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.6253869969040248</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.9690402476780187</v>
+      <c r="N214" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
@@ -9683,13 +11591,22 @@
         <v>0.9907120743034056</v>
       </c>
       <c r="I215" t="n">
+        <v>0.9907120743034057</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.9783281733746131</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.9814241486068112</v>
       </c>
-      <c r="J215" t="n">
+      <c r="L215" t="n">
         <v>0.7089783281733746</v>
       </c>
-      <c r="K215" t="n">
+      <c r="M215" t="n">
         <v>0.9907120743034032</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.4459016393442623</v>
       </c>
     </row>
     <row r="216">
@@ -9726,13 +11643,22 @@
         <v>0.9535603715170279</v>
       </c>
       <c r="I216" t="n">
+        <v>0.9566563467492261</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.9535603715170279</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.9752321981424149</v>
       </c>
-      <c r="J216" t="n">
+      <c r="L216" t="n">
         <v>0.9442724458204335</v>
       </c>
-      <c r="K216" t="n">
+      <c r="M216" t="n">
         <v>0.9814241486068112</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.8491803278688524</v>
       </c>
     </row>
     <row r="217">
@@ -9769,13 +11695,22 @@
         <v>0.9597523219814225</v>
       </c>
       <c r="I217" t="n">
-        <v>0.9721362229102166</v>
+        <v>0.9597523219814242</v>
       </c>
       <c r="J217" t="n">
+        <v>0.9566563467492261</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0.9690402476780187</v>
+      </c>
+      <c r="L217" t="n">
         <v>0.8730650154798761</v>
       </c>
-      <c r="K217" t="n">
+      <c r="M217" t="n">
         <v>0.9752321981424149</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.4754098360655737</v>
       </c>
     </row>
     <row r="218">
@@ -9803,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="F218" t="n">
-        <v>0.9752321981424149</v>
+        <v>0.9783281733746131</v>
       </c>
       <c r="G218" t="n">
         <v>0.8173374613003097</v>
@@ -9812,14 +11747,21 @@
         <v>0.06191950464396286</v>
       </c>
       <c r="I218" t="n">
-        <v>0.06191950464396286</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="J218" t="n">
-        <v>0.9690402476780187</v>
+        <v>0.07430340557275542</v>
       </c>
       <c r="K218" t="n">
+        <v>0.05572755417956657</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.9659442724458205</v>
+      </c>
+      <c r="M218" t="n">
         <v>0.08978328173374614</v>
       </c>
+      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -9855,13 +11797,22 @@
         <v>0.2136222910216717</v>
       </c>
       <c r="I219" t="n">
-        <v>0.2445820433436533</v>
+        <v>0.2136222910216715</v>
       </c>
       <c r="J219" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0.2291021671826625</v>
+      </c>
+      <c r="L219" t="n">
         <v>0.7492260061919505</v>
       </c>
-      <c r="K219" t="n">
+      <c r="M219" t="n">
         <v>0.3777089783281734</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.1409836065573771</v>
       </c>
     </row>
     <row r="220">
@@ -9898,13 +11849,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="I220" t="n">
-        <v>0.1269349845201238</v>
+        <v>0.08978328173374614</v>
       </c>
       <c r="J220" t="n">
-        <v>0.9814241486068112</v>
+        <v>0.08668730650154799</v>
       </c>
       <c r="K220" t="n">
+        <v>0.1145510835913313</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.9783281733746131</v>
+      </c>
+      <c r="M220" t="n">
         <v>0.2074303405572755</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="221">
@@ -9941,13 +11901,22 @@
         <v>0.153250773993808</v>
       </c>
       <c r="I221" t="n">
-        <v>0.2291021671826625</v>
+        <v>0.1547987616099071</v>
       </c>
       <c r="J221" t="n">
+        <v>0.1393188854489164</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0.2105263157894737</v>
+      </c>
+      <c r="L221" t="n">
         <v>0.9287925696594428</v>
       </c>
-      <c r="K221" t="n">
+      <c r="M221" t="n">
         <v>0.3746130030959752</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.05245901639344262</v>
       </c>
     </row>
     <row r="222">
@@ -9984,13 +11953,22 @@
         <v>0.3513931888544892</v>
       </c>
       <c r="I222" t="n">
-        <v>0.4829721362229102</v>
+        <v>0.3575851393188855</v>
       </c>
       <c r="J222" t="n">
-        <v>0.9876160990712075</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="K222" t="n">
+        <v>0.4272445820433437</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.9845201238390093</v>
+      </c>
+      <c r="M222" t="n">
         <v>0.6687306501547988</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0.1114754098360656</v>
       </c>
     </row>
     <row r="223">
@@ -10027,13 +12005,22 @@
         <v>0.2445820433436533</v>
       </c>
       <c r="I223" t="n">
-        <v>0.3126934984520124</v>
+        <v>0.2476780185758514</v>
       </c>
       <c r="J223" t="n">
-        <v>0.9907120743034028</v>
+        <v>0.2662538699690403</v>
       </c>
       <c r="K223" t="n">
+        <v>0.2941176470588235</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.9876160990712046</v>
+      </c>
+      <c r="M223" t="n">
         <v>0.4922600619195047</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.04426229508196721</v>
       </c>
     </row>
     <row r="224">
@@ -10070,13 +12057,22 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="I224" t="n">
-        <v>0.3498452012383901</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="J224" t="n">
-        <v>0.9969040247678019</v>
+        <v>0.260061919504644</v>
       </c>
       <c r="K224" t="n">
+        <v>0.3157894736842106</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.9938080495356038</v>
+      </c>
+      <c r="M224" t="n">
         <v>0.5572755417956656</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.01475409836065574</v>
       </c>
     </row>
     <row r="225">
@@ -10113,13 +12109,22 @@
         <v>0.2879256965944272</v>
       </c>
       <c r="I225" t="n">
-        <v>0.3374613003095975</v>
+        <v>0.2848297213622291</v>
       </c>
       <c r="J225" t="n">
+        <v>0.2910216718266253</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0.3188854489164087</v>
+      </c>
+      <c r="L225" t="n">
         <v>0.9473684210526316</v>
       </c>
-      <c r="K225" t="n">
+      <c r="M225" t="n">
         <v>0.5294117647058824</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="226">
@@ -10156,13 +12161,22 @@
         <v>0.2523219814241486</v>
       </c>
       <c r="I226" t="n">
-        <v>0.3312693498452008</v>
+        <v>0.2569659442724448</v>
       </c>
       <c r="J226" t="n">
+        <v>0.1981424148606811</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0.3065015479876161</v>
+      </c>
+      <c r="L226" t="n">
         <v>0.9504643962848257</v>
       </c>
-      <c r="K226" t="n">
+      <c r="M226" t="n">
         <v>0.5325077399380805</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.2885245901639344</v>
       </c>
     </row>
     <row r="227">
@@ -10199,13 +12213,22 @@
         <v>0.03560371517027864</v>
       </c>
       <c r="I227" t="n">
-        <v>0.04334365325077399</v>
+        <v>0.03405572755417957</v>
       </c>
       <c r="J227" t="n">
-        <v>1</v>
+        <v>0.01857585139318885</v>
       </c>
       <c r="K227" t="n">
+        <v>0.04024767801857585</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.9969040247678019</v>
+      </c>
+      <c r="M227" t="n">
         <v>0.06191950464396286</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.9131147540983606</v>
       </c>
     </row>
     <row r="228">
@@ -10242,13 +12265,22 @@
         <v>0.08823529411764706</v>
       </c>
       <c r="I228" t="n">
-        <v>0.130030959752322</v>
+        <v>0.08359133126934985</v>
       </c>
       <c r="J228" t="n">
+        <v>0.07739938080495357</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0.1114551083591331</v>
+      </c>
+      <c r="L228" t="n">
         <v>0.9226006191950465</v>
       </c>
-      <c r="K228" t="n">
+      <c r="M228" t="n">
         <v>0.2321981424148607</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.8885245901639345</v>
       </c>
     </row>
     <row r="229">
@@ -10285,13 +12317,22 @@
         <v>0.1238390092879257</v>
       </c>
       <c r="I229" t="n">
-        <v>0.1455108359133127</v>
+        <v>0.1238390092879257</v>
       </c>
       <c r="J229" t="n">
-        <v>0.9845201238390093</v>
+        <v>0.1331269349845201</v>
       </c>
       <c r="K229" t="n">
+        <v>0.1331269349845201</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.9814241486068112</v>
+      </c>
+      <c r="M229" t="n">
         <v>0.2198142414860681</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.5737704918032787</v>
       </c>
     </row>
     <row r="230">
@@ -10319,22 +12360,31 @@
         <v>0.1021671826625387</v>
       </c>
       <c r="F230" t="n">
+        <v>0.9752321981424149</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.9783281733746131</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.0108359133126935</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.009287925696594427</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01547987616099071</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0.03095975232198143</v>
+      </c>
+      <c r="L230" t="n">
         <v>1</v>
       </c>
-      <c r="G230" t="n">
-        <v>1</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0.01238390092879257</v>
-      </c>
-      <c r="I230" t="n">
-        <v>0.03405572755417957</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.9628482972136223</v>
-      </c>
-      <c r="K230" t="n">
+      <c r="M230" t="n">
         <v>0.05263157894736843</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.957377049180328</v>
       </c>
     </row>
     <row r="231">
@@ -10371,13 +12421,22 @@
         <v>0.07120743034055728</v>
       </c>
       <c r="I231" t="n">
-        <v>0.0804953560371517</v>
+        <v>0.07120743034055728</v>
       </c>
       <c r="J231" t="n">
+        <v>0.06811145510835913</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0.07739938080495357</v>
+      </c>
+      <c r="L231" t="n">
         <v>0.8452012383900918</v>
       </c>
-      <c r="K231" t="n">
+      <c r="M231" t="n">
         <v>0.1578947368421053</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.9377049180327869</v>
       </c>
     </row>
     <row r="232">
@@ -10414,13 +12473,22 @@
         <v>0.1114551083591331</v>
       </c>
       <c r="I232" t="n">
-        <v>0.1424148606811146</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="J232" t="n">
+        <v>0.1145510835913313</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0.1207430340557276</v>
+      </c>
+      <c r="L232" t="n">
         <v>0.8947368421052632</v>
       </c>
-      <c r="K232" t="n">
+      <c r="M232" t="n">
         <v>0.2414860681114551</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.839344262295082</v>
       </c>
     </row>
     <row r="233">
@@ -10457,13 +12525,22 @@
         <v>0.04024767801857585</v>
       </c>
       <c r="I233" t="n">
+        <v>0.04024767801857585</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.03715170278637771</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.04643962848297214</v>
       </c>
-      <c r="J233" t="n">
+      <c r="L233" t="n">
         <v>0.934984520123839</v>
       </c>
-      <c r="K233" t="n">
+      <c r="M233" t="n">
         <v>0.05882352941176471</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.9475409836065574</v>
       </c>
     </row>
     <row r="234">
@@ -10500,13 +12577,22 @@
         <v>0.04953560371517028</v>
       </c>
       <c r="I234" t="n">
-        <v>0.06811145510835914</v>
+        <v>0.04953560371517028</v>
       </c>
       <c r="J234" t="n">
-        <v>0.9597523219814234</v>
+        <v>0.04334365325077399</v>
       </c>
       <c r="K234" t="n">
+        <v>0.06191950464396286</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.9597523219814229</v>
+      </c>
+      <c r="M234" t="n">
         <v>0.1176470588235294</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.8786885245901639</v>
       </c>
     </row>
     <row r="235">
@@ -10543,13 +12629,22 @@
         <v>0.2291021671826625</v>
       </c>
       <c r="I235" t="n">
-        <v>0.2414860681114551</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J235" t="n">
+        <v>0.2631578947368415</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0.2352941176470588</v>
+      </c>
+      <c r="L235" t="n">
         <v>0.9009287925696592</v>
       </c>
-      <c r="K235" t="n">
+      <c r="M235" t="n">
         <v>0.3560371517027864</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.1508196721311476</v>
       </c>
     </row>
     <row r="236">
@@ -10586,14 +12681,21 @@
         <v>0.8854489164086687</v>
       </c>
       <c r="I236" t="n">
-        <v>0.9380804953560372</v>
+        <v>0.8792569659442725</v>
       </c>
       <c r="J236" t="n">
+        <v>0.8823529411764707</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0.9318885448916403</v>
+      </c>
+      <c r="L236" t="n">
         <v>0.8421052631578948</v>
       </c>
-      <c r="K236" t="n">
+      <c r="M236" t="n">
         <v>0.9473684210526316</v>
       </c>
+      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -10629,13 +12731,22 @@
         <v>0.8978328173374613</v>
       </c>
       <c r="I237" t="n">
-        <v>0.9256965944272446</v>
+        <v>0.8978328173374613</v>
       </c>
       <c r="J237" t="n">
+        <v>0.9040247678018554</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0.9226006191950445</v>
+      </c>
+      <c r="L237" t="n">
         <v>0.4582043343653251</v>
       </c>
-      <c r="K237" t="n">
+      <c r="M237" t="n">
         <v>0.9318885448916393</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0.3213114754098361</v>
       </c>
     </row>
     <row r="238">
@@ -10672,13 +12783,22 @@
         <v>0.7430340557275542</v>
       </c>
       <c r="I238" t="n">
-        <v>0.7925696594427245</v>
+        <v>0.7461300309597524</v>
       </c>
       <c r="J238" t="n">
+        <v>0.736842105263158</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0.7708978328173375</v>
+      </c>
+      <c r="L238" t="n">
         <v>0.9380804953560372</v>
       </c>
-      <c r="K238" t="n">
+      <c r="M238" t="n">
         <v>0.8204334365325078</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0.9770491803278689</v>
       </c>
     </row>
     <row r="239">
@@ -10715,13 +12835,22 @@
         <v>0.8823529411764707</v>
       </c>
       <c r="I239" t="n">
-        <v>0.9195046439628483</v>
+        <v>0.8854489164086687</v>
       </c>
       <c r="J239" t="n">
+        <v>0.8916408668730651</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0.9164086687306502</v>
+      </c>
+      <c r="L239" t="n">
         <v>0.4829721362229102</v>
       </c>
-      <c r="K239" t="n">
+      <c r="M239" t="n">
         <v>0.9442724458204335</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="240">
@@ -10758,13 +12887,22 @@
         <v>0.8761609907120743</v>
       </c>
       <c r="I240" t="n">
-        <v>0.9226006191950459</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="J240" t="n">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0.9133126934984521</v>
+      </c>
+      <c r="L240" t="n">
         <v>0.9040247678018571</v>
       </c>
-      <c r="K240" t="n">
+      <c r="M240" t="n">
         <v>0.9380804953560372</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0.2639344262295082</v>
       </c>
     </row>
     <row r="241">
@@ -10792,22 +12930,31 @@
         <v>0.2755417956656347</v>
       </c>
       <c r="F241" t="n">
-        <v>0.9798761609907121</v>
+        <v>0.9829721362229102</v>
       </c>
       <c r="G241" t="n">
-        <v>0.9798761609907121</v>
+        <v>0.9829721362229102</v>
       </c>
       <c r="H241" t="n">
         <v>0.8421052631578948</v>
       </c>
       <c r="I241" t="n">
-        <v>0.8792569659442725</v>
+        <v>0.826625386996904</v>
       </c>
       <c r="J241" t="n">
+        <v>0.8606811145510836</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0.8699690402476781</v>
+      </c>
+      <c r="L241" t="n">
         <v>0.6842105263157895</v>
       </c>
-      <c r="K241" t="n">
+      <c r="M241" t="n">
         <v>0.8978328173374613</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0.4049180327868852</v>
       </c>
     </row>
     <row r="242">
@@ -10844,13 +12991,22 @@
         <v>0.8390092879256966</v>
       </c>
       <c r="I242" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="J242" t="n">
         <v>0.8575851393188855</v>
       </c>
-      <c r="J242" t="n">
+      <c r="K242" t="n">
+        <v>0.8513931888544892</v>
+      </c>
+      <c r="L242" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="K242" t="n">
+      <c r="M242" t="n">
         <v>0.8916408668730651</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0.6131147540983606</v>
       </c>
     </row>
     <row r="243">
@@ -10887,13 +13043,22 @@
         <v>0.8792569659442725</v>
       </c>
       <c r="I243" t="n">
-        <v>0.9473684210526316</v>
+        <v>0.8823529411764707</v>
       </c>
       <c r="J243" t="n">
+        <v>0.9164086687306502</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0.9411764705882354</v>
+      </c>
+      <c r="L243" t="n">
         <v>0.9566563467492261</v>
       </c>
-      <c r="K243" t="n">
+      <c r="M243" t="n">
         <v>0.9504643962848298</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0.4557377049180328</v>
       </c>
     </row>
     <row r="244">
@@ -10930,13 +13095,22 @@
         <v>0.8297213622291022</v>
       </c>
       <c r="I244" t="n">
-        <v>0.8359133126934984</v>
+        <v>0.8328173374612996</v>
       </c>
       <c r="J244" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0.8359133126934983</v>
+      </c>
+      <c r="L244" t="n">
         <v>0.4365325077399381</v>
       </c>
-      <c r="K244" t="n">
+      <c r="M244" t="n">
         <v>0.8792569659442725</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0.7377049180327869</v>
       </c>
     </row>
     <row r="245">
@@ -10973,13 +13147,22 @@
         <v>0.873065015479876</v>
       </c>
       <c r="I245" t="n">
+        <v>0.873065015479876</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.8699690402476781</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.9102167182662539</v>
       </c>
-      <c r="J245" t="n">
+      <c r="L245" t="n">
         <v>0.7306501547987616</v>
       </c>
-      <c r="K245" t="n">
+      <c r="M245" t="n">
         <v>0.934984520123839</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0.5836065573770493</v>
       </c>
     </row>
     <row r="246">
@@ -11016,13 +13199,22 @@
         <v>0.8606811145510836</v>
       </c>
       <c r="I246" t="n">
-        <v>0.8730650154798756</v>
+        <v>0.8606811145510836</v>
       </c>
       <c r="J246" t="n">
+        <v>0.8390092879256966</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0.8668730650154799</v>
+      </c>
+      <c r="L246" t="n">
         <v>0.3653250773993808</v>
       </c>
-      <c r="K246" t="n">
+      <c r="M246" t="n">
         <v>0.8885448916408669</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0.819672131147541</v>
       </c>
     </row>
     <row r="247">
@@ -11059,13 +13251,22 @@
         <v>0.8544891640866873</v>
       </c>
       <c r="I247" t="n">
-        <v>0.8761609907120743</v>
+        <v>0.8544891640866873</v>
       </c>
       <c r="J247" t="n">
+        <v>0.8297213622291022</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0.8606811145510836</v>
+      </c>
+      <c r="L247" t="n">
         <v>0.7430340557275542</v>
       </c>
-      <c r="K247" t="n">
+      <c r="M247" t="n">
         <v>0.9040247678018575</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0.6721311475409837</v>
       </c>
     </row>
     <row r="248">
@@ -11102,13 +13303,22 @@
         <v>0.8916408668730651</v>
       </c>
       <c r="I248" t="n">
-        <v>0.9287925696594428</v>
+        <v>0.8916408668730651</v>
       </c>
       <c r="J248" t="n">
+        <v>0.8792569659442725</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.9195046439628484</v>
+      </c>
+      <c r="L248" t="n">
         <v>0.736842105263158</v>
       </c>
-      <c r="K248" t="n">
+      <c r="M248" t="n">
         <v>0.9411764705882353</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0.7016393442622951</v>
       </c>
     </row>
     <row r="249">
@@ -11145,13 +13355,22 @@
         <v>0.8668730650154799</v>
       </c>
       <c r="I249" t="n">
-        <v>0.900928792569659</v>
+        <v>0.8637770897832818</v>
       </c>
       <c r="J249" t="n">
+        <v>0.8668730650154799</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0.8916408668730651</v>
+      </c>
+      <c r="L249" t="n">
         <v>0.8049535603715171</v>
       </c>
-      <c r="K249" t="n">
+      <c r="M249" t="n">
         <v>0.9133126934984513</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0.4852459016393442</v>
       </c>
     </row>
     <row r="250">
@@ -11188,13 +13407,22 @@
         <v>0.8699690402476781</v>
       </c>
       <c r="I250" t="n">
-        <v>0.8916408668730651</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="J250" t="n">
+        <v>0.8544891640866872</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0.8885448916408669</v>
+      </c>
+      <c r="L250" t="n">
         <v>0.65015479876161</v>
       </c>
-      <c r="K250" t="n">
+      <c r="M250" t="n">
         <v>0.9164086687306502</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0.5147540983606558</v>
       </c>
     </row>
     <row r="251">
@@ -11231,13 +13459,22 @@
         <v>0.8575851393188855</v>
       </c>
       <c r="I251" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="J251" t="n">
+        <v>0.8637770897832813</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0.8854489164086687</v>
+      </c>
+      <c r="L251" t="n">
         <v>0.8359133126934982</v>
       </c>
-      <c r="K251" t="n">
+      <c r="M251" t="n">
         <v>0.9287925696594428</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0.721311475409836</v>
       </c>
     </row>
     <row r="252">
@@ -11274,13 +13511,22 @@
         <v>0.848297213622291</v>
       </c>
       <c r="I252" t="n">
-        <v>0.8823529411764707</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="J252" t="n">
+        <v>0.8111455108359134</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0.8761609907120743</v>
+      </c>
+      <c r="L252" t="n">
         <v>0.7801857585139319</v>
       </c>
-      <c r="K252" t="n">
+      <c r="M252" t="n">
         <v>0.9102167182662539</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0.7016393442622951</v>
       </c>
     </row>
     <row r="253">
@@ -11317,13 +13563,22 @@
         <v>0.8637770897832818</v>
       </c>
       <c r="I253" t="n">
-        <v>0.9071207430340558</v>
+        <v>0.8668730650154799</v>
       </c>
       <c r="J253" t="n">
+        <v>0.848297213622291</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0.9009287925696595</v>
+      </c>
+      <c r="L253" t="n">
         <v>0.6439628482972136</v>
       </c>
-      <c r="K253" t="n">
+      <c r="M253" t="n">
         <v>0.9256965944272446</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0.5245901639344261</v>
       </c>
     </row>
     <row r="254">
@@ -11360,14 +13615,21 @@
         <v>0.8173374613003095</v>
       </c>
       <c r="I254" t="n">
-        <v>0.6099071207430341</v>
+        <v>0.8204334365325078</v>
       </c>
       <c r="J254" t="n">
+        <v>0.7925696594427245</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0.6253869969040248</v>
+      </c>
+      <c r="L254" t="n">
         <v>0.003095975232198143</v>
       </c>
-      <c r="K254" t="n">
+      <c r="M254" t="n">
         <v>0.2569659442724458</v>
       </c>
+      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -11403,13 +13665,22 @@
         <v>0.7507739938080495</v>
       </c>
       <c r="I255" t="n">
-        <v>0.5975232198142415</v>
+        <v>0.7523219814241486</v>
       </c>
       <c r="J255" t="n">
+        <v>0.7616099071207431</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0.5928792569659442</v>
+      </c>
+      <c r="L255" t="n">
         <v>0.08978328173374611</v>
       </c>
-      <c r="K255" t="n">
+      <c r="M255" t="n">
         <v>0.5603715170278638</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0.1311475409836065</v>
       </c>
     </row>
     <row r="256">
@@ -11446,13 +13717,22 @@
         <v>0.5201238390092879</v>
       </c>
       <c r="I256" t="n">
-        <v>0.3839009287925697</v>
+        <v>0.523219814241486</v>
       </c>
       <c r="J256" t="n">
+        <v>0.498452012383901</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0.3808049535603715</v>
+      </c>
+      <c r="L256" t="n">
         <v>0.1486068111455108</v>
       </c>
-      <c r="K256" t="n">
+      <c r="M256" t="n">
         <v>0.3591331269349846</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0.9852459016393442</v>
       </c>
     </row>
     <row r="257">
@@ -11489,13 +13769,22 @@
         <v>0.8513931888544892</v>
       </c>
       <c r="I257" t="n">
-        <v>0.6996904024767803</v>
+        <v>0.8513931888544892</v>
       </c>
       <c r="J257" t="n">
+        <v>0.8359133126934986</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0.7182662538699679</v>
+      </c>
+      <c r="L257" t="n">
         <v>0.04024767801857585</v>
       </c>
-      <c r="K257" t="n">
+      <c r="M257" t="n">
         <v>0.4736842105263158</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0.09180327868852459</v>
       </c>
     </row>
     <row r="258">
@@ -11532,13 +13821,22 @@
         <v>0.8359133126934984</v>
       </c>
       <c r="I258" t="n">
-        <v>0.6408668730650156</v>
+        <v>0.8390092879256966</v>
       </c>
       <c r="J258" t="n">
+        <v>0.8452012383900926</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0.6594427244582044</v>
+      </c>
+      <c r="L258" t="n">
         <v>0</v>
       </c>
-      <c r="K258" t="n">
+      <c r="M258" t="n">
         <v>0.4148606811145511</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0.1016393442622951</v>
       </c>
     </row>
     <row r="259">
@@ -11575,13 +13873,22 @@
         <v>0.7275541795665635</v>
       </c>
       <c r="I259" t="n">
-        <v>0.4566563467492261</v>
+        <v>0.7306501547987616</v>
       </c>
       <c r="J259" t="n">
+        <v>0.7554179566563467</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0.4829721362229102</v>
+      </c>
+      <c r="L259" t="n">
         <v>0.1052631578947369</v>
       </c>
-      <c r="K259" t="n">
+      <c r="M259" t="n">
         <v>0.2693498452012384</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0.5622950819672131</v>
       </c>
     </row>
     <row r="260">
@@ -11618,13 +13925,22 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="I260" t="n">
-        <v>0.5325077399380805</v>
+        <v>0.7956656346749227</v>
       </c>
       <c r="J260" t="n">
+        <v>0.8049535603715171</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0.544891640866872</v>
+      </c>
+      <c r="L260" t="n">
         <v>0.009287925696594427</v>
       </c>
-      <c r="K260" t="n">
+      <c r="M260" t="n">
         <v>0.2291021671826625</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0.5442622950819672</v>
       </c>
     </row>
     <row r="261">
@@ -11661,13 +13977,22 @@
         <v>0.7987616099071208</v>
       </c>
       <c r="I261" t="n">
-        <v>0.5665634674922601</v>
+        <v>0.8049535603715171</v>
       </c>
       <c r="J261" t="n">
+        <v>0.7987616099071208</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.5773993808049536</v>
+      </c>
+      <c r="L261" t="n">
         <v>0.006191950464396285</v>
       </c>
-      <c r="K261" t="n">
+      <c r="M261" t="n">
         <v>0.3529411764705883</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0.2213114754098361</v>
       </c>
     </row>
     <row r="262">
@@ -11704,13 +14029,22 @@
         <v>0.6346749226006192</v>
       </c>
       <c r="I262" t="n">
-        <v>0.411764705882353</v>
+        <v>0.6377708978328174</v>
       </c>
       <c r="J262" t="n">
+        <v>0.6470588235294119</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0.417956656346749</v>
+      </c>
+      <c r="L262" t="n">
         <v>0.1795665634674923</v>
       </c>
-      <c r="K262" t="n">
+      <c r="M262" t="n">
         <v>0.2755417956656347</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="263">
@@ -11747,13 +14081,22 @@
         <v>0.8080495356037152</v>
       </c>
       <c r="I263" t="n">
-        <v>0.6068111455108359</v>
+        <v>0.8111455108359134</v>
       </c>
       <c r="J263" t="n">
+        <v>0.7863777089783281</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0.6130030959752322</v>
+      </c>
+      <c r="L263" t="n">
         <v>0.021671826625387</v>
       </c>
-      <c r="K263" t="n">
+      <c r="M263" t="n">
         <v>0.4210526315789474</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0.2295081967213115</v>
       </c>
     </row>
     <row r="264">
@@ -11790,13 +14133,22 @@
         <v>0.7058823529411765</v>
       </c>
       <c r="I264" t="n">
-        <v>0.4566563467492261</v>
+        <v>0.7027863777089783</v>
       </c>
       <c r="J264" t="n">
+        <v>0.7585139318885444</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0.4613003095975233</v>
+      </c>
+      <c r="L264" t="n">
         <v>0.03405572755417956</v>
       </c>
-      <c r="K264" t="n">
+      <c r="M264" t="n">
         <v>0.390092879256966</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0.6918032786885246</v>
       </c>
     </row>
     <row r="265">
@@ -11833,13 +14185,22 @@
         <v>0.7708978328173375</v>
       </c>
       <c r="I265" t="n">
-        <v>0.5077399380804953</v>
+        <v>0.7832817337461301</v>
       </c>
       <c r="J265" t="n">
+        <v>0.7662538699690403</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.5170278637770899</v>
+      </c>
+      <c r="L265" t="n">
         <v>0.01857585139318885</v>
       </c>
-      <c r="K265" t="n">
+      <c r="M265" t="n">
         <v>0.3065015479876161</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0.4360655737704918</v>
       </c>
     </row>
     <row r="266">
@@ -11876,13 +14237,22 @@
         <v>0.6160990712074303</v>
       </c>
       <c r="I266" t="n">
-        <v>0.3808049535603715</v>
+        <v>0.6191950464396285</v>
       </c>
       <c r="J266" t="n">
+        <v>0.6687306501547988</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.3869969040247678</v>
+      </c>
+      <c r="L266" t="n">
         <v>0.0804953560371517</v>
       </c>
-      <c r="K266" t="n">
+      <c r="M266" t="n">
         <v>0.21671826625387</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0.660655737704918</v>
       </c>
     </row>
     <row r="267">
@@ -11919,13 +14289,22 @@
         <v>0.7956656346749227</v>
       </c>
       <c r="I267" t="n">
-        <v>0.6006191950464397</v>
+        <v>0.8018575851393189</v>
       </c>
       <c r="J267" t="n">
+        <v>0.8080495356037152</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.6160990712074303</v>
+      </c>
+      <c r="L267" t="n">
         <v>0.01547987616099071</v>
       </c>
-      <c r="K267" t="n">
+      <c r="M267" t="n">
         <v>0.3653250773993808</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0.6229508196721312</v>
       </c>
     </row>
     <row r="268">
@@ -11962,13 +14341,22 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="I268" t="n">
-        <v>0.3746130030959752</v>
+        <v>0.5541795665634676</v>
       </c>
       <c r="J268" t="n">
+        <v>0.5851393188854489</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.3715170278637771</v>
+      </c>
+      <c r="L268" t="n">
         <v>0.05263157894736843</v>
       </c>
-      <c r="K268" t="n">
+      <c r="M268" t="n">
         <v>0.2848297213622291</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0.9278688524590164</v>
       </c>
     </row>
     <row r="269">
@@ -12005,13 +14393,22 @@
         <v>0.7863777089783283</v>
       </c>
       <c r="I269" t="n">
-        <v>0.5634674922600618</v>
+        <v>0.7925696594427245</v>
       </c>
       <c r="J269" t="n">
+        <v>0.826625386996904</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.5603715170278638</v>
+      </c>
+      <c r="L269" t="n">
         <v>0.01238390092879257</v>
       </c>
-      <c r="K269" t="n">
+      <c r="M269" t="n">
         <v>0.3405572755417957</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0.3967213114754098</v>
       </c>
     </row>
     <row r="270">
@@ -12048,13 +14445,22 @@
         <v>0.8328173374613002</v>
       </c>
       <c r="I270" t="n">
-        <v>0.6780185758513932</v>
+        <v>0.8359133126934982</v>
       </c>
       <c r="J270" t="n">
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.6996904024767799</v>
+      </c>
+      <c r="L270" t="n">
         <v>0.03095975232198143</v>
       </c>
-      <c r="K270" t="n">
+      <c r="M270" t="n">
         <v>0.6068111455108359</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0.3704918032786885</v>
       </c>
     </row>
     <row r="271">
@@ -12091,13 +14497,22 @@
         <v>0.7368421052631575</v>
       </c>
       <c r="I271" t="n">
-        <v>0.4334365325077399</v>
+        <v>0.736842105263158</v>
       </c>
       <c r="J271" t="n">
+        <v>0.7306501547987616</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.4489164086687307</v>
+      </c>
+      <c r="L271" t="n">
         <v>0.04334365325077399</v>
       </c>
-      <c r="K271" t="n">
+      <c r="M271" t="n">
         <v>0.1764705882352941</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="272">
@@ -12134,14 +14549,21 @@
         <v>0.651702786377709</v>
       </c>
       <c r="I272" t="n">
+        <v>0.6547987616099071</v>
+      </c>
+      <c r="J272" t="n">
         <v>0.6718266253869969</v>
       </c>
-      <c r="J272" t="n">
+      <c r="K272" t="n">
+        <v>0.6904024767801858</v>
+      </c>
+      <c r="L272" t="n">
         <v>0.4241486068111455</v>
       </c>
-      <c r="K272" t="n">
+      <c r="M272" t="n">
         <v>0.6377708978328174</v>
       </c>
+      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -12177,13 +14599,22 @@
         <v>0.4798761609907121</v>
       </c>
       <c r="I273" t="n">
-        <v>0.4489164086687307</v>
+        <v>0.4829721362229102</v>
       </c>
       <c r="J273" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="L273" t="n">
         <v>0.3188854489164087</v>
       </c>
-      <c r="K273" t="n">
+      <c r="M273" t="n">
         <v>0.4241486068111455</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0.2475409836065574</v>
       </c>
     </row>
     <row r="274">
@@ -12220,13 +14651,22 @@
         <v>0.3173374613003096</v>
       </c>
       <c r="I274" t="n">
-        <v>0.2693498452012384</v>
+        <v>0.3157894736842106</v>
       </c>
       <c r="J274" t="n">
+        <v>0.3436532507739938</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.2848297213622291</v>
+      </c>
+      <c r="L274" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="K274" t="n">
+      <c r="M274" t="n">
         <v>0.1795665634674923</v>
+      </c>
+      <c r="N274" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -12263,13 +14703,22 @@
         <v>0.6052631578947369</v>
       </c>
       <c r="I275" t="n">
-        <v>0.5758513931888545</v>
+        <v>0.609907120743034</v>
       </c>
       <c r="J275" t="n">
+        <v>0.5913312693498453</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.5975232198142415</v>
+      </c>
+      <c r="L275" t="n">
         <v>0.2321981424148607</v>
       </c>
-      <c r="K275" t="n">
+      <c r="M275" t="n">
         <v>0.523219814241486</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0.2967213114754098</v>
       </c>
     </row>
     <row r="276">
@@ -12306,13 +14755,22 @@
         <v>0.4953560371517028</v>
       </c>
       <c r="I276" t="n">
-        <v>0.498452012383901</v>
+        <v>0.5015479876160991</v>
       </c>
       <c r="J276" t="n">
+        <v>0.4829721362229102</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.5201238390092879</v>
+      </c>
+      <c r="L276" t="n">
         <v>0.2848297213622291</v>
       </c>
-      <c r="K276" t="n">
+      <c r="M276" t="n">
         <v>0.4767801857585139</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0.2786885245901639</v>
       </c>
     </row>
     <row r="277">
@@ -12349,13 +14807,22 @@
         <v>0.5139318885448917</v>
       </c>
       <c r="I277" t="n">
-        <v>0.5015479876160991</v>
+        <v>0.5201238390092879</v>
       </c>
       <c r="J277" t="n">
+        <v>0.5356037151702787</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.5263157894736843</v>
+      </c>
+      <c r="L277" t="n">
         <v>0.3622291021671827</v>
       </c>
-      <c r="K277" t="n">
+      <c r="M277" t="n">
         <v>0.4582043343653251</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0.5360655737704918</v>
       </c>
     </row>
     <row r="278">
@@ -12392,13 +14859,22 @@
         <v>0.696594427244582</v>
       </c>
       <c r="I278" t="n">
-        <v>0.6563467492260062</v>
+        <v>0.6965944272445821</v>
       </c>
       <c r="J278" t="n">
+        <v>0.7058823529411764</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L278" t="n">
         <v>0.2569659442724458</v>
       </c>
-      <c r="K278" t="n">
+      <c r="M278" t="n">
         <v>0.5975232198142415</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0.2098360655737705</v>
       </c>
     </row>
     <row r="279">
@@ -12435,13 +14911,22 @@
         <v>0.6687306501547988</v>
       </c>
       <c r="I279" t="n">
-        <v>0.628482972136223</v>
+        <v>0.6718266253869969</v>
       </c>
       <c r="J279" t="n">
+        <v>0.7461300309597516</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.6439628482972136</v>
+      </c>
+      <c r="L279" t="n">
         <v>0.3065015479876161</v>
       </c>
-      <c r="K279" t="n">
+      <c r="M279" t="n">
         <v>0.5758513931888545</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0.3836065573770492</v>
       </c>
     </row>
     <row r="280">
@@ -12478,13 +14963,22 @@
         <v>0.5170278637770896</v>
       </c>
       <c r="I280" t="n">
-        <v>0.4613003095975211</v>
+        <v>0.5170278637770899</v>
       </c>
       <c r="J280" t="n">
+        <v>0.541795665634675</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.4860681114551083</v>
+      </c>
+      <c r="L280" t="n">
         <v>0.2136222910216719</v>
       </c>
-      <c r="K280" t="n">
+      <c r="M280" t="n">
         <v>0.4055727554179567</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0.7885245901639344</v>
       </c>
     </row>
     <row r="281">
@@ -12521,13 +15015,22 @@
         <v>0.5386996904024768</v>
       </c>
       <c r="I281" t="n">
-        <v>0.4860681114551083</v>
+        <v>0.5386996904024768</v>
       </c>
       <c r="J281" t="n">
+        <v>0.4489164086687307</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.498452012383901</v>
+      </c>
+      <c r="L281" t="n">
         <v>0.2291021671826625</v>
       </c>
-      <c r="K281" t="n">
+      <c r="M281" t="n">
         <v>0.4489164086687307</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0.8983606557377048</v>
       </c>
     </row>
     <row r="282">
@@ -12564,13 +15067,22 @@
         <v>0.5851393188854489</v>
       </c>
       <c r="I282" t="n">
-        <v>0.5820433436532507</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="J282" t="n">
+        <v>0.6222910216718267</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.6068111455108359</v>
+      </c>
+      <c r="L282" t="n">
         <v>0.260061919504644</v>
       </c>
-      <c r="K282" t="n">
+      <c r="M282" t="n">
         <v>0.5263157894736843</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0.8081967213114754</v>
       </c>
     </row>
     <row r="283">
@@ -12607,13 +15119,22 @@
         <v>0.4829721362229102</v>
       </c>
       <c r="I283" t="n">
-        <v>0.4891640866873065</v>
+        <v>0.4860681114551081</v>
       </c>
       <c r="J283" t="n">
+        <v>0.5015479876160991</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.5015479876160991</v>
+      </c>
+      <c r="L283" t="n">
         <v>0.3157894736842106</v>
       </c>
-      <c r="K283" t="n">
+      <c r="M283" t="n">
         <v>0.4674922600619195</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0.7508196721311475</v>
       </c>
     </row>
     <row r="284">
@@ -12650,13 +15171,22 @@
         <v>0.4736842105263158</v>
       </c>
       <c r="I284" t="n">
-        <v>0.4303405572755418</v>
+        <v>0.4767801857585139</v>
       </c>
       <c r="J284" t="n">
+        <v>0.4953560371517028</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.4458204334365325</v>
+      </c>
+      <c r="L284" t="n">
         <v>0.2538699690402477</v>
       </c>
-      <c r="K284" t="n">
+      <c r="M284" t="n">
         <v>0.3869969040247678</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0.7590163934426229</v>
       </c>
     </row>
     <row r="285">
@@ -12693,13 +15223,22 @@
         <v>0.4674922600619195</v>
       </c>
       <c r="I285" t="n">
-        <v>0.4365325077399381</v>
+        <v>0.4674922600619195</v>
       </c>
       <c r="J285" t="n">
+        <v>0.4520123839009288</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.4520123839009287</v>
+      </c>
+      <c r="L285" t="n">
         <v>0.303405572755418</v>
       </c>
-      <c r="K285" t="n">
+      <c r="M285" t="n">
         <v>0.4303405572755418</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="286">
@@ -12736,13 +15275,22 @@
         <v>0.6439628482972136</v>
       </c>
       <c r="I286" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.5510835913312694</v>
       </c>
       <c r="J286" t="n">
+        <v>0.6811145510835914</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.609907120743034</v>
+      </c>
+      <c r="L286" t="n">
         <v>0.2260061919504644</v>
       </c>
-      <c r="K286" t="n">
+      <c r="M286" t="n">
         <v>0.5077399380804953</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0.5934426229508196</v>
       </c>
     </row>
     <row r="287">
@@ -12779,13 +15327,22 @@
         <v>0.436532507739938</v>
       </c>
       <c r="I287" t="n">
-        <v>0.3962848297213623</v>
+        <v>0.4380804953560372</v>
       </c>
       <c r="J287" t="n">
+        <v>0.4582043343653251</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="L287" t="n">
         <v>0.2229102167182663</v>
       </c>
-      <c r="K287" t="n">
+      <c r="M287" t="n">
         <v>0.3374613003095975</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0.8672131147540983</v>
       </c>
     </row>
     <row r="288">
@@ -12822,13 +15379,22 @@
         <v>0.5665634674922601</v>
       </c>
       <c r="I288" t="n">
-        <v>0.5603715170278638</v>
+        <v>0.5696594427244582</v>
       </c>
       <c r="J288" t="n">
+        <v>0.5479876160990712</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.5696594427244582</v>
+      </c>
+      <c r="L288" t="n">
         <v>0.2414860681114551</v>
       </c>
-      <c r="K288" t="n">
+      <c r="M288" t="n">
         <v>0.5108359133126935</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0.3278688524590164</v>
       </c>
     </row>
     <row r="289">
@@ -12865,13 +15431,22 @@
         <v>0.5526315789473685</v>
       </c>
       <c r="I289" t="n">
-        <v>0.5046439628482973</v>
+        <v>0.5603715170278638</v>
       </c>
       <c r="J289" t="n">
+        <v>0.5727554179566563</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="L289" t="n">
         <v>0.2786377708978328</v>
       </c>
-      <c r="K289" t="n">
+      <c r="M289" t="n">
         <v>0.4705882352941177</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0.639344262295082</v>
       </c>
     </row>
     <row r="290">
@@ -12908,14 +15483,21 @@
         <v>0.498452012383901</v>
       </c>
       <c r="I290" t="n">
-        <v>0.5913312693498453</v>
+        <v>0.5077399380804953</v>
       </c>
       <c r="J290" t="n">
+        <v>0.5294117647058824</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.5773993808049536</v>
+      </c>
+      <c r="L290" t="n">
         <v>0.5263157894736843</v>
       </c>
-      <c r="K290" t="n">
+      <c r="M290" t="n">
         <v>0.653250773993808</v>
       </c>
+      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -12951,13 +15533,22 @@
         <v>0.4922600619195047</v>
       </c>
       <c r="I291" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.4953560371517028</v>
       </c>
       <c r="J291" t="n">
+        <v>0.5170278637770899</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.5820433436532495</v>
+      </c>
+      <c r="L291" t="n">
         <v>0.4613003095975227</v>
       </c>
-      <c r="K291" t="n">
+      <c r="M291" t="n">
         <v>0.628482972136223</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="292">
@@ -12994,13 +15585,22 @@
         <v>0.3436532507739936</v>
       </c>
       <c r="I292" t="n">
-        <v>0.393188854489164</v>
+        <v>0.3436532507739937</v>
       </c>
       <c r="J292" t="n">
+        <v>0.3374613003095975</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.390092879256966</v>
+      </c>
+      <c r="L292" t="n">
         <v>0.5944272445820433</v>
       </c>
-      <c r="K292" t="n">
+      <c r="M292" t="n">
         <v>0.4860681114551084</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0.9672131147540983</v>
       </c>
     </row>
     <row r="293">
@@ -13037,13 +15637,22 @@
         <v>0.7120743034055728</v>
       </c>
       <c r="I293" t="n">
-        <v>0.7647058823529412</v>
+        <v>0.7244582043343654</v>
       </c>
       <c r="J293" t="n">
+        <v>0.6904024767801857</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.7616099071207431</v>
+      </c>
+      <c r="L293" t="n">
         <v>0.4055727554179567</v>
       </c>
-      <c r="K293" t="n">
+      <c r="M293" t="n">
         <v>0.7956656346749227</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -13083,10 +15692,19 @@
         <v>0.2012383900928793</v>
       </c>
       <c r="J294" t="n">
+        <v>0.1919504643962846</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.2074303405572755</v>
+      </c>
+      <c r="L294" t="n">
         <v>0.4396284829721362</v>
       </c>
-      <c r="K294" t="n">
+      <c r="M294" t="n">
         <v>0.195046439628483</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0.8590163934426229</v>
       </c>
     </row>
     <row r="295">
@@ -13123,13 +15741,22 @@
         <v>0.4489164086687307</v>
       </c>
       <c r="I295" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4489164086687307</v>
       </c>
       <c r="J295" t="n">
+        <v>0.4860681114551082</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.5139318885448872</v>
+      </c>
+      <c r="L295" t="n">
         <v>0.5448916408668731</v>
       </c>
-      <c r="K295" t="n">
+      <c r="M295" t="n">
         <v>0.5851393188854489</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0.119672131147541</v>
       </c>
     </row>
     <row r="296">
@@ -13166,13 +15793,22 @@
         <v>0.4427244582043344</v>
       </c>
       <c r="I296" t="n">
-        <v>0.541795665634675</v>
+        <v>0.4458204334365325</v>
       </c>
       <c r="J296" t="n">
+        <v>0.393188854489164</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.5325077399380805</v>
+      </c>
+      <c r="L296" t="n">
         <v>0.5541795665634676</v>
       </c>
-      <c r="K296" t="n">
+      <c r="M296" t="n">
         <v>0.6315789473684209</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0.1704918032786885</v>
       </c>
     </row>
     <row r="297">
@@ -13200,22 +15836,31 @@
         <v>0.1021671826625387</v>
       </c>
       <c r="F297" t="n">
-        <v>0.9876160990712067</v>
+        <v>0.9907120743034049</v>
       </c>
       <c r="G297" t="n">
-        <v>0.9845201238390093</v>
+        <v>0.9876160990712075</v>
       </c>
       <c r="H297" t="n">
         <v>0.3978328173374613</v>
       </c>
       <c r="I297" t="n">
-        <v>0.5263157894736843</v>
+        <v>0.3839009287925697</v>
       </c>
       <c r="J297" t="n">
+        <v>0.411764705882353</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.4922600619195047</v>
+      </c>
+      <c r="L297" t="n">
         <v>0.7027863777089783</v>
       </c>
-      <c r="K297" t="n">
+      <c r="M297" t="n">
         <v>0.5882352941176471</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0.07049180327868854</v>
       </c>
     </row>
     <row r="298">
@@ -13252,13 +15897,22 @@
         <v>0.4055727554179567</v>
       </c>
       <c r="I298" t="n">
-        <v>0.4458204334365325</v>
+        <v>0.4086687306501548</v>
       </c>
       <c r="J298" t="n">
+        <v>0.4365325077399381</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.4427244582043344</v>
+      </c>
+      <c r="L298" t="n">
         <v>0.4334365325077399</v>
       </c>
-      <c r="K298" t="n">
+      <c r="M298" t="n">
         <v>0.5510835913312694</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0.3557377049180328</v>
       </c>
     </row>
     <row r="299">
@@ -13295,14 +15949,23 @@
         <v>0.1671826625386997</v>
       </c>
       <c r="I299" t="n">
-        <v>0.1393188854489164</v>
+        <v>0.1640866873065016</v>
       </c>
       <c r="J299" t="n">
-        <v>0.3095975232198143</v>
+        <v>0.1547987616099071</v>
       </c>
       <c r="K299" t="n">
         <v>0.1486068111455108</v>
       </c>
+      <c r="L299" t="n">
+        <v>0.3095975232198143</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0.1486068111455108</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0.3475409836065574</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -13338,13 +16001,22 @@
         <v>0.2972136222910217</v>
       </c>
       <c r="I300" t="n">
-        <v>0.3219814241486068</v>
+        <v>0.2972136222910217</v>
       </c>
       <c r="J300" t="n">
+        <v>0.2848297213622291</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.325077399380805</v>
+      </c>
+      <c r="L300" t="n">
         <v>0.739938080495356</v>
       </c>
-      <c r="K300" t="n">
+      <c r="M300" t="n">
         <v>0.3931888544891641</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0.7704918032786885</v>
       </c>
     </row>
     <row r="301">
@@ -13381,13 +16053,22 @@
         <v>0.4613003095975232</v>
       </c>
       <c r="I301" t="n">
-        <v>0.5139318885448917</v>
+        <v>0.4613003095975232</v>
       </c>
       <c r="J301" t="n">
+        <v>0.3839009287925697</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.4953560371517028</v>
+      </c>
+      <c r="L301" t="n">
         <v>0.6996904024767803</v>
       </c>
-      <c r="K301" t="n">
+      <c r="M301" t="n">
         <v>0.6130030959752322</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0.4163934426229509</v>
       </c>
     </row>
     <row r="302">
@@ -13424,13 +16105,22 @@
         <v>0.411764705882353</v>
       </c>
       <c r="I302" t="n">
-        <v>0.4427244582043344</v>
+        <v>0.4148606811145511</v>
       </c>
       <c r="J302" t="n">
+        <v>0.390092879256966</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.4396284829721362</v>
+      </c>
+      <c r="L302" t="n">
         <v>0.5108359133126935</v>
       </c>
-      <c r="K302" t="n">
+      <c r="M302" t="n">
         <v>0.5448916408668728</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0.3081967213114754</v>
       </c>
     </row>
     <row r="303">
@@ -13467,13 +16157,22 @@
         <v>0.2414860681114551</v>
       </c>
       <c r="I303" t="n">
-        <v>0.1981424148606811</v>
+        <v>0.2414860681114551</v>
       </c>
       <c r="J303" t="n">
         <v>0.2693498452012384</v>
       </c>
       <c r="K303" t="n">
+        <v>0.2043343653250774</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.2693498452012384</v>
+      </c>
+      <c r="M303" t="n">
         <v>0.1702786377708979</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0.3377049180327869</v>
       </c>
     </row>
     <row r="304">
@@ -13510,13 +16209,22 @@
         <v>0.2213622291021672</v>
       </c>
       <c r="I304" t="n">
-        <v>0.2136222910216702</v>
+        <v>0.2260061919504644</v>
       </c>
       <c r="J304" t="n">
+        <v>0.2043343653250774</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.2136222910216719</v>
+      </c>
+      <c r="L304" t="n">
         <v>0.4705882352941177</v>
       </c>
-      <c r="K304" t="n">
+      <c r="M304" t="n">
         <v>0.2136222910216718</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0.7311475409836066</v>
       </c>
     </row>
     <row r="305">
@@ -13553,13 +16261,22 @@
         <v>0.3869969040247678</v>
       </c>
       <c r="I305" t="n">
-        <v>0.4241486068111455</v>
+        <v>0.390092879256966</v>
       </c>
       <c r="J305" t="n">
+        <v>0.4009287925696595</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.4210526315789474</v>
+      </c>
+      <c r="L305" t="n">
         <v>0.6563467492260062</v>
       </c>
-      <c r="K305" t="n">
+      <c r="M305" t="n">
         <v>0.5170278637770899</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0.180327868852459</v>
       </c>
     </row>
     <row r="306">
@@ -13596,13 +16313,22 @@
         <v>0.3560371517027864</v>
       </c>
       <c r="I306" t="n">
-        <v>0.4086687306501548</v>
+        <v>0.3622291021671827</v>
       </c>
       <c r="J306" t="n">
+        <v>0.3808049535603715</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.4055727554179567</v>
+      </c>
+      <c r="L306" t="n">
         <v>0.7863777089783283</v>
       </c>
-      <c r="K306" t="n">
+      <c r="M306" t="n">
         <v>0.5201238390092879</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0.7819672131147541</v>
       </c>
     </row>
     <row r="307">
@@ -13639,13 +16365,22 @@
         <v>0.3095975232198143</v>
       </c>
       <c r="I307" t="n">
-        <v>0.3281733746130031</v>
+        <v>0.3095975232198143</v>
       </c>
       <c r="J307" t="n">
+        <v>0.3095975232198143</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.3343653250773985</v>
+      </c>
+      <c r="L307" t="n">
         <v>0.4179566563467493</v>
       </c>
-      <c r="K307" t="n">
+      <c r="M307" t="n">
         <v>0.3839009287925697</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0.4655737704918033</v>
       </c>
     </row>
     <row r="308">
@@ -13682,14 +16417,21 @@
         <v>0.823529411764706</v>
       </c>
       <c r="I308" t="n">
-        <v>0.7678018575851394</v>
+        <v>0.8142414860681115</v>
       </c>
       <c r="J308" t="n">
+        <v>0.8328173374612956</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.7925696594427245</v>
+      </c>
+      <c r="L308" t="n">
         <v>0.07739938080495357</v>
       </c>
-      <c r="K308" t="n">
+      <c r="M308" t="n">
         <v>0.5820433436532508</v>
       </c>
+      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -13725,13 +16467,22 @@
         <v>0.7616099071207431</v>
       </c>
       <c r="I309" t="n">
-        <v>0.7306501547987616</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="J309" t="n">
+        <v>0.7801857585139319</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.7492260061919499</v>
+      </c>
+      <c r="L309" t="n">
         <v>0.195046439628483</v>
       </c>
-      <c r="K309" t="n">
+      <c r="M309" t="n">
         <v>0.6625386996904025</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0.03278688524590164</v>
       </c>
     </row>
     <row r="310">
@@ -13768,13 +16519,22 @@
         <v>0.6934984520123839</v>
       </c>
       <c r="I310" t="n">
-        <v>0.653250773993808</v>
+        <v>0.6904024767801858</v>
       </c>
       <c r="J310" t="n">
+        <v>0.687306501547987</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.6718266253869969</v>
+      </c>
+      <c r="L310" t="n">
         <v>0.1393188854489164</v>
       </c>
-      <c r="K310" t="n">
+      <c r="M310" t="n">
         <v>0.5944272445820433</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0.4262295081967213</v>
       </c>
     </row>
     <row r="311">
@@ -13811,13 +16571,22 @@
         <v>0.6408668730650156</v>
       </c>
       <c r="I311" t="n">
-        <v>0.5201238390092879</v>
+        <v>0.6439628482972136</v>
       </c>
       <c r="J311" t="n">
+        <v>0.6656346749226006</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.5232198142414861</v>
+      </c>
+      <c r="L311" t="n">
         <v>0.21671826625387</v>
       </c>
-      <c r="K311" t="n">
+      <c r="M311" t="n">
         <v>0.4798761609907121</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0.1622950819672131</v>
       </c>
     </row>
     <row r="312">
@@ -13854,13 +16623,22 @@
         <v>0.8204334365325078</v>
       </c>
       <c r="I312" t="n">
-        <v>0.7956656346749227</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="J312" t="n">
+        <v>0.8204334365325078</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.8142414860681115</v>
+      </c>
+      <c r="L312" t="n">
         <v>0.1145510835913313</v>
       </c>
-      <c r="K312" t="n">
+      <c r="M312" t="n">
         <v>0.650154798761609</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0.08360655737704917</v>
       </c>
     </row>
     <row r="313">
@@ -13897,13 +16675,22 @@
         <v>0.7678018575851394</v>
       </c>
       <c r="I313" t="n">
-        <v>0.7120743034055728</v>
+        <v>0.7770897832817338</v>
       </c>
       <c r="J313" t="n">
+        <v>0.7770897832817333</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.7306501547987616</v>
+      </c>
+      <c r="L313" t="n">
         <v>0.108359133126935</v>
       </c>
-      <c r="K313" t="n">
+      <c r="M313" t="n">
         <v>0.5727554179566563</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0.1901639344262295</v>
       </c>
     </row>
     <row r="314">
@@ -13940,13 +16727,22 @@
         <v>0.5015479876160991</v>
       </c>
       <c r="I314" t="n">
-        <v>0.4643962848297214</v>
+        <v>0.498452012383901</v>
       </c>
       <c r="J314" t="n">
+        <v>0.5232198142414861</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.4891640866873065</v>
+      </c>
+      <c r="L314" t="n">
         <v>0.1547987616099071</v>
       </c>
-      <c r="K314" t="n">
+      <c r="M314" t="n">
         <v>0.4396284829721362</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0.239344262295082</v>
       </c>
     </row>
     <row r="315">
@@ -13983,13 +16779,22 @@
         <v>0.8452012383900925</v>
       </c>
       <c r="I315" t="n">
+        <v>0.8452012383900924</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.8730650154798756</v>
+      </c>
+      <c r="K315" t="n">
         <v>0.8421052631578948</v>
       </c>
-      <c r="J315" t="n">
+      <c r="L315" t="n">
         <v>0.1888544891640863</v>
       </c>
-      <c r="K315" t="n">
+      <c r="M315" t="n">
         <v>0.8297213622291022</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0.06229508196721312</v>
       </c>
     </row>
     <row r="316">
@@ -14026,13 +16831,22 @@
         <v>0.628482972136223</v>
       </c>
       <c r="I316" t="n">
-        <v>0.5541795665634669</v>
+        <v>0.6346749226006192</v>
       </c>
       <c r="J316" t="n">
+        <v>0.6068111455108359</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.5634674922600614</v>
+      </c>
+      <c r="L316" t="n">
         <v>0.1331269349845201</v>
       </c>
-      <c r="K316" t="n">
+      <c r="M316" t="n">
         <v>0.5139318885448917</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0.6524590163934426</v>
       </c>
     </row>
     <row r="317">
@@ -14069,13 +16883,22 @@
         <v>0.4055727554179567</v>
       </c>
       <c r="I317" t="n">
-        <v>0.3622291021671827</v>
+        <v>0.4055727554179567</v>
       </c>
       <c r="J317" t="n">
+        <v>0.4241486068111455</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.3777089783281734</v>
+      </c>
+      <c r="L317" t="n">
         <v>0.1114551083591331</v>
       </c>
-      <c r="K317" t="n">
+      <c r="M317" t="n">
         <v>0.2631578947368421</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0.5540983606557377</v>
       </c>
     </row>
     <row r="318">
@@ -14112,13 +16935,22 @@
         <v>0.7089783281733747</v>
       </c>
       <c r="I318" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7151702786377709</v>
       </c>
       <c r="J318" t="n">
+        <v>0.7213622291021672</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.6687306501547988</v>
+      </c>
+      <c r="L318" t="n">
         <v>0.1578947368421052</v>
       </c>
-      <c r="K318" t="n">
+      <c r="M318" t="n">
         <v>0.541795665634675</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0.3770491803278688</v>
       </c>
     </row>
     <row r="319">
@@ -14155,13 +16987,22 @@
         <v>0.7832817337461307</v>
       </c>
       <c r="I319" t="n">
-        <v>0.7832817337461302</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="J319" t="n">
+        <v>0.7956656346749227</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.8018575851393189</v>
+      </c>
+      <c r="L319" t="n">
         <v>0.1362229102167183</v>
       </c>
-      <c r="K319" t="n">
+      <c r="M319" t="n">
         <v>0.6811145510835914</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="320">
@@ -14198,13 +17039,22 @@
         <v>0.8018575851393189</v>
       </c>
       <c r="I320" t="n">
-        <v>0.7708978328173375</v>
+        <v>0.7987616099071208</v>
       </c>
       <c r="J320" t="n">
+        <v>0.8142414860681115</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.7863777089783281</v>
+      </c>
+      <c r="L320" t="n">
         <v>0.2724458204334365</v>
       </c>
-      <c r="K320" t="n">
+      <c r="M320" t="n">
         <v>0.6934984520123839</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0.8295081967213115</v>
       </c>
     </row>
     <row r="321">
@@ -14241,13 +17091,22 @@
         <v>0.541795665634675</v>
       </c>
       <c r="I321" t="n">
-        <v>0.5108359133126935</v>
+        <v>0.5448916408668731</v>
       </c>
       <c r="J321" t="n">
+        <v>0.5386996904024768</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.5386996904024768</v>
+      </c>
+      <c r="L321" t="n">
         <v>0.1207430340557276</v>
       </c>
-      <c r="K321" t="n">
+      <c r="M321" t="n">
         <v>0.4334365325077399</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0.6819672131147541</v>
       </c>
     </row>
     <row r="322">
@@ -14284,13 +17143,22 @@
         <v>0.6749226006191951</v>
       </c>
       <c r="I322" t="n">
-        <v>0.6377708978328174</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="J322" t="n">
+        <v>0.6006191950464391</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.6408668730650156</v>
+      </c>
+      <c r="L322" t="n">
         <v>0.1424148606811146</v>
       </c>
-      <c r="K322" t="n">
+      <c r="M322" t="n">
         <v>0.6346749226006192</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="323">
@@ -14327,13 +17195,22 @@
         <v>0.4427244582043344</v>
       </c>
       <c r="I323" t="n">
-        <v>0.3777089783281733</v>
+        <v>0.4380804953560372</v>
       </c>
       <c r="J323" t="n">
+        <v>0.4055727554179567</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.3839009287925697</v>
+      </c>
+      <c r="L323" t="n">
         <v>0.1269349845201238</v>
       </c>
-      <c r="K323" t="n">
+      <c r="M323" t="n">
         <v>0.2910216718266254</v>
+      </c>
+      <c r="N323" t="n">
+        <v>0.4459016393442623</v>
       </c>
     </row>
     <row r="324">
@@ -14370,13 +17247,22 @@
         <v>0.5944272445820433</v>
       </c>
       <c r="I324" t="n">
-        <v>0.5448916408668731</v>
+        <v>0.5944272445820433</v>
       </c>
       <c r="J324" t="n">
+        <v>0.6099071207430341</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.5572755417956656</v>
+      </c>
+      <c r="L324" t="n">
         <v>0.1671826625386997</v>
       </c>
-      <c r="K324" t="n">
+      <c r="M324" t="n">
         <v>0.4829721362229102</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0.8491803278688524</v>
       </c>
     </row>
     <row r="325">
@@ -14413,13 +17299,22 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="I325" t="n">
-        <v>0.6222910216718265</v>
+        <v>0.6470588235294121</v>
       </c>
       <c r="J325" t="n">
+        <v>0.6037151702786379</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.628482972136223</v>
+      </c>
+      <c r="L325" t="n">
         <v>0.238390092879257</v>
       </c>
-      <c r="K325" t="n">
+      <c r="M325" t="n">
         <v>0.6253869969040248</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0.4754098360655737</v>
       </c>
     </row>
   </sheetData>

--- a/Analyzer Results/RESULTS_MTT_MERGED_FIT.xlsx
+++ b/Analyzer Results/RESULTS_MTT_MERGED_FIT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N325"/>
+  <dimension ref="A1:M325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,11 +499,6 @@
           <t>AUC</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -553,7 +548,6 @@
       <c r="M2" t="n">
         <v>0.08668730650154799</v>
       </c>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,9 +597,6 @@
       <c r="M3" t="n">
         <v>0.04334365325077399</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.1409836065573771</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -655,9 +646,6 @@
       <c r="M4" t="n">
         <v>0.003095975232198143</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -707,9 +695,6 @@
       <c r="M5" t="n">
         <v>0.1455108359133127</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.05245901639344262</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -759,9 +744,6 @@
       <c r="M6" t="n">
         <v>0.01238390092879257</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.1114754098360656</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -811,9 +793,6 @@
       <c r="M7" t="n">
         <v>0.05263157894736843</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.04426229508196721</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,9 +842,6 @@
       <c r="M8" t="n">
         <v>0.09597523219814243</v>
       </c>
-      <c r="N8" t="n">
-        <v>0.01475409836065574</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -915,9 +891,6 @@
       <c r="M9" t="n">
         <v>0.06501547987616099</v>
       </c>
-      <c r="N9" t="n">
-        <v>0.02459016393442623</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -967,9 +940,6 @@
       <c r="M10" t="n">
         <v>0.02476780185758514</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.2885245901639344</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1019,9 +989,6 @@
       <c r="M11" t="n">
         <v>0.009287925696594427</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,9 +1038,6 @@
       <c r="M12" t="n">
         <v>0.006191950464396285</v>
       </c>
-      <c r="N12" t="n">
-        <v>0.8885245901639345</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1123,9 +1087,6 @@
       <c r="M13" t="n">
         <v>0.03715170278637771</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.5737704918032787</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1175,9 +1136,6 @@
       <c r="M14" t="n">
         <v>0.01547987616099071</v>
       </c>
-      <c r="N14" t="n">
-        <v>0.957377049180328</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1227,9 +1185,6 @@
       <c r="M15" t="n">
         <v>0.02786377708978328</v>
       </c>
-      <c r="N15" t="n">
-        <v>0.9377049180327869</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,9 +1234,6 @@
       <c r="M16" t="n">
         <v>0.021671826625387</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.839344262295082</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1331,9 +1283,6 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0.9475409836065574</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1383,9 +1332,6 @@
       <c r="M18" t="n">
         <v>0.01857585139318885</v>
       </c>
-      <c r="N18" t="n">
-        <v>0.8786885245901639</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1435,9 +1381,6 @@
       <c r="M19" t="n">
         <v>0.04643962848297214</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.1508196721311476</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1487,7 +1430,6 @@
       <c r="M20" t="n">
         <v>0.8730650154798746</v>
       </c>
-      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1537,9 +1479,6 @@
       <c r="M21" t="n">
         <v>0.6996904024767803</v>
       </c>
-      <c r="N21" t="n">
-        <v>0.3180327868852459</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1589,9 +1528,6 @@
       <c r="M22" t="n">
         <v>0.5479876160990712</v>
       </c>
-      <c r="N22" t="n">
-        <v>0.9770491803278689</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1641,9 +1577,6 @@
       <c r="M23" t="n">
         <v>0.7987616099071208</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1693,9 +1626,6 @@
       <c r="M24" t="n">
         <v>0.8544891640866874</v>
       </c>
-      <c r="N24" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1745,9 +1675,6 @@
       <c r="M25" t="n">
         <v>0.8390092879256966</v>
       </c>
-      <c r="N25" t="n">
-        <v>0.4049180327868852</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1797,9 +1724,6 @@
       <c r="M26" t="n">
         <v>0.7337461300309598</v>
       </c>
-      <c r="N26" t="n">
-        <v>0.6131147540983606</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1849,9 +1773,6 @@
       <c r="M27" t="n">
         <v>0.6625386996904008</v>
       </c>
-      <c r="N27" t="n">
-        <v>0.4557377049180328</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1901,9 +1822,6 @@
       <c r="M28" t="n">
         <v>0.7492260061919505</v>
       </c>
-      <c r="N28" t="n">
-        <v>0.7442622950819672</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1953,9 +1871,6 @@
       <c r="M29" t="n">
         <v>0.7244582043343654</v>
       </c>
-      <c r="N29" t="n">
-        <v>0.5836065573770493</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2005,9 +1920,6 @@
       <c r="M30" t="n">
         <v>0.6160990712074303</v>
       </c>
-      <c r="N30" t="n">
-        <v>0.819672131147541</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2057,9 +1969,6 @@
       <c r="M31" t="n">
         <v>0.739938080495356</v>
       </c>
-      <c r="N31" t="n">
-        <v>0.6721311475409837</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2109,9 +2018,6 @@
       <c r="M32" t="n">
         <v>0.7213622291021672</v>
       </c>
-      <c r="N32" t="n">
-        <v>0.7081967213114755</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2161,9 +2067,6 @@
       <c r="M33" t="n">
         <v>0.8018575851393189</v>
       </c>
-      <c r="N33" t="n">
-        <v>0.4852459016393442</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2213,9 +2116,6 @@
       <c r="M34" t="n">
         <v>0.7461300309597507</v>
       </c>
-      <c r="N34" t="n">
-        <v>0.5147540983606558</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2265,9 +2165,6 @@
       <c r="M35" t="n">
         <v>0.6130030959752323</v>
       </c>
-      <c r="N35" t="n">
-        <v>0.721311475409836</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2317,9 +2214,6 @@
       <c r="M36" t="n">
         <v>0.8080495356037152</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.7081967213114755</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2369,9 +2263,6 @@
       <c r="M37" t="n">
         <v>0.6222910216718258</v>
       </c>
-      <c r="N37" t="n">
-        <v>0.5245901639344261</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2421,7 +2312,6 @@
       <c r="M38" t="n">
         <v>0.5015479876160991</v>
       </c>
-      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2471,9 +2361,6 @@
       <c r="M39" t="n">
         <v>0.5727554179566541</v>
       </c>
-      <c r="N39" t="n">
-        <v>0.1311475409836065</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2523,9 +2410,6 @@
       <c r="M40" t="n">
         <v>0.07739938080495357</v>
       </c>
-      <c r="N40" t="n">
-        <v>0.9852459016393442</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2575,9 +2459,6 @@
       <c r="M41" t="n">
         <v>0.5046439628482967</v>
       </c>
-      <c r="N41" t="n">
-        <v>0.09180327868852459</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2627,9 +2508,6 @@
       <c r="M42" t="n">
         <v>0.4520123839009287</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.1016393442622951</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2679,9 +2557,6 @@
       <c r="M43" t="n">
         <v>0.2260061919504644</v>
       </c>
-      <c r="N43" t="n">
-        <v>0.5622950819672131</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2731,9 +2606,6 @@
       <c r="M44" t="n">
         <v>0.2724458204334356</v>
       </c>
-      <c r="N44" t="n">
-        <v>0.5442622950819672</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2783,9 +2655,6 @@
       <c r="M45" t="n">
         <v>0.4396284829721362</v>
       </c>
-      <c r="N45" t="n">
-        <v>0.2180327868852459</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2835,9 +2704,6 @@
       <c r="M46" t="n">
         <v>0.3962848297213623</v>
       </c>
-      <c r="N46" t="n">
-        <v>0.639344262295082</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2887,9 +2753,6 @@
       <c r="M47" t="n">
         <v>0.4334365325077399</v>
       </c>
-      <c r="N47" t="n">
-        <v>0.2295081967213115</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2939,9 +2802,6 @@
       <c r="M48" t="n">
         <v>0.2445820433436533</v>
       </c>
-      <c r="N48" t="n">
-        <v>0.6934426229508197</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2991,9 +2851,6 @@
       <c r="M49" t="n">
         <v>0.1702786377708979</v>
       </c>
-      <c r="N49" t="n">
-        <v>0.4360655737704918</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3043,9 +2900,6 @@
       <c r="M50" t="n">
         <v>0.4272445820433437</v>
       </c>
-      <c r="N50" t="n">
-        <v>0.660655737704918</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3095,9 +2949,6 @@
       <c r="M51" t="n">
         <v>0.3839009287925694</v>
       </c>
-      <c r="N51" t="n">
-        <v>0.6229508196721312</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3147,9 +2998,6 @@
       <c r="M52" t="n">
         <v>0.3653250773993808</v>
       </c>
-      <c r="N52" t="n">
-        <v>0.9278688524590164</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3199,9 +3047,6 @@
       <c r="M53" t="n">
         <v>0.2321981424148607</v>
       </c>
-      <c r="N53" t="n">
-        <v>0.3967213114754098</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3251,9 +3096,6 @@
       <c r="M54" t="n">
         <v>0.2755417956656347</v>
       </c>
-      <c r="N54" t="n">
-        <v>0.3639344262295082</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3303,9 +3145,6 @@
       <c r="M55" t="n">
         <v>0.1671826625386997</v>
       </c>
-      <c r="N55" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3355,7 +3194,6 @@
       <c r="M56" t="n">
         <v>0.2941176470588235</v>
       </c>
-      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3405,9 +3243,6 @@
       <c r="M57" t="n">
         <v>0.2786377708978328</v>
       </c>
-      <c r="N57" t="n">
-        <v>0.2475409836065574</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3457,9 +3292,6 @@
       <c r="M58" t="n">
         <v>0.03405572755417957</v>
       </c>
-      <c r="N58" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3509,9 +3341,6 @@
       <c r="M59" t="n">
         <v>0.1362229102167183</v>
       </c>
-      <c r="N59" t="n">
-        <v>0.2967213114754098</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3561,9 +3390,6 @@
       <c r="M60" t="n">
         <v>0.1486068111455108</v>
       </c>
-      <c r="N60" t="n">
-        <v>0.2786885245901639</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3613,9 +3439,6 @@
       <c r="M61" t="n">
         <v>0.2352941176470588</v>
       </c>
-      <c r="N61" t="n">
-        <v>0.5360655737704918</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3665,9 +3488,6 @@
       <c r="M62" t="n">
         <v>0.1795665634674923</v>
       </c>
-      <c r="N62" t="n">
-        <v>0.2098360655737705</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3717,9 +3537,6 @@
       <c r="M63" t="n">
         <v>0.1269349845201238</v>
       </c>
-      <c r="N63" t="n">
-        <v>0.3885245901639344</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3769,9 +3586,6 @@
       <c r="M64" t="n">
         <v>0.1547987616099071</v>
       </c>
-      <c r="N64" t="n">
-        <v>0.7885245901639344</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3821,9 +3635,6 @@
       <c r="M65" t="n">
         <v>0.1919504643962849</v>
       </c>
-      <c r="N65" t="n">
-        <v>0.8983606557377048</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3873,9 +3684,6 @@
       <c r="M66" t="n">
         <v>0.1331269349845201</v>
       </c>
-      <c r="N66" t="n">
-        <v>0.8081967213114754</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3925,9 +3733,6 @@
       <c r="M67" t="n">
         <v>0.08359133126934985</v>
       </c>
-      <c r="N67" t="n">
-        <v>0.7508196721311475</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3977,9 +3782,6 @@
       <c r="M68" t="n">
         <v>0.1052631578947369</v>
       </c>
-      <c r="N68" t="n">
-        <v>0.760655737704918</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4029,9 +3831,6 @@
       <c r="M69" t="n">
         <v>0.0804953560371517</v>
       </c>
-      <c r="N69" t="n">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4081,9 +3880,6 @@
       <c r="M70" t="n">
         <v>0.08978328173374614</v>
       </c>
-      <c r="N70" t="n">
-        <v>0.5934426229508196</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4133,9 +3929,6 @@
       <c r="M71" t="n">
         <v>0.04953560371517028</v>
       </c>
-      <c r="N71" t="n">
-        <v>0.8672131147540983</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4185,9 +3978,6 @@
       <c r="M72" t="n">
         <v>0.2569659442724458</v>
       </c>
-      <c r="N72" t="n">
-        <v>0.3278688524590164</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4237,9 +4027,6 @@
       <c r="M73" t="n">
         <v>0.1114551083591331</v>
       </c>
-      <c r="N73" t="n">
-        <v>0.639344262295082</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4289,7 +4076,6 @@
       <c r="M74" t="n">
         <v>0.3560371517027864</v>
       </c>
-      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4339,9 +4125,6 @@
       <c r="M75" t="n">
         <v>0.173374613003096</v>
       </c>
-      <c r="N75" t="n">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4391,9 +4174,6 @@
       <c r="M76" t="n">
         <v>0.04024767801857585</v>
       </c>
-      <c r="N76" t="n">
-        <v>0.9672131147540983</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4443,9 +4223,6 @@
       <c r="M77" t="n">
         <v>0.3715170278637771</v>
       </c>
-      <c r="N77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4495,9 +4272,6 @@
       <c r="M78" t="n">
         <v>0.1981424148606811</v>
       </c>
-      <c r="N78" t="n">
-        <v>0.8590163934426229</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4547,9 +4321,6 @@
       <c r="M79" t="n">
         <v>0.2848297213622291</v>
       </c>
-      <c r="N79" t="n">
-        <v>0.119672131147541</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4599,9 +4370,6 @@
       <c r="M80" t="n">
         <v>0.3312693498452011</v>
       </c>
-      <c r="N80" t="n">
-        <v>0.1704918032786885</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4651,9 +4419,6 @@
       <c r="M81" t="n">
         <v>0.2507739938080495</v>
       </c>
-      <c r="N81" t="n">
-        <v>0.07049180327868854</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4703,9 +4468,6 @@
       <c r="M82" t="n">
         <v>0.2879256965944272</v>
       </c>
-      <c r="N82" t="n">
-        <v>0.360655737704918</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4755,9 +4517,6 @@
       <c r="M83" t="n">
         <v>0.130030959752322</v>
       </c>
-      <c r="N83" t="n">
-        <v>0.3475409836065574</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4807,9 +4566,6 @@
       <c r="M84" t="n">
         <v>0.1145510835913313</v>
       </c>
-      <c r="N84" t="n">
-        <v>0.7704918032786885</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4859,9 +4615,6 @@
       <c r="M85" t="n">
         <v>0.07430340557275542</v>
       </c>
-      <c r="N85" t="n">
-        <v>0.4163934426229509</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -4911,9 +4664,6 @@
       <c r="M86" t="n">
         <v>0.07120743034055728</v>
       </c>
-      <c r="N86" t="n">
-        <v>0.3081967213114754</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4963,9 +4713,6 @@
       <c r="M87" t="n">
         <v>0.1578947368421052</v>
       </c>
-      <c r="N87" t="n">
-        <v>0.3377049180327869</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5015,9 +4762,6 @@
       <c r="M88" t="n">
         <v>0.1021671826625386</v>
       </c>
-      <c r="N88" t="n">
-        <v>0.7311475409836066</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5067,9 +4811,6 @@
       <c r="M89" t="n">
         <v>0.3065015479876161</v>
       </c>
-      <c r="N89" t="n">
-        <v>0.180327868852459</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5119,9 +4860,6 @@
       <c r="M90" t="n">
         <v>0.108359133126935</v>
       </c>
-      <c r="N90" t="n">
-        <v>0.7819672131147541</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5171,9 +4909,6 @@
       <c r="M91" t="n">
         <v>0.1207430340557276</v>
       </c>
-      <c r="N91" t="n">
-        <v>0.4655737704918033</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5223,7 +4958,6 @@
       <c r="M92" t="n">
         <v>0.7956656346749227</v>
       </c>
-      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5273,9 +5007,6 @@
       <c r="M93" t="n">
         <v>0.9009287925692866</v>
       </c>
-      <c r="N93" t="n">
-        <v>0.03278688524590164</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5325,9 +5056,6 @@
       <c r="M94" t="n">
         <v>0.6594427244582044</v>
       </c>
-      <c r="N94" t="n">
-        <v>0.4262295081967213</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5377,9 +5105,6 @@
       <c r="M95" t="n">
         <v>0.8173374613003094</v>
       </c>
-      <c r="N95" t="n">
-        <v>0.1622950819672131</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5429,9 +5154,6 @@
       <c r="M96" t="n">
         <v>0.758513931888545</v>
       </c>
-      <c r="N96" t="n">
-        <v>0.08196721311475409</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5481,9 +5203,6 @@
       <c r="M97" t="n">
         <v>0.653250773993808</v>
       </c>
-      <c r="N97" t="n">
-        <v>0.1901639344262295</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5533,9 +5252,6 @@
       <c r="M98" t="n">
         <v>0.8328173374613003</v>
       </c>
-      <c r="N98" t="n">
-        <v>0.239344262295082</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5585,9 +5301,6 @@
       <c r="M99" t="n">
         <v>0.8142414860681115</v>
       </c>
-      <c r="N99" t="n">
-        <v>0.06229508196721312</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5637,9 +5350,6 @@
       <c r="M100" t="n">
         <v>0.195046439628483</v>
       </c>
-      <c r="N100" t="n">
-        <v>0.6524590163934426</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5689,9 +5399,6 @@
       <c r="M101" t="n">
         <v>0.718266253869969</v>
       </c>
-      <c r="N101" t="n">
-        <v>0.5540983606557377</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5741,9 +5448,6 @@
       <c r="M102" t="n">
         <v>0.541795665634675</v>
       </c>
-      <c r="N102" t="n">
-        <v>0.3770491803278688</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -5793,9 +5497,6 @@
       <c r="M103" t="n">
         <v>0.3126934984520124</v>
       </c>
-      <c r="N103" t="n">
-        <v>0.6032786885245902</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -5845,9 +5546,6 @@
       <c r="M104" t="n">
         <v>0.4674922600619195</v>
       </c>
-      <c r="N104" t="n">
-        <v>0.8295081967213115</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -5897,9 +5595,6 @@
       <c r="M105" t="n">
         <v>0.7058823529411762</v>
       </c>
-      <c r="N105" t="n">
-        <v>0.6819672131147541</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -5949,9 +5644,6 @@
       <c r="M106" t="n">
         <v>0.848297213622291</v>
       </c>
-      <c r="N106" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6001,9 +5693,6 @@
       <c r="M107" t="n">
         <v>0.8421052631578948</v>
       </c>
-      <c r="N107" t="n">
-        <v>0.4459016393442623</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6053,9 +5742,6 @@
       <c r="M108" t="n">
         <v>0.1393188854489164</v>
       </c>
-      <c r="N108" t="n">
-        <v>0.8491803278688524</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6105,9 +5791,6 @@
       <c r="M109" t="n">
         <v>0.5572755417956656</v>
       </c>
-      <c r="N109" t="n">
-        <v>0.4754098360655737</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -6157,7 +5840,6 @@
       <c r="M110" t="n">
         <v>0.4953560371517028</v>
       </c>
-      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -6207,9 +5889,6 @@
       <c r="M111" t="n">
         <v>0.2693498452012384</v>
       </c>
-      <c r="N111" t="n">
-        <v>0.1409836065573771</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -6259,9 +5938,6 @@
       <c r="M112" t="n">
         <v>0.1176470588235294</v>
       </c>
-      <c r="N112" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -6311,9 +5987,6 @@
       <c r="M113" t="n">
         <v>0.5696594427244582</v>
       </c>
-      <c r="N113" t="n">
-        <v>0.05245901639344262</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -6363,9 +6036,6 @@
       <c r="M114" t="n">
         <v>0.4582043343653251</v>
       </c>
-      <c r="N114" t="n">
-        <v>0.1114754098360656</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -6415,9 +6085,6 @@
       <c r="M115" t="n">
         <v>0.4705882352941177</v>
       </c>
-      <c r="N115" t="n">
-        <v>0.04426229508196721</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -6467,9 +6134,6 @@
       <c r="M116" t="n">
         <v>0.498452012383901</v>
       </c>
-      <c r="N116" t="n">
-        <v>0.01475409836065574</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -6519,9 +6183,6 @@
       <c r="M117" t="n">
         <v>0.455108359133127</v>
       </c>
-      <c r="N117" t="n">
-        <v>0.02459016393442623</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -6571,9 +6232,6 @@
       <c r="M118" t="n">
         <v>0.3993808049535604</v>
       </c>
-      <c r="N118" t="n">
-        <v>0.2885245901639344</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -6623,9 +6281,6 @@
       <c r="M119" t="n">
         <v>0.3405572755417957</v>
       </c>
-      <c r="N119" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -6675,9 +6330,6 @@
       <c r="M120" t="n">
         <v>0.3188854489164087</v>
       </c>
-      <c r="N120" t="n">
-        <v>0.8885245901639345</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -6727,9 +6379,6 @@
       <c r="M121" t="n">
         <v>0.3436532507739938</v>
       </c>
-      <c r="N121" t="n">
-        <v>0.5737704918032787</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -6779,9 +6428,6 @@
       <c r="M122" t="n">
         <v>0.303405572755418</v>
       </c>
-      <c r="N122" t="n">
-        <v>0.957377049180328</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -6831,9 +6477,6 @@
       <c r="M123" t="n">
         <v>0.2662538699690403</v>
       </c>
-      <c r="N123" t="n">
-        <v>0.9377049180327869</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -6883,9 +6526,6 @@
       <c r="M124" t="n">
         <v>0.2074303405572755</v>
       </c>
-      <c r="N124" t="n">
-        <v>0.839344262295082</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -6935,9 +6575,6 @@
       <c r="M125" t="n">
         <v>0.325077399380805</v>
       </c>
-      <c r="N125" t="n">
-        <v>0.9475409836065574</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -6987,9 +6624,6 @@
       <c r="M126" t="n">
         <v>0.2043343653250771</v>
       </c>
-      <c r="N126" t="n">
-        <v>0.8786885245901639</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -7039,9 +6673,6 @@
       <c r="M127" t="n">
         <v>0.4086687306501548</v>
       </c>
-      <c r="N127" t="n">
-        <v>0.1508196721311476</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -7091,7 +6722,6 @@
       <c r="M128" t="n">
         <v>0.9195046439628473</v>
       </c>
-      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -7141,9 +6771,6 @@
       <c r="M129" t="n">
         <v>0.8204334365325078</v>
       </c>
-      <c r="N129" t="n">
-        <v>0.3180327868852459</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -7193,9 +6820,6 @@
       <c r="M130" t="n">
         <v>0.6037151702786379</v>
       </c>
-      <c r="N130" t="n">
-        <v>0.9770491803278689</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -7245,9 +6869,6 @@
       <c r="M131" t="n">
         <v>0.8761609907120743</v>
       </c>
-      <c r="N131" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -7297,9 +6918,6 @@
       <c r="M132" t="n">
         <v>0.6718266253869969</v>
       </c>
-      <c r="N132" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -7349,9 +6967,6 @@
       <c r="M133" t="n">
         <v>0.8792569659442725</v>
       </c>
-      <c r="N133" t="n">
-        <v>0.4098360655737705</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -7401,9 +7016,6 @@
       <c r="M134" t="n">
         <v>0.6934984520123839</v>
       </c>
-      <c r="N134" t="n">
-        <v>0.6131147540983606</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -7453,9 +7065,6 @@
       <c r="M135" t="n">
         <v>0.8575851393188855</v>
       </c>
-      <c r="N135" t="n">
-        <v>0.4557377049180328</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -7505,9 +7114,6 @@
       <c r="M136" t="n">
         <v>0.736842105263158</v>
       </c>
-      <c r="N136" t="n">
-        <v>0.739344262295082</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -7557,9 +7163,6 @@
       <c r="M137" t="n">
         <v>0.7275541795665635</v>
       </c>
-      <c r="N137" t="n">
-        <v>0.5836065573770493</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -7609,9 +7212,6 @@
       <c r="M138" t="n">
         <v>0.7770897832817337</v>
       </c>
-      <c r="N138" t="n">
-        <v>0.819672131147541</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -7661,9 +7261,6 @@
       <c r="M139" t="n">
         <v>0.7554179566563467</v>
       </c>
-      <c r="N139" t="n">
-        <v>0.6721311475409837</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -7713,9 +7310,6 @@
       <c r="M140" t="n">
         <v>0.7616099071207431</v>
       </c>
-      <c r="N140" t="n">
-        <v>0.7081967213114755</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -7765,9 +7359,6 @@
       <c r="M141" t="n">
         <v>0.8297213622291022</v>
       </c>
-      <c r="N141" t="n">
-        <v>0.4852459016393442</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -7817,9 +7408,6 @@
       <c r="M142" t="n">
         <v>0.7647058823529402</v>
       </c>
-      <c r="N142" t="n">
-        <v>0.5147540983606558</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -7869,9 +7457,6 @@
       <c r="M143" t="n">
         <v>0.8452012383900925</v>
       </c>
-      <c r="N143" t="n">
-        <v>0.721311475409836</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -7921,9 +7506,6 @@
       <c r="M144" t="n">
         <v>0.7739938080495352</v>
       </c>
-      <c r="N144" t="n">
-        <v>0.7081967213114755</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -7973,9 +7555,6 @@
       <c r="M145" t="n">
         <v>0.8513931888544892</v>
       </c>
-      <c r="N145" t="n">
-        <v>0.5245901639344261</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -8025,7 +7604,6 @@
       <c r="M146" t="n">
         <v>0.3281733746130031</v>
       </c>
-      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -8075,9 +7653,6 @@
       <c r="M147" t="n">
         <v>0.5665634674922601</v>
       </c>
-      <c r="N147" t="n">
-        <v>0.1311475409836065</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -8127,9 +7702,6 @@
       <c r="M148" t="n">
         <v>0.151702786377709</v>
       </c>
-      <c r="N148" t="n">
-        <v>0.9901639344262295</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -8179,9 +7751,6 @@
       <c r="M149" t="n">
         <v>0.4458204334365325</v>
       </c>
-      <c r="N149" t="n">
-        <v>0.09180327868852459</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -8231,9 +7800,6 @@
       <c r="M150" t="n">
         <v>0.4024767801857586</v>
       </c>
-      <c r="N150" t="n">
-        <v>0.1016393442622951</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -8283,9 +7849,6 @@
       <c r="M151" t="n">
         <v>0.1238390092879257</v>
       </c>
-      <c r="N151" t="n">
-        <v>0.5622950819672131</v>
-      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -8335,9 +7898,6 @@
       <c r="M152" t="n">
         <v>0.3219814241486068</v>
       </c>
-      <c r="N152" t="n">
-        <v>0.5442622950819672</v>
-      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -8387,9 +7947,6 @@
       <c r="M153" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="N153" t="n">
-        <v>0.2180327868852459</v>
-      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -8439,9 +7996,6 @@
       <c r="M154" t="n">
         <v>0.3003095975232198</v>
       </c>
-      <c r="N154" t="n">
-        <v>0.639344262295082</v>
-      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -8491,9 +8045,6 @@
       <c r="M155" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="N155" t="n">
-        <v>0.2295081967213115</v>
-      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -8543,9 +8094,6 @@
       <c r="M156" t="n">
         <v>0.5448916408668731</v>
       </c>
-      <c r="N156" t="n">
-        <v>0.6885245901639344</v>
-      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -8595,9 +8143,6 @@
       <c r="M157" t="n">
         <v>0.1826625386996904</v>
       </c>
-      <c r="N157" t="n">
-        <v>0.4360655737704918</v>
-      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -8647,9 +8192,6 @@
       <c r="M158" t="n">
         <v>0.1424148606811146</v>
       </c>
-      <c r="N158" t="n">
-        <v>0.660655737704918</v>
-      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -8699,9 +8241,6 @@
       <c r="M159" t="n">
         <v>0.238390092879257</v>
       </c>
-      <c r="N159" t="n">
-        <v>0.6229508196721312</v>
-      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -8751,9 +8290,6 @@
       <c r="M160" t="n">
         <v>0.3746130030959752</v>
       </c>
-      <c r="N160" t="n">
-        <v>0.9278688524590164</v>
-      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -8803,9 +8339,6 @@
       <c r="M161" t="n">
         <v>0.2136222910216719</v>
       </c>
-      <c r="N161" t="n">
-        <v>0.3967213114754098</v>
-      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -8855,9 +8388,6 @@
       <c r="M162" t="n">
         <v>0.4055727554179567</v>
       </c>
-      <c r="N162" t="n">
-        <v>0.3688524590163934</v>
-      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -8907,9 +8437,6 @@
       <c r="M163" t="n">
         <v>0.09287925696594428</v>
       </c>
-      <c r="N163" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -8959,7 +8486,6 @@
       <c r="M164" t="n">
         <v>0.8668730650154799</v>
       </c>
-      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -9009,9 +8535,6 @@
       <c r="M165" t="n">
         <v>0.8359133126934986</v>
       </c>
-      <c r="N165" t="n">
-        <v>0.2475409836065574</v>
-      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -9061,9 +8584,6 @@
       <c r="M166" t="n">
         <v>0.3095975232198143</v>
       </c>
-      <c r="N166" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -9113,9 +8633,6 @@
       <c r="M167" t="n">
         <v>0.823529411764706</v>
       </c>
-      <c r="N167" t="n">
-        <v>0.2967213114754098</v>
-      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -9165,9 +8682,6 @@
       <c r="M168" t="n">
         <v>0.7925696594427245</v>
       </c>
-      <c r="N168" t="n">
-        <v>0.2786885245901639</v>
-      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -9217,9 +8731,6 @@
       <c r="M169" t="n">
         <v>0.7120743034055728</v>
       </c>
-      <c r="N169" t="n">
-        <v>0.5360655737704918</v>
-      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -9269,9 +8780,6 @@
       <c r="M170" t="n">
         <v>0.8606811145510836</v>
       </c>
-      <c r="N170" t="n">
-        <v>0.2098360655737705</v>
-      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -9321,9 +8829,6 @@
       <c r="M171" t="n">
         <v>0.7523219814241486</v>
       </c>
-      <c r="N171" t="n">
-        <v>0.3885245901639344</v>
-      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -9373,9 +8878,6 @@
       <c r="M172" t="n">
         <v>0.6873065015479859</v>
       </c>
-      <c r="N172" t="n">
-        <v>0.7885245901639344</v>
-      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -9425,9 +8927,6 @@
       <c r="M173" t="n">
         <v>0.5944272445820433</v>
       </c>
-      <c r="N173" t="n">
-        <v>0.8983606557377048</v>
-      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -9477,9 +8976,6 @@
       <c r="M174" t="n">
         <v>0.5851393188854489</v>
       </c>
-      <c r="N174" t="n">
-        <v>0.8131147540983606</v>
-      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -9529,9 +9025,6 @@
       <c r="M175" t="n">
         <v>0.6811145510835914</v>
       </c>
-      <c r="N175" t="n">
-        <v>0.7508196721311475</v>
-      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -9581,9 +9074,6 @@
       <c r="M176" t="n">
         <v>0.6377708978328174</v>
       </c>
-      <c r="N176" t="n">
-        <v>0.7573770491803279</v>
-      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -9633,9 +9123,6 @@
       <c r="M177" t="n">
         <v>0.6904024767801857</v>
       </c>
-      <c r="N177" t="n">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -9685,9 +9172,6 @@
       <c r="M178" t="n">
         <v>0.7894736842105263</v>
       </c>
-      <c r="N178" t="n">
-        <v>0.5934426229508196</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -9737,9 +9221,6 @@
       <c r="M179" t="n">
         <v>0.7678018575851394</v>
       </c>
-      <c r="N179" t="n">
-        <v>0.8672131147540983</v>
-      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -9789,9 +9270,6 @@
       <c r="M180" t="n">
         <v>0.7151702786377709</v>
       </c>
-      <c r="N180" t="n">
-        <v>0.3278688524590164</v>
-      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -9841,9 +9319,6 @@
       <c r="M181" t="n">
         <v>0.7430340557275542</v>
       </c>
-      <c r="N181" t="n">
-        <v>0.639344262295082</v>
-      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -9893,7 +9368,6 @@
       <c r="M182" t="n">
         <v>0.6439628482972136</v>
       </c>
-      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -9943,9 +9417,6 @@
       <c r="M183" t="n">
         <v>0.6470588235294118</v>
       </c>
-      <c r="N183" t="n">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -9995,9 +9466,6 @@
       <c r="M184" t="n">
         <v>0.2476780185758514</v>
       </c>
-      <c r="N184" t="n">
-        <v>0.9672131147540983</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -10047,9 +9515,6 @@
       <c r="M185" t="n">
         <v>0.8854489164086687</v>
       </c>
-      <c r="N185" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -10099,9 +9564,6 @@
       <c r="M186" t="n">
         <v>0.6656346749226006</v>
       </c>
-      <c r="N186" t="n">
-        <v>0.8590163934426229</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -10151,9 +9613,6 @@
       <c r="M187" t="n">
         <v>0.8637770897832818</v>
       </c>
-      <c r="N187" t="n">
-        <v>0.119672131147541</v>
-      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -10203,9 +9662,6 @@
       <c r="M188" t="n">
         <v>0.8111455108359134</v>
       </c>
-      <c r="N188" t="n">
-        <v>0.1704918032786885</v>
-      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -10255,9 +9711,6 @@
       <c r="M189" t="n">
         <v>0.8947368421052632</v>
       </c>
-      <c r="N189" t="n">
-        <v>0.07049180327868854</v>
-      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -10307,9 +9760,6 @@
       <c r="M190" t="n">
         <v>0.6315789473684209</v>
       </c>
-      <c r="N190" t="n">
-        <v>0.3557377049180328</v>
-      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -10359,9 +9809,6 @@
       <c r="M191" t="n">
         <v>0.7832817337461301</v>
       </c>
-      <c r="N191" t="n">
-        <v>0.3475409836065574</v>
-      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -10411,9 +9858,6 @@
       <c r="M192" t="n">
         <v>0.7306501547987616</v>
       </c>
-      <c r="N192" t="n">
-        <v>0.7704918032786885</v>
-      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -10463,9 +9907,6 @@
       <c r="M193" t="n">
         <v>0.6965944272445816</v>
       </c>
-      <c r="N193" t="n">
-        <v>0.4163934426229509</v>
-      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -10515,9 +9956,6 @@
       <c r="M194" t="n">
         <v>0.7708978328173375</v>
       </c>
-      <c r="N194" t="n">
-        <v>0.3081967213114754</v>
-      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -10567,9 +10005,6 @@
       <c r="M195" t="n">
         <v>0.8699690402476781</v>
       </c>
-      <c r="N195" t="n">
-        <v>0.3377049180327869</v>
-      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -10619,9 +10054,6 @@
       <c r="M196" t="n">
         <v>0.8049535603715171</v>
       </c>
-      <c r="N196" t="n">
-        <v>0.7311475409836066</v>
-      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -10671,9 +10103,6 @@
       <c r="M197" t="n">
         <v>0.7863777089783283</v>
       </c>
-      <c r="N197" t="n">
-        <v>0.180327868852459</v>
-      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -10723,9 +10152,6 @@
       <c r="M198" t="n">
         <v>0.6408668730650156</v>
       </c>
-      <c r="N198" t="n">
-        <v>0.7819672131147541</v>
-      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -10775,9 +10201,6 @@
       <c r="M199" t="n">
         <v>0.7801857585139319</v>
       </c>
-      <c r="N199" t="n">
-        <v>0.4655737704918033</v>
-      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -10827,7 +10250,6 @@
       <c r="M200" t="n">
         <v>0.9164086687306502</v>
       </c>
-      <c r="N200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -10877,9 +10299,6 @@
       <c r="M201" t="n">
         <v>1</v>
       </c>
-      <c r="N201" t="n">
-        <v>0.03278688524590164</v>
-      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -10929,9 +10348,6 @@
       <c r="M202" t="n">
         <v>0.9659442724458205</v>
       </c>
-      <c r="N202" t="n">
-        <v>0.4262295081967213</v>
-      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -10981,9 +10397,6 @@
       <c r="M203" t="n">
         <v>0.9907120743034057</v>
       </c>
-      <c r="N203" t="n">
-        <v>0.1622950819672131</v>
-      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -11033,9 +10446,6 @@
       <c r="M204" t="n">
         <v>0.9876160990712074</v>
       </c>
-      <c r="N204" t="n">
-        <v>0.08196721311475409</v>
-      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -11085,9 +10495,6 @@
       <c r="M205" t="n">
         <v>0.9783281733746131</v>
       </c>
-      <c r="N205" t="n">
-        <v>0.1901639344262295</v>
-      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -11137,9 +10544,6 @@
       <c r="M206" t="n">
         <v>0.9721362229102166</v>
       </c>
-      <c r="N206" t="n">
-        <v>0.239344262295082</v>
-      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -11189,9 +10593,6 @@
       <c r="M207" t="n">
         <v>0.9535603715170279</v>
       </c>
-      <c r="N207" t="n">
-        <v>0.06229508196721312</v>
-      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -11241,9 +10642,6 @@
       <c r="M208" t="n">
         <v>0.9628482972136223</v>
       </c>
-      <c r="N208" t="n">
-        <v>0.6524590163934426</v>
-      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -11293,9 +10691,6 @@
       <c r="M209" t="n">
         <v>0.9845201238390093</v>
       </c>
-      <c r="N209" t="n">
-        <v>0.5540983606557377</v>
-      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -11345,9 +10740,6 @@
       <c r="M210" t="n">
         <v>0.9969040247678019</v>
       </c>
-      <c r="N210" t="n">
-        <v>0.3770491803278688</v>
-      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -11397,9 +10789,6 @@
       <c r="M211" t="n">
         <v>0.9071207430340558</v>
       </c>
-      <c r="N211" t="n">
-        <v>0.6032786885245902</v>
-      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -11449,9 +10838,6 @@
       <c r="M212" t="n">
         <v>0.9566563467492261</v>
       </c>
-      <c r="N212" t="n">
-        <v>0.8295081967213115</v>
-      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -11501,9 +10887,6 @@
       <c r="M213" t="n">
         <v>0.9690402476780187</v>
       </c>
-      <c r="N213" t="n">
-        <v>0.6819672131147541</v>
-      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -11553,9 +10936,6 @@
       <c r="M214" t="n">
         <v>0.9814241486068112</v>
       </c>
-      <c r="N214" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -11605,9 +10985,6 @@
       <c r="M215" t="n">
         <v>0.9938080495356038</v>
       </c>
-      <c r="N215" t="n">
-        <v>0.4459016393442623</v>
-      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -11657,9 +11034,6 @@
       <c r="M216" t="n">
         <v>0.9597523219814238</v>
       </c>
-      <c r="N216" t="n">
-        <v>0.8491803278688524</v>
-      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -11709,9 +11083,6 @@
       <c r="M217" t="n">
         <v>0.9752321981424149</v>
       </c>
-      <c r="N217" t="n">
-        <v>0.4754098360655737</v>
-      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -11761,7 +11132,6 @@
       <c r="M218" t="n">
         <v>0.09907120743034056</v>
       </c>
-      <c r="N218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -11811,9 +11181,6 @@
       <c r="M219" t="n">
         <v>0.3808049535603715</v>
       </c>
-      <c r="N219" t="n">
-        <v>0.1409836065573771</v>
-      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -11863,9 +11230,6 @@
       <c r="M220" t="n">
         <v>0.2105263157894737</v>
       </c>
-      <c r="N220" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -11915,9 +11279,6 @@
       <c r="M221" t="n">
         <v>0.3777089783281734</v>
       </c>
-      <c r="N221" t="n">
-        <v>0.05245901639344262</v>
-      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -11967,9 +11328,6 @@
       <c r="M222" t="n">
         <v>0.6842105263157895</v>
       </c>
-      <c r="N222" t="n">
-        <v>0.1114754098360656</v>
-      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12019,9 +11377,6 @@
       <c r="M223" t="n">
         <v>0.5820433436532506</v>
       </c>
-      <c r="N223" t="n">
-        <v>0.04426229508196721</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12071,9 +11426,6 @@
       <c r="M224" t="n">
         <v>0.563467492260062</v>
       </c>
-      <c r="N224" t="n">
-        <v>0.01475409836065574</v>
-      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12123,9 +11475,6 @@
       <c r="M225" t="n">
         <v>0.5356037151702787</v>
       </c>
-      <c r="N225" t="n">
-        <v>0.02459016393442623</v>
-      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12175,9 +11524,6 @@
       <c r="M226" t="n">
         <v>0.5386996904024768</v>
       </c>
-      <c r="N226" t="n">
-        <v>0.2885245901639344</v>
-      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12227,9 +11573,6 @@
       <c r="M227" t="n">
         <v>0.06811145510835914</v>
       </c>
-      <c r="N227" t="n">
-        <v>0.9131147540983606</v>
-      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12279,9 +11622,6 @@
       <c r="M228" t="n">
         <v>0.2538699690402477</v>
       </c>
-      <c r="N228" t="n">
-        <v>0.8885245901639345</v>
-      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12331,9 +11671,6 @@
       <c r="M229" t="n">
         <v>0.2291021671826625</v>
       </c>
-      <c r="N229" t="n">
-        <v>0.5737704918032787</v>
-      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12383,9 +11720,6 @@
       <c r="M230" t="n">
         <v>0.05882352941176468</v>
       </c>
-      <c r="N230" t="n">
-        <v>0.957377049180328</v>
-      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12435,9 +11769,6 @@
       <c r="M231" t="n">
         <v>0.1640866873065016</v>
       </c>
-      <c r="N231" t="n">
-        <v>0.9377049180327869</v>
-      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12487,9 +11818,6 @@
       <c r="M232" t="n">
         <v>0.2414860681114551</v>
       </c>
-      <c r="N232" t="n">
-        <v>0.839344262295082</v>
-      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12539,9 +11867,6 @@
       <c r="M233" t="n">
         <v>0.06191950464396286</v>
       </c>
-      <c r="N233" t="n">
-        <v>0.9475409836065574</v>
-      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12591,9 +11916,6 @@
       <c r="M234" t="n">
         <v>0.05572755417956657</v>
       </c>
-      <c r="N234" t="n">
-        <v>0.8786885245901639</v>
-      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12643,9 +11965,6 @@
       <c r="M235" t="n">
         <v>0.3343653250773994</v>
       </c>
-      <c r="N235" t="n">
-        <v>0.1508196721311476</v>
-      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12695,7 +12014,6 @@
       <c r="M236" t="n">
         <v>0.9442724458204335</v>
       </c>
-      <c r="N236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12745,9 +12063,6 @@
       <c r="M237" t="n">
         <v>0.9287925696594428</v>
       </c>
-      <c r="N237" t="n">
-        <v>0.3213114754098361</v>
-      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12797,9 +12112,6 @@
       <c r="M238" t="n">
         <v>0.826625386996904</v>
       </c>
-      <c r="N238" t="n">
-        <v>0.9770491803278689</v>
-      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12849,9 +12161,6 @@
       <c r="M239" t="n">
         <v>0.9473684210526316</v>
       </c>
-      <c r="N239" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12901,9 +12210,6 @@
       <c r="M240" t="n">
         <v>0.934984520123839</v>
       </c>
-      <c r="N240" t="n">
-        <v>0.2639344262295082</v>
-      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -12953,9 +12259,6 @@
       <c r="M241" t="n">
         <v>0.8978328173374613</v>
       </c>
-      <c r="N241" t="n">
-        <v>0.4049180327868852</v>
-      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13005,9 +12308,6 @@
       <c r="M242" t="n">
         <v>0.8916408668730651</v>
       </c>
-      <c r="N242" t="n">
-        <v>0.6131147540983606</v>
-      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13057,9 +12357,6 @@
       <c r="M243" t="n">
         <v>0.9504643962848297</v>
       </c>
-      <c r="N243" t="n">
-        <v>0.4557377049180328</v>
-      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13109,9 +12406,6 @@
       <c r="M244" t="n">
         <v>0.8823529411764707</v>
       </c>
-      <c r="N244" t="n">
-        <v>0.739344262295082</v>
-      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13161,9 +12455,6 @@
       <c r="M245" t="n">
         <v>0.9318885448916409</v>
       </c>
-      <c r="N245" t="n">
-        <v>0.5836065573770493</v>
-      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13213,9 +12504,6 @@
       <c r="M246" t="n">
         <v>0.8885448916408669</v>
       </c>
-      <c r="N246" t="n">
-        <v>0.819672131147541</v>
-      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13265,9 +12553,6 @@
       <c r="M247" t="n">
         <v>0.9040247678018575</v>
       </c>
-      <c r="N247" t="n">
-        <v>0.6721311475409837</v>
-      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13317,9 +12602,6 @@
       <c r="M248" t="n">
         <v>0.9411764705881923</v>
       </c>
-      <c r="N248" t="n">
-        <v>0.7016393442622951</v>
-      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13369,9 +12651,6 @@
       <c r="M249" t="n">
         <v>0.9102167182662539</v>
       </c>
-      <c r="N249" t="n">
-        <v>0.4852459016393442</v>
-      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13421,9 +12700,6 @@
       <c r="M250" t="n">
         <v>0.9380804953560372</v>
       </c>
-      <c r="N250" t="n">
-        <v>0.5147540983606558</v>
-      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13473,9 +12749,6 @@
       <c r="M251" t="n">
         <v>0.9256965944272446</v>
       </c>
-      <c r="N251" t="n">
-        <v>0.721311475409836</v>
-      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13525,9 +12798,6 @@
       <c r="M252" t="n">
         <v>0.9133126934984516</v>
       </c>
-      <c r="N252" t="n">
-        <v>0.7016393442622951</v>
-      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13577,9 +12847,6 @@
       <c r="M253" t="n">
         <v>0.9226006191950463</v>
       </c>
-      <c r="N253" t="n">
-        <v>0.5245901639344261</v>
-      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13629,7 +12896,6 @@
       <c r="M254" t="n">
         <v>0.260061919504644</v>
       </c>
-      <c r="N254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13679,9 +12945,6 @@
       <c r="M255" t="n">
         <v>0.5294117647058824</v>
       </c>
-      <c r="N255" t="n">
-        <v>0.1311475409836065</v>
-      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13731,9 +12994,6 @@
       <c r="M256" t="n">
         <v>0.3622291021671827</v>
       </c>
-      <c r="N256" t="n">
-        <v>0.9852459016393442</v>
-      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13783,9 +13043,6 @@
       <c r="M257" t="n">
         <v>0.4798761609907119</v>
       </c>
-      <c r="N257" t="n">
-        <v>0.09180327868852459</v>
-      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13835,9 +13092,6 @@
       <c r="M258" t="n">
         <v>0.4148606811145511</v>
       </c>
-      <c r="N258" t="n">
-        <v>0.1016393442622951</v>
-      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13887,9 +13141,6 @@
       <c r="M259" t="n">
         <v>0.1888544891640867</v>
       </c>
-      <c r="N259" t="n">
-        <v>0.5622950819672131</v>
-      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13939,9 +13190,6 @@
       <c r="M260" t="n">
         <v>0.1609907120743034</v>
       </c>
-      <c r="N260" t="n">
-        <v>0.5442622950819672</v>
-      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13991,9 +13239,6 @@
       <c r="M261" t="n">
         <v>0.3591331269349846</v>
       </c>
-      <c r="N261" t="n">
-        <v>0.2229508196721312</v>
-      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -14043,9 +13288,6 @@
       <c r="M262" t="n">
         <v>0.3374613003095975</v>
       </c>
-      <c r="N262" t="n">
-        <v>0.63224043715847</v>
-      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -14095,9 +13337,6 @@
       <c r="M263" t="n">
         <v>0.4241486068111455</v>
       </c>
-      <c r="N263" t="n">
-        <v>0.2295081967213115</v>
-      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -14147,9 +13386,6 @@
       <c r="M264" t="n">
         <v>0.390092879256966</v>
       </c>
-      <c r="N264" t="n">
-        <v>0.6934426229508197</v>
-      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -14199,9 +13435,6 @@
       <c r="M265" t="n">
         <v>0.3157894736842106</v>
       </c>
-      <c r="N265" t="n">
-        <v>0.4360655737704918</v>
-      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -14251,9 +13484,6 @@
       <c r="M266" t="n">
         <v>0.2229102167182663</v>
       </c>
-      <c r="N266" t="n">
-        <v>0.660655737704918</v>
-      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -14303,9 +13533,6 @@
       <c r="M267" t="n">
         <v>0.368421052631579</v>
       </c>
-      <c r="N267" t="n">
-        <v>0.6229508196721312</v>
-      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -14355,9 +13582,6 @@
       <c r="M268" t="n">
         <v>0.281733746130031</v>
       </c>
-      <c r="N268" t="n">
-        <v>0.9278688524590164</v>
-      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -14407,9 +13631,6 @@
       <c r="M269" t="n">
         <v>0.3498452012383901</v>
       </c>
-      <c r="N269" t="n">
-        <v>0.3967213114754098</v>
-      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -14459,9 +13680,6 @@
       <c r="M270" t="n">
         <v>0.6006191950464396</v>
       </c>
-      <c r="N270" t="n">
-        <v>0.3688524590163934</v>
-      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -14511,9 +13729,6 @@
       <c r="M271" t="n">
         <v>0.1857585139318886</v>
       </c>
-      <c r="N271" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -14563,7 +13778,6 @@
       <c r="M272" t="n">
         <v>0.6346749226006192</v>
       </c>
-      <c r="N272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -14613,9 +13827,6 @@
       <c r="M273" t="n">
         <v>0.4303405572755418</v>
       </c>
-      <c r="N273" t="n">
-        <v>0.2475409836065574</v>
-      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -14665,9 +13876,6 @@
       <c r="M274" t="n">
         <v>0.21671826625387</v>
       </c>
-      <c r="N274" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -14717,9 +13925,6 @@
       <c r="M275" t="n">
         <v>0.5263157894736843</v>
       </c>
-      <c r="N275" t="n">
-        <v>0.2967213114754098</v>
-      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -14769,9 +13974,6 @@
       <c r="M276" t="n">
         <v>0.4829721362229102</v>
       </c>
-      <c r="N276" t="n">
-        <v>0.2786885245901639</v>
-      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -14821,9 +14023,6 @@
       <c r="M277" t="n">
         <v>0.4643962848297214</v>
       </c>
-      <c r="N277" t="n">
-        <v>0.5360655737704918</v>
-      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -14873,9 +14072,6 @@
       <c r="M278" t="n">
         <v>0.5077399380804953</v>
       </c>
-      <c r="N278" t="n">
-        <v>0.2098360655737705</v>
-      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -14925,9 +14121,6 @@
       <c r="M279" t="n">
         <v>0.5789473684210527</v>
       </c>
-      <c r="N279" t="n">
-        <v>0.3836065573770492</v>
-      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -14977,9 +14170,6 @@
       <c r="M280" t="n">
         <v>0.4210526315789474</v>
       </c>
-      <c r="N280" t="n">
-        <v>0.7885245901639344</v>
-      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -15029,9 +14219,6 @@
       <c r="M281" t="n">
         <v>0.4613003095975233</v>
       </c>
-      <c r="N281" t="n">
-        <v>0.8983606557377048</v>
-      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -15081,9 +14268,6 @@
       <c r="M282" t="n">
         <v>0.5325077399380805</v>
       </c>
-      <c r="N282" t="n">
-        <v>0.8081967213114754</v>
-      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -15133,9 +14317,6 @@
       <c r="M283" t="n">
         <v>0.4736842105263158</v>
       </c>
-      <c r="N283" t="n">
-        <v>0.7508196721311475</v>
-      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -15185,9 +14366,6 @@
       <c r="M284" t="n">
         <v>0.3869969040247678</v>
       </c>
-      <c r="N284" t="n">
-        <v>0.760655737704918</v>
-      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -15237,9 +14415,6 @@
       <c r="M285" t="n">
         <v>0.4365325077399376</v>
       </c>
-      <c r="N285" t="n">
-        <v>0.8</v>
-      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -15289,9 +14464,6 @@
       <c r="M286" t="n">
         <v>0.5108359133126935</v>
       </c>
-      <c r="N286" t="n">
-        <v>0.5934426229508196</v>
-      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -15341,9 +14513,6 @@
       <c r="M287" t="n">
         <v>0.346749226006192</v>
       </c>
-      <c r="N287" t="n">
-        <v>0.8672131147540983</v>
-      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -15393,9 +14562,6 @@
       <c r="M288" t="n">
         <v>0.5139318885448917</v>
       </c>
-      <c r="N288" t="n">
-        <v>0.3278688524590164</v>
-      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -15445,9 +14611,6 @@
       <c r="M289" t="n">
         <v>0.4767801857585139</v>
       </c>
-      <c r="N289" t="n">
-        <v>0.639344262295082</v>
-      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -15497,7 +14660,6 @@
       <c r="M290" t="n">
         <v>0.6563467492260062</v>
       </c>
-      <c r="N290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -15547,9 +14709,6 @@
       <c r="M291" t="n">
         <v>0.6253869969040248</v>
       </c>
-      <c r="N291" t="n">
-        <v>0.2</v>
-      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -15599,9 +14758,6 @@
       <c r="M292" t="n">
         <v>0.4922600619195047</v>
       </c>
-      <c r="N292" t="n">
-        <v>0.9672131147540983</v>
-      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -15651,9 +14807,6 @@
       <c r="M293" t="n">
         <v>0.6749226006191951</v>
       </c>
-      <c r="N293" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -15703,9 +14856,6 @@
       <c r="M294" t="n">
         <v>0.2012383900928793</v>
       </c>
-      <c r="N294" t="n">
-        <v>0.8590163934426229</v>
-      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -15755,9 +14905,6 @@
       <c r="M295" t="n">
         <v>0.6068111455108359</v>
       </c>
-      <c r="N295" t="n">
-        <v>0.119672131147541</v>
-      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -15807,9 +14954,6 @@
       <c r="M296" t="n">
         <v>0.628482972136223</v>
       </c>
-      <c r="N296" t="n">
-        <v>0.1704918032786885</v>
-      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -15859,9 +15003,6 @@
       <c r="M297" t="n">
         <v>0.5913312693498453</v>
       </c>
-      <c r="N297" t="n">
-        <v>0.07049180327868854</v>
-      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -15911,9 +15052,6 @@
       <c r="M298" t="n">
         <v>0.5603715170278638</v>
       </c>
-      <c r="N298" t="n">
-        <v>0.3557377049180328</v>
-      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -15963,9 +15101,6 @@
       <c r="M299" t="n">
         <v>0.03095975232198143</v>
       </c>
-      <c r="N299" t="n">
-        <v>0.3475409836065574</v>
-      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -16015,9 +15150,6 @@
       <c r="M300" t="n">
         <v>0.3931888544891641</v>
       </c>
-      <c r="N300" t="n">
-        <v>0.7704918032786885</v>
-      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -16067,9 +15199,6 @@
       <c r="M301" t="n">
         <v>0.609907120743034</v>
       </c>
-      <c r="N301" t="n">
-        <v>0.4163934426229509</v>
-      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -16119,9 +15248,6 @@
       <c r="M302" t="n">
         <v>0.5541795665634672</v>
       </c>
-      <c r="N302" t="n">
-        <v>0.3081967213114754</v>
-      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -16171,9 +15297,6 @@
       <c r="M303" t="n">
         <v>0.176470588235294</v>
       </c>
-      <c r="N303" t="n">
-        <v>0.3377049180327869</v>
-      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -16223,9 +15346,6 @@
       <c r="M304" t="n">
         <v>0.2198142414860681</v>
       </c>
-      <c r="N304" t="n">
-        <v>0.7311475409836066</v>
-      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -16275,9 +15395,6 @@
       <c r="M305" t="n">
         <v>0.5201238390092879</v>
       </c>
-      <c r="N305" t="n">
-        <v>0.180327868852459</v>
-      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -16327,9 +15444,6 @@
       <c r="M306" t="n">
         <v>0.5232198142414861</v>
       </c>
-      <c r="N306" t="n">
-        <v>0.7819672131147541</v>
-      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -16379,9 +15493,6 @@
       <c r="M307" t="n">
         <v>0.4179566563467493</v>
       </c>
-      <c r="N307" t="n">
-        <v>0.4655737704918033</v>
-      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -16431,7 +15542,6 @@
       <c r="M308" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="N308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -16481,9 +15591,6 @@
       <c r="M309" t="n">
         <v>0.6780185758513932</v>
       </c>
-      <c r="N309" t="n">
-        <v>0.03278688524590164</v>
-      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -16533,9 +15640,6 @@
       <c r="M310" t="n">
         <v>0.5975232198142415</v>
       </c>
-      <c r="N310" t="n">
-        <v>0.4262295081967213</v>
-      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -16585,9 +15689,6 @@
       <c r="M311" t="n">
         <v>0.4860681114551084</v>
       </c>
-      <c r="N311" t="n">
-        <v>0.1622950819672131</v>
-      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -16637,9 +15738,6 @@
       <c r="M312" t="n">
         <v>0.6501547987616092</v>
       </c>
-      <c r="N312" t="n">
-        <v>0.08524590163934426</v>
-      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -16689,9 +15787,6 @@
       <c r="M313" t="n">
         <v>0.5758513931888545</v>
       </c>
-      <c r="N313" t="n">
-        <v>0.1901639344262295</v>
-      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -16741,9 +15836,6 @@
       <c r="M314" t="n">
         <v>0.4489164086687307</v>
       </c>
-      <c r="N314" t="n">
-        <v>0.239344262295082</v>
-      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -16793,9 +15885,6 @@
       <c r="M315" t="n">
         <v>0.7089783281733746</v>
       </c>
-      <c r="N315" t="n">
-        <v>0.06229508196721312</v>
-      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -16845,9 +15934,6 @@
       <c r="M316" t="n">
         <v>0.5170278637770899</v>
       </c>
-      <c r="N316" t="n">
-        <v>0.6524590163934426</v>
-      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -16897,9 +15983,6 @@
       <c r="M317" t="n">
         <v>0.2631578947368421</v>
       </c>
-      <c r="N317" t="n">
-        <v>0.5540983606557377</v>
-      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -16949,9 +16032,6 @@
       <c r="M318" t="n">
         <v>0.5510835913312694</v>
       </c>
-      <c r="N318" t="n">
-        <v>0.3770491803278688</v>
-      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -17001,9 +16081,6 @@
       <c r="M319" t="n">
         <v>0.6687306501547988</v>
       </c>
-      <c r="N319" t="n">
-        <v>0.6032786885245902</v>
-      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -17053,9 +16130,6 @@
       <c r="M320" t="n">
         <v>0.7027863777089783</v>
       </c>
-      <c r="N320" t="n">
-        <v>0.8295081967213115</v>
-      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -17105,9 +16179,6 @@
       <c r="M321" t="n">
         <v>0.4427244582043344</v>
       </c>
-      <c r="N321" t="n">
-        <v>0.6819672131147541</v>
-      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -17157,9 +16228,6 @@
       <c r="M322" t="n">
         <v>0.2910216718266254</v>
       </c>
-      <c r="N322" t="n">
-        <v>0.5</v>
-      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -17209,9 +16277,6 @@
       <c r="M323" t="n">
         <v>0.2972136222910217</v>
       </c>
-      <c r="N323" t="n">
-        <v>0.4459016393442623</v>
-      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -17261,9 +16326,6 @@
       <c r="M324" t="n">
         <v>0.4891640866873065</v>
       </c>
-      <c r="N324" t="n">
-        <v>0.8491803278688524</v>
-      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -17312,9 +16374,6 @@
       </c>
       <c r="M325" t="n">
         <v>0.6191950464396285</v>
-      </c>
-      <c r="N325" t="n">
-        <v>0.4754098360655737</v>
       </c>
     </row>
   </sheetData>
